--- a/14-16 all_dmu analysis.xlsx
+++ b/14-16 all_dmu analysis.xlsx
@@ -49,7 +49,7 @@
     <t>efficiency</t>
   </si>
   <si>
-    <t>efficiency change</t>
+    <t>efficiency changing</t>
   </si>
   <si>
     <t>AIA Taiwan 14</t>
@@ -968,6 +968,9 @@
       <c r="L2">
         <v>1.0088</v>
       </c>
+      <c r="M2">
+        <v>-0.0008</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
@@ -1007,7 +1010,7 @@
         <v>1.008</v>
       </c>
       <c r="M3">
-        <v>-0.0008</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1048,7 +1051,7 @@
         <v>1.0051</v>
       </c>
       <c r="M4">
-        <v>-0.0029</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1089,7 +1092,7 @@
         <v>1.012</v>
       </c>
       <c r="M5">
-        <v>0.0068</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1130,7 +1133,7 @@
         <v>1.0214</v>
       </c>
       <c r="M6">
-        <v>0.009299999999999999</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1171,7 +1174,7 @@
         <v>1.0126</v>
       </c>
       <c r="M7">
-        <v>-0.0086</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1212,7 +1215,7 @@
         <v>1.0147</v>
       </c>
       <c r="M8">
-        <v>0.0021</v>
+        <v>0.0226</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1253,7 +1256,7 @@
         <v>1.0377</v>
       </c>
       <c r="M9">
-        <v>0.0226</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1294,7 +1297,7 @@
         <v>1.0393</v>
       </c>
       <c r="M10">
-        <v>0.0015</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1335,7 +1338,7 @@
         <v>1.0025</v>
       </c>
       <c r="M11">
-        <v>-0.0354</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1376,7 +1379,7 @@
         <v>1.0005</v>
       </c>
       <c r="M12">
-        <v>-0.002</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1417,7 +1420,7 @@
         <v>1.0003</v>
       </c>
       <c r="M13">
-        <v>-0.0003</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1458,7 +1461,7 @@
         <v>1.0154</v>
       </c>
       <c r="M14">
-        <v>0.0151</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1499,7 +1502,7 @@
         <v>1.0097</v>
       </c>
       <c r="M15">
-        <v>-0.0055</v>
+        <v>-0.0097</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1540,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>-0.0097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1581,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1663,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1745,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1786,7 +1789,7 @@
         <v>1.0077</v>
       </c>
       <c r="M22">
-        <v>0.0077</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1827,7 +1830,7 @@
         <v>1.0084</v>
       </c>
       <c r="M23">
-        <v>0.0007</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1868,7 +1871,7 @@
         <v>1.0117</v>
       </c>
       <c r="M24">
-        <v>0.0033</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1909,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>-0.0115</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1950,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>-0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1991,7 +1994,7 @@
         <v>1.0008</v>
       </c>
       <c r="M27">
-        <v>0.0008</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2032,7 +2035,7 @@
         <v>1.0005</v>
       </c>
       <c r="M28">
-        <v>-0.0003</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2073,7 +2076,7 @@
         <v>1.0021</v>
       </c>
       <c r="M29">
-        <v>0.0016</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2114,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>-0.0021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2155,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2196,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>-0</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2237,7 +2240,7 @@
         <v>1.0022</v>
       </c>
       <c r="M33">
-        <v>0.0022</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2278,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>-0.0022</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2319,7 +2322,7 @@
         <v>1.002</v>
       </c>
       <c r="M35">
-        <v>0.002</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2360,7 +2363,7 @@
         <v>1.0242</v>
       </c>
       <c r="M36">
-        <v>0.0222</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2401,7 +2404,7 @@
         <v>1.0255</v>
       </c>
       <c r="M37">
-        <v>0.0013</v>
+        <v>-0.0194</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2442,7 +2445,7 @@
         <v>1.0055</v>
       </c>
       <c r="M38">
-        <v>-0.0194</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2483,7 +2486,7 @@
         <v>1.0088</v>
       </c>
       <c r="M39">
-        <v>0.0032</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2524,7 +2527,7 @@
         <v>1.0296</v>
       </c>
       <c r="M40">
-        <v>0.0206</v>
+        <v>-0.0266</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2565,7 +2568,7 @@
         <v>1.0021</v>
       </c>
       <c r="M41">
-        <v>-0.0266</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2606,7 +2609,7 @@
         <v>1.0027</v>
       </c>
       <c r="M42">
-        <v>0.0005</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2647,7 +2650,7 @@
         <v>1.0029</v>
       </c>
       <c r="M43">
-        <v>0.0002</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2688,7 +2691,7 @@
         <v>1.001</v>
       </c>
       <c r="M44">
-        <v>-0.0019</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2729,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>-0.001</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2770,7 +2773,7 @@
         <v>1.0988</v>
       </c>
       <c r="M46">
-        <v>0.0988</v>
+        <v>-0.0663</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2811,7 +2814,7 @@
         <v>1.026</v>
       </c>
       <c r="M47">
-        <v>-0.0663</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2852,7 +2855,7 @@
         <v>1.004</v>
       </c>
       <c r="M48">
-        <v>-0.0214</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2893,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <v>-0.004</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2934,7 +2937,7 @@
         <v>1.0057</v>
       </c>
       <c r="M50">
-        <v>0.0057</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2975,7 +2978,7 @@
         <v>1.0494</v>
       </c>
       <c r="M51">
-        <v>0.0435</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3016,7 +3019,7 @@
         <v>1.0511</v>
       </c>
       <c r="M52">
-        <v>0.0016</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3057,7 +3060,7 @@
         <v>1.0605</v>
       </c>
       <c r="M53">
-        <v>0.0089</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3098,7 +3101,7 @@
         <v>1.0243</v>
       </c>
       <c r="M54">
-        <v>-0.0342</v>
+        <v>-0.0155</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3139,7 +3142,7 @@
         <v>1.0084</v>
       </c>
       <c r="M55">
-        <v>-0.0155</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3180,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>-0.0083</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3221,7 +3224,7 @@
         <v>1.0131</v>
       </c>
       <c r="M57">
-        <v>0.0131</v>
+        <v>-0.008800000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3262,7 +3265,7 @@
         <v>1.0042</v>
       </c>
       <c r="M58">
-        <v>-0.008800000000000001</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3303,7 +3306,7 @@
         <v>1.0132</v>
       </c>
       <c r="M59">
-        <v>0.0089</v>
+        <v>-0.009599999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3344,7 +3347,7 @@
         <v>1.0034</v>
       </c>
       <c r="M60">
-        <v>-0.009599999999999999</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3385,7 +3388,7 @@
         <v>1.0037</v>
       </c>
       <c r="M61">
-        <v>0.0003</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3426,7 +3429,7 @@
         <v>1.0036</v>
       </c>
       <c r="M62">
-        <v>-0.0002</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3467,7 +3470,7 @@
         <v>1.0147</v>
       </c>
       <c r="M63">
-        <v>0.0111</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3508,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="M64">
-        <v>-0.0145</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3549,7 +3552,7 @@
         <v>1.0159</v>
       </c>
       <c r="M65">
-        <v>0.0159</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3590,7 +3593,7 @@
         <v>1.1287</v>
       </c>
       <c r="M66">
-        <v>0.1111</v>
+        <v>-0.102</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3631,7 +3634,7 @@
         <v>1.0136</v>
       </c>
       <c r="M67">
-        <v>-0.102</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3672,7 +3675,7 @@
         <v>1.0337</v>
       </c>
       <c r="M68">
-        <v>0.0198</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3713,7 +3716,7 @@
         <v>1.0514</v>
       </c>
       <c r="M69">
-        <v>0.0171</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3754,7 +3757,7 @@
         <v>1.0785</v>
       </c>
       <c r="M70">
-        <v>0.0258</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3795,7 +3798,7 @@
         <v>1.0458</v>
       </c>
       <c r="M71">
-        <v>-0.0304</v>
+        <v>-0.0391</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3836,7 +3839,7 @@
         <v>1.0049</v>
       </c>
       <c r="M72">
-        <v>-0.0391</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3877,7 +3880,7 @@
         <v>1.0303</v>
       </c>
       <c r="M73">
-        <v>0.0253</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3918,7 +3921,7 @@
         <v>1.0114</v>
       </c>
       <c r="M74">
-        <v>-0.0183</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3959,7 +3962,7 @@
         <v>1.0309</v>
       </c>
       <c r="M75">
-        <v>0.0192</v>
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4000,7 +4003,7 @@
         <v>1.0192</v>
       </c>
       <c r="M76">
-        <v>-0.0113</v>
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4041,7 +4044,7 @@
         <v>1.0002</v>
       </c>
       <c r="M77">
-        <v>-0.0186</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4082,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>-0.0002</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4121,9 +4124,6 @@
       </c>
       <c r="L79">
         <v>1</v>
-      </c>
-      <c r="M79">
-        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/14-16 all_dmu analysis.xlsx
+++ b/14-16 all_dmu analysis.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/insurer-emperical-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7957580F-B589-284C-B257-290A929F6A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0D249E-13AE-324E-87A5-EB12D7727F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1137,7 +1147,7 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/14-16 all_dmu analysis.xlsx
+++ b/14-16 all_dmu analysis.xlsx
@@ -8,29 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/insurer-emperical-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0D249E-13AE-324E-87A5-EB12D7727F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6150E4-F860-0043-AA96-B3CF49507946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="173">
   <si>
     <t>insurance_exp</t>
   </si>
@@ -47,6 +37,12 @@
     <t>output progress direction</t>
   </si>
   <si>
+    <t>reference DMU</t>
+  </si>
+  <si>
+    <t>reference lambda</t>
+  </si>
+  <si>
     <t>insurance_exp max direction of MP</t>
   </si>
   <si>
@@ -536,190 +532,13 @@
     <t>[nan nan]</t>
   </si>
   <si>
-    <t>[0.9897 0.0103]</t>
-  </si>
-  <si>
-    <t>[0.9883 0.0117]</t>
-  </si>
-  <si>
-    <t>[0.9877 0.0123]</t>
-  </si>
-  <si>
-    <t>[0.9896 0.0104]</t>
-  </si>
-  <si>
-    <t>[0.9888 0.0112]</t>
-  </si>
-  <si>
-    <t>[0.9857 0.0143]</t>
-  </si>
-  <si>
-    <t>[0.9259 0.0741]</t>
-  </si>
-  <si>
-    <t>[0.9362 0.0638]</t>
-  </si>
-  <si>
-    <t>[0.94 0.06]</t>
-  </si>
-  <si>
-    <t>[0.9875 0.0125]</t>
-  </si>
-  <si>
-    <t>[0.9868 0.0132]</t>
-  </si>
-  <si>
-    <t>[0.9887 0.0113]</t>
-  </si>
-  <si>
-    <t>[0.9937 0.0063]</t>
-  </si>
-  <si>
-    <t>[0.9931 0.0069]</t>
+    <t>[0 1]</t>
   </si>
   <si>
     <t>[0 0]</t>
   </si>
   <si>
-    <t>[0.9892 0.0108]</t>
-  </si>
-  <si>
-    <t>[0.9906 0.0094]</t>
-  </si>
-  <si>
-    <t>[0.7693 0.2307]</t>
-  </si>
-  <si>
     <t>[1 0]</t>
-  </si>
-  <si>
-    <t>[0.9953 0.0047]</t>
-  </si>
-  <si>
-    <t>[0.9952 0.0048]</t>
-  </si>
-  <si>
-    <t>[0.9944 0.0056]</t>
-  </si>
-  <si>
-    <t>[0 1]</t>
-  </si>
-  <si>
-    <t>[0.9939 0.0061]</t>
-  </si>
-  <si>
-    <t>[0.924 0.076]</t>
-  </si>
-  <si>
-    <t>[0.9016 0.0984]</t>
-  </si>
-  <si>
-    <t>[0.9197 0.0803]</t>
-  </si>
-  <si>
-    <t>[0.9164 0.0836]</t>
-  </si>
-  <si>
-    <t>[0.9211 0.0789]</t>
-  </si>
-  <si>
-    <t>[0.9936 0.0064]</t>
-  </si>
-  <si>
-    <t>[0.9942 0.0058]</t>
-  </si>
-  <si>
-    <t>[0.994 0.006]</t>
-  </si>
-  <si>
-    <t>[0.4643 0.5357]</t>
-  </si>
-  <si>
-    <t>[0.3576 0.6424]</t>
-  </si>
-  <si>
-    <t>[0.9863 0.0137]</t>
-  </si>
-  <si>
-    <t>[0.9521 0.0479]</t>
-  </si>
-  <si>
-    <t>[0.9454 0.0546]</t>
-  </si>
-  <si>
-    <t>[0.8508 0.1492]</t>
-  </si>
-  <si>
-    <t>[0.8288 0.1712]</t>
-  </si>
-  <si>
-    <t>[0.8141 0.1859]</t>
-  </si>
-  <si>
-    <t>[0.3726 0.6274]</t>
-  </si>
-  <si>
-    <t>[0.3098 0.6902]</t>
-  </si>
-  <si>
-    <t>[0.96 0.04]</t>
-  </si>
-  <si>
-    <t>[1. 0.]</t>
-  </si>
-  <si>
-    <t>[0.9499 0.0501]</t>
-  </si>
-  <si>
-    <t>[0.9789 0.0211]</t>
-  </si>
-  <si>
-    <t>[0.9777 0.0223]</t>
-  </si>
-  <si>
-    <t>[0.9723 0.0277]</t>
-  </si>
-  <si>
-    <t>[0.9881 0.0119]</t>
-  </si>
-  <si>
-    <t>[0.5671 0.4329]</t>
-  </si>
-  <si>
-    <t>[0.5112 0.4888]</t>
-  </si>
-  <si>
-    <t>[0.8882 0.1118]</t>
-  </si>
-  <si>
-    <t>[0.8992 0.1008]</t>
-  </si>
-  <si>
-    <t>[0.7372 0.2628]</t>
-  </si>
-  <si>
-    <t>[0.8059 0.1941]</t>
-  </si>
-  <si>
-    <t>[0.8404 0.1596]</t>
-  </si>
-  <si>
-    <t>[0.8009 0.1991]</t>
-  </si>
-  <si>
-    <t>[0.7981 0.2019]</t>
-  </si>
-  <si>
-    <t>[0.9785 0.0215]</t>
-  </si>
-  <si>
-    <t>[0.9744 0.0256]</t>
-  </si>
-  <si>
-    <t>[0.9714 0.0286]</t>
-  </si>
-  <si>
-    <t>[0.9954 0.0046]</t>
   </si>
 </sst>
 </file>
@@ -1144,23 +963,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="144" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="19.59765625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
+    <col min="1" max="1" width="33.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,10 +1013,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <v>1.0019</v>
@@ -1214,34 +1036,40 @@
       <c r="E2" s="4">
         <v>1.7022999999999999</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>90</v>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-0.15090000000000001</v>
+        <v>46</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.5363</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J2" s="5">
-        <v>-0.15090000000000001</v>
-      </c>
-      <c r="K2" s="5">
-        <v>-0.15090000000000001</v>
-      </c>
-      <c r="L2" s="4">
+        <v>0.9869</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.9869</v>
+      </c>
+      <c r="N2" s="4">
         <v>1.0087999999999999</v>
       </c>
-      <c r="M2" s="4">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1">
+      <c r="O2" s="4">
+        <v>1.0007999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
         <v>0.93769999999999998</v>
@@ -1255,34 +1083,40 @@
       <c r="E3" s="4">
         <v>1.9300999999999999</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>91</v>
+      <c r="F3" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.9718</v>
+        <v>46</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.58340000000000003</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J3" s="5">
-        <v>0.9718</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.9718</v>
-      </c>
-      <c r="L3" s="4">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="N3" s="4">
         <v>1.008</v>
       </c>
-      <c r="M3" s="4">
-        <v>-2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1">
+      <c r="O3" s="4">
+        <v>1.0028999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>0.87809999999999999</v>
@@ -1296,34 +1130,40 @@
       <c r="E4" s="4">
         <v>2.0322</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>92</v>
+      <c r="F4" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-0.53879999999999995</v>
+        <v>46</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.63129999999999997</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>170</v>
       </c>
       <c r="J4" s="5">
-        <v>-0.53879999999999995</v>
-      </c>
-      <c r="K4" s="5">
-        <v>-0.53879999999999995</v>
-      </c>
-      <c r="L4" s="4">
+        <v>-0.84909999999999997</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-0.84909999999999997</v>
+      </c>
+      <c r="N4" s="4">
         <v>1.0051000000000001</v>
       </c>
-      <c r="M4" s="4">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" s="4">
+        <v>0.99319999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>3.1435</v>
@@ -1337,34 +1177,40 @@
       <c r="E5">
         <v>1.7201</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>93</v>
+      <c r="F5" t="s">
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-0.99670000000000003</v>
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>0.78749999999999998</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>171</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.99670000000000003</v>
-      </c>
-      <c r="K5" s="2">
-        <v>-0.99670000000000003</v>
-      </c>
-      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1.012</v>
       </c>
-      <c r="M5">
-        <v>9.2999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>0.99080000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4.5007999999999999</v>
@@ -1378,34 +1224,40 @@
       <c r="E6">
         <v>1.8231999999999999</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>94</v>
+      <c r="F6" t="s">
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.89180000000000004</v>
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>0.99429999999999996</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J6" s="2">
-        <v>0.89180000000000004</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.89180000000000004</v>
-      </c>
-      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>1.0214000000000001</v>
       </c>
-      <c r="M6">
-        <v>-8.6E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>1.0086999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>3.6065</v>
@@ -1419,34 +1271,40 @@
       <c r="E7">
         <v>2.3632</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>95</v>
+      <c r="F7" t="s">
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-0.71899999999999997</v>
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>0.92130000000000001</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J7" s="2">
-        <v>-0.71899999999999997</v>
-      </c>
-      <c r="K7" s="2">
-        <v>-0.71899999999999997</v>
-      </c>
-      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>1.0125999999999999</v>
       </c>
-      <c r="M7">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1">
+      <c r="O7">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4">
         <v>1.8587</v>
@@ -1460,34 +1318,40 @@
       <c r="E8" s="4">
         <v>12.176500000000001</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>96</v>
+      <c r="F8" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-3.73E-2</v>
+        <v>61</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.6552</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J8" s="5">
-        <v>-3.73E-2</v>
-      </c>
-      <c r="K8" s="5">
-        <v>-3.73E-2</v>
-      </c>
-      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>1.0146999999999999</v>
       </c>
-      <c r="M8" s="4">
-        <v>2.2599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1">
+      <c r="O8" s="4">
+        <v>0.97789999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>2.3653</v>
@@ -1501,34 +1365,40 @@
       <c r="E9" s="4">
         <v>10.387</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>97</v>
+      <c r="F9" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-8.8099999999999998E-2</v>
+        <v>33</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.93989999999999996</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J9" s="5">
-        <v>-8.8099999999999998E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <v>-8.8099999999999998E-2</v>
-      </c>
-      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-0.99980000000000002</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-0.99980000000000002</v>
+      </c>
+      <c r="N9" s="4">
         <v>1.0377000000000001</v>
       </c>
-      <c r="M9" s="4">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1">
+      <c r="O9" s="4">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>2.9632000000000001</v>
@@ -1542,34 +1412,40 @@
       <c r="E10" s="4">
         <v>9.7167999999999992</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>98</v>
+      <c r="F10" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.78859999999999997</v>
+        <v>33</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.92679999999999996</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J10" s="5">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-0.56340000000000001</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-0.56340000000000001</v>
+      </c>
+      <c r="N10" s="4">
         <v>1.0392999999999999</v>
       </c>
-      <c r="M10" s="4">
-        <v>-3.5400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" s="4">
+        <v>1.0367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1.0458000000000001</v>
@@ -1583,34 +1459,40 @@
       <c r="E11">
         <v>2.0626000000000002</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>99</v>
+      <c r="F11" t="s">
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.93889999999999996</v>
+        <v>91</v>
+      </c>
+      <c r="H11">
+        <v>0.72629999999999995</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J11" s="2">
-        <v>0.93889999999999996</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.93889999999999996</v>
-      </c>
-      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>1.0024999999999999</v>
       </c>
-      <c r="M11">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>1.3233999999999999</v>
@@ -1624,34 +1506,40 @@
       <c r="E12">
         <v>2.1907999999999999</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>100</v>
+      <c r="F12" t="s">
+        <v>102</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.5958</v>
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>0.66459999999999997</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J12" s="2">
-        <v>0.5958</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.5958</v>
-      </c>
-      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>1.0004999999999999</v>
       </c>
-      <c r="M12">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>1.0003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>1.1358999999999999</v>
@@ -1665,34 +1553,40 @@
       <c r="E13">
         <v>1.8709</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>101</v>
+      <c r="F13" t="s">
+        <v>103</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="2">
-        <v>-0.78620000000000001</v>
+        <v>91</v>
+      </c>
+      <c r="H13">
+        <v>0.63</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J13" s="2">
-        <v>-0.78620000000000001</v>
-      </c>
-      <c r="K13" s="2">
-        <v>-0.78620000000000001</v>
-      </c>
-      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>1.0003</v>
       </c>
-      <c r="M13">
-        <v>1.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1">
+      <c r="O13">
+        <v>0.98509999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4">
         <v>4.6574999999999998</v>
@@ -1706,34 +1600,40 @@
       <c r="E14" s="4">
         <v>1.04</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>102</v>
+      <c r="F14" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.99350000000000005</v>
+        <v>28</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J14" s="5">
-        <v>0.99350000000000005</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.99350000000000005</v>
-      </c>
-      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
         <v>1.0154000000000001</v>
       </c>
-      <c r="M14" s="4">
-        <v>-5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="4" customFormat="1">
+      <c r="O14" s="4">
+        <v>1.0056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>4.7965</v>
@@ -1747,34 +1647,40 @@
       <c r="E15" s="4">
         <v>1.1474</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>103</v>
+      <c r="F15" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="5">
+        <v>28</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.99970000000000003</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J15" s="5">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <v>1.0097</v>
       </c>
-      <c r="M15" s="4">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1">
+      <c r="O15" s="4">
+        <v>1.0097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4">
         <v>3.5586000000000002</v>
@@ -1788,34 +1694,40 @@
       <c r="E16" s="4">
         <v>1.121</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>104</v>
+      <c r="F16" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="K16" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
         <v>1</v>
       </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>32.2151</v>
@@ -1829,34 +1741,40 @@
       <c r="E17">
         <v>169.2475</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>105</v>
+      <c r="F17" t="s">
+        <v>107</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" s="2">
         <v>-0.27189999999999998</v>
       </c>
-      <c r="K17" s="2">
+      <c r="M17" s="2">
         <v>-0.27189999999999998</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>32.787799999999997</v>
@@ -1870,34 +1788,40 @@
       <c r="E18">
         <v>182.49760000000001</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>106</v>
+      <c r="F18" t="s">
+        <v>108</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>37.923999999999999</v>
@@ -1911,34 +1835,40 @@
       <c r="E19">
         <v>191.2397</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>107</v>
+      <c r="F19" t="s">
+        <v>109</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>33.6128</v>
@@ -1952,34 +1882,40 @@
       <c r="E20">
         <v>171.89519999999999</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>108</v>
+      <c r="F20" t="s">
+        <v>110</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" s="2">
         <v>0.64329999999999998</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
         <v>0.64329999999999998</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4">
         <v>0.80249999999999999</v>
@@ -1993,34 +1929,40 @@
       <c r="E21" s="4">
         <v>3.1263000000000001</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>109</v>
+      <c r="F21" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" s="5">
         <v>-0.99280000000000002</v>
       </c>
-      <c r="K21" s="5">
+      <c r="M21" s="5">
         <v>-0.99280000000000002</v>
       </c>
-      <c r="L21" s="4">
+      <c r="N21" s="4">
         <v>1</v>
       </c>
-      <c r="M21" s="4">
-        <v>7.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1">
+      <c r="O21" s="4">
+        <v>0.99229999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4">
         <v>0.76619999999999999</v>
@@ -2034,34 +1976,40 @@
       <c r="E22" s="4">
         <v>1.7727999999999999</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>110</v>
+      <c r="F22" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.2412</v>
+        <v>91</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.88660000000000005</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J22" s="5">
-        <v>0.2412</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0.2412</v>
-      </c>
-      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
         <v>1.0077</v>
       </c>
-      <c r="M22" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1">
+      <c r="O22" s="4">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4">
         <v>0.71430000000000005</v>
@@ -2075,34 +2023,40 @@
       <c r="E23" s="4">
         <v>1.5447</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>111</v>
+      <c r="F23" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" s="5">
-        <v>-0.61539999999999995</v>
+        <v>91</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.8679</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J23" s="5">
-        <v>-0.61539999999999995</v>
-      </c>
-      <c r="K23" s="5">
-        <v>-0.61539999999999995</v>
-      </c>
-      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
         <v>1.0084</v>
       </c>
-      <c r="M23" s="4">
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23" s="4">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>9.5121000000000002</v>
@@ -2116,34 +2070,40 @@
       <c r="E24">
         <v>39.691499999999998</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>112</v>
+      <c r="F24" t="s">
+        <v>114</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="2">
-        <v>-0.2029</v>
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>0.76100000000000001</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J24" s="2">
-        <v>-0.2029</v>
-      </c>
-      <c r="K24" s="2">
-        <v>-0.2029</v>
-      </c>
-      <c r="L24">
+        <v>-0.47560000000000002</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-0.47560000000000002</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-0.47560000000000002</v>
+      </c>
+      <c r="N24">
         <v>1.0117</v>
       </c>
-      <c r="M24">
-        <v>-1.15E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>1.0117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>13.5952</v>
@@ -2157,34 +2117,40 @@
       <c r="E25">
         <v>47.904899999999998</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>113</v>
+      <c r="F25" t="s">
+        <v>115</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="2">
         <v>0.8014</v>
       </c>
-      <c r="K25" s="2">
+      <c r="M25" s="2">
         <v>0.8014</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>1</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>11.731</v>
@@ -2198,34 +2164,40 @@
       <c r="E26">
         <v>47.708599999999997</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>114</v>
+      <c r="F26" t="s">
+        <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.61309999999999998</v>
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J26" s="2">
         <v>0.61309999999999998</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="2">
         <v>0.61309999999999998</v>
       </c>
-      <c r="L26">
+      <c r="M26" s="2">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
-      <c r="M26">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1">
+      <c r="O26">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4">
         <v>0.85529999999999995</v>
@@ -2239,34 +2211,40 @@
       <c r="E27" s="4">
         <v>0.76980000000000004</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>115</v>
+      <c r="F27" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.95750000000000002</v>
+        <v>91</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.6905</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="J27" s="5">
-        <v>0.95750000000000002</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0.95750000000000002</v>
-      </c>
-      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>1.0007999999999999</v>
       </c>
-      <c r="M27" s="4">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1">
+      <c r="O27" s="4">
+        <v>1.0003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4">
         <v>0.82289999999999996</v>
@@ -2280,34 +2258,40 @@
       <c r="E28" s="4">
         <v>0.79679999999999995</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>116</v>
+      <c r="F28" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H28" s="5">
-        <v>-0.99319999999999997</v>
+        <v>91</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.61180000000000001</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J28" s="5">
-        <v>-0.99319999999999997</v>
-      </c>
-      <c r="K28" s="5">
-        <v>-0.99319999999999997</v>
-      </c>
-      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
         <v>1.0004999999999999</v>
       </c>
-      <c r="M28" s="4">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1">
+      <c r="O28" s="4">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4">
         <v>1.0187999999999999</v>
@@ -2321,34 +2305,40 @@
       <c r="E29" s="4">
         <v>0.7722</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>117</v>
+      <c r="F29" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H29" s="5">
-        <v>-0.70920000000000005</v>
+        <v>91</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.55800000000000005</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="J29" s="5">
-        <v>-0.70920000000000005</v>
-      </c>
-      <c r="K29" s="5">
-        <v>-0.70920000000000005</v>
-      </c>
-      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
         <v>1.0021</v>
       </c>
-      <c r="M29" s="4">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O29" s="4">
+        <v>1.0021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>0.4869</v>
@@ -2362,34 +2352,40 @@
       <c r="E30">
         <v>20.221399999999999</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>118</v>
+      <c r="F30" t="s">
+        <v>120</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="2">
+        <v>42</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="2">
         <v>0.76939999999999997</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="K30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
         <v>0.76939999999999997</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>1</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0.376</v>
@@ -2403,34 +2399,40 @@
       <c r="E31">
         <v>19.016100000000002</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>119</v>
+      <c r="F31" t="s">
+        <v>121</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" s="2">
+        <v>43</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="2">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="K31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>0.52800000000000002</v>
@@ -2444,34 +2446,40 @@
       <c r="E32">
         <v>19.298999999999999</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>120</v>
+      <c r="F32" t="s">
+        <v>122</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.71150000000000002</v>
+        <v>44</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J32" s="2">
         <v>0.71150000000000002</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L32" s="2">
         <v>0.71150000000000002</v>
       </c>
-      <c r="L32">
+      <c r="M32" s="2">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="N32">
         <v>1</v>
       </c>
-      <c r="M32">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="4" customFormat="1">
+      <c r="O32">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="4">
         <v>1.1580999999999999</v>
@@ -2485,34 +2493,40 @@
       <c r="E33" s="4">
         <v>0.93479999999999996</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>121</v>
+      <c r="F33" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.99429999999999996</v>
+        <v>46</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.94299999999999995</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="J33" s="5">
-        <v>0.99429999999999996</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0.99429999999999996</v>
-      </c>
-      <c r="L33" s="4">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="N33" s="4">
         <v>1.0022</v>
       </c>
-      <c r="M33" s="4">
-        <v>-2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1">
+      <c r="O33" s="4">
+        <v>1.0022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="4">
         <v>1.0128999999999999</v>
@@ -2526,34 +2540,40 @@
       <c r="E34" s="4">
         <v>0.97299999999999998</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>122</v>
+      <c r="F34" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H34" s="5">
+        <v>46</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="5">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="K34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="L34" s="4">
+      <c r="N34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="4">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1">
+      <c r="O34" s="4">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4">
         <v>0.90800000000000003</v>
@@ -2567,34 +2587,40 @@
       <c r="E35" s="4">
         <v>1.0101</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>123</v>
+      <c r="F35" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" s="5">
-        <v>-0.67379999999999995</v>
+        <v>46</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.88370000000000004</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="J35" s="5">
-        <v>-0.67379999999999995</v>
-      </c>
-      <c r="K35" s="5">
-        <v>-0.67379999999999995</v>
-      </c>
-      <c r="L35" s="4">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="N35" s="4">
         <v>1.002</v>
       </c>
-      <c r="M35" s="4">
-        <v>2.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="O35" s="4">
+        <v>0.97829999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>10.8484</v>
@@ -2608,34 +2634,40 @@
       <c r="E36">
         <v>12.6541</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>124</v>
+      <c r="F36" t="s">
+        <v>126</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-0.56030000000000002</v>
+        <v>28</v>
+      </c>
+      <c r="H36">
+        <v>0.61350000000000005</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="J36" s="2">
-        <v>-0.56030000000000002</v>
-      </c>
-      <c r="K36" s="2">
-        <v>-0.56030000000000002</v>
-      </c>
-      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>1.0242</v>
       </c>
-      <c r="M36">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>10.632</v>
@@ -2649,34 +2681,40 @@
       <c r="E37">
         <v>16.4587</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>125</v>
+      <c r="F37" t="s">
+        <v>127</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.79300000000000004</v>
+        <v>91</v>
+      </c>
+      <c r="H37">
+        <v>0.61580000000000001</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="J37" s="2">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <v>1.0255000000000001</v>
       </c>
-      <c r="M37">
-        <v>-1.9400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="4" customFormat="1">
+      <c r="O37">
+        <v>1.0198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="4">
         <v>3.6964999999999999</v>
@@ -2690,34 +2728,40 @@
       <c r="E38" s="4">
         <v>13.583</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>126</v>
+      <c r="F38" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="5">
-        <v>-0.84240000000000004</v>
+        <v>91</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.82630000000000003</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="J38" s="5">
-        <v>-0.84240000000000004</v>
-      </c>
-      <c r="K38" s="5">
-        <v>-0.84240000000000004</v>
-      </c>
-      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
         <v>1.0055000000000001</v>
       </c>
-      <c r="M38" s="4">
-        <v>3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="4" customFormat="1">
+      <c r="O38" s="4">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="4">
         <v>4.8190999999999997</v>
@@ -2731,34 +2775,40 @@
       <c r="E39" s="4">
         <v>14.106999999999999</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>127</v>
+      <c r="F39" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H39" s="5">
-        <v>-0.93259999999999998</v>
+        <v>91</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.4844</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="J39" s="5">
-        <v>-0.93259999999999998</v>
-      </c>
-      <c r="K39" s="5">
-        <v>-0.93259999999999998</v>
-      </c>
-      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
         <v>1.0087999999999999</v>
       </c>
-      <c r="M39" s="4">
-        <v>2.06E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="4" customFormat="1">
+      <c r="O39" s="4">
+        <v>0.9798</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40" s="4">
         <v>7.2412000000000001</v>
@@ -2772,34 +2822,40 @@
       <c r="E40" s="4">
         <v>13.058199999999999</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>128</v>
+      <c r="F40" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.63270000000000004</v>
+        <v>91</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.54679999999999995</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="J40" s="5">
-        <v>0.63270000000000004</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0.63270000000000004</v>
-      </c>
-      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
         <v>1.0296000000000001</v>
       </c>
-      <c r="M40" s="4">
-        <v>-2.6599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="O40" s="4">
+        <v>1.0274000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>0.6139</v>
@@ -2813,34 +2869,40 @@
       <c r="E41">
         <v>1.0580000000000001</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>129</v>
+      <c r="F41" t="s">
+        <v>131</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.20019999999999999</v>
+        <v>91</v>
+      </c>
+      <c r="H41">
+        <v>0.78449999999999998</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J41" s="2">
-        <v>0.20019999999999999</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.20019999999999999</v>
-      </c>
-      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <v>1.0021</v>
       </c>
-      <c r="M41">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>0.67989999999999995</v>
@@ -2854,34 +2916,40 @@
       <c r="E42">
         <v>0.96379999999999999</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>130</v>
+      <c r="F42" t="s">
+        <v>132</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H42" s="2">
-        <v>-0.94840000000000002</v>
+        <v>91</v>
+      </c>
+      <c r="H42">
+        <v>0.73319999999999996</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="J42" s="2">
-        <v>-0.94840000000000002</v>
-      </c>
-      <c r="K42" s="2">
-        <v>-0.94840000000000002</v>
-      </c>
-      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <v>1.0026999999999999</v>
       </c>
-      <c r="M42">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="O42">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>0.57589999999999997</v>
@@ -2895,34 +2963,40 @@
       <c r="E43">
         <v>0.99350000000000005</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>131</v>
+      <c r="F43" t="s">
+        <v>133</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H43" s="2">
-        <v>-0.52400000000000002</v>
+        <v>91</v>
+      </c>
+      <c r="H43">
+        <v>0.74590000000000001</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="J43" s="2">
-        <v>-0.52400000000000002</v>
-      </c>
-      <c r="K43" s="2">
-        <v>-0.52400000000000002</v>
-      </c>
-      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43">
         <v>1.0028999999999999</v>
       </c>
-      <c r="M43">
-        <v>-1.9E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="4" customFormat="1">
+      <c r="O43">
+        <v>1.0019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4">
         <v>23.229500000000002</v>
@@ -2936,34 +3010,40 @@
       <c r="E44" s="4">
         <v>110.49720000000001</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>132</v>
+      <c r="F44" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0.2989</v>
+        <v>57</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.84540000000000004</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="J44" s="5">
-        <v>0.2989</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0.2989</v>
-      </c>
-      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
         <v>1.0009999999999999</v>
       </c>
-      <c r="M44" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="4" customFormat="1">
+      <c r="O44" s="4">
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" s="4">
         <v>26.095700000000001</v>
@@ -2977,34 +3057,40 @@
       <c r="E45" s="4">
         <v>130.68</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>133</v>
+      <c r="F45" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J45" s="5">
         <v>0</v>
       </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="K45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
         <v>1</v>
       </c>
-      <c r="M45" s="4">
-        <v>9.8799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="4" customFormat="1">
+      <c r="O45" s="4">
+        <v>0.91010000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4">
         <v>33.474600000000002</v>
@@ -3018,34 +3104,40 @@
       <c r="E46" s="4">
         <v>124.6546</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>134</v>
+      <c r="F46" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H46" s="5">
-        <v>-0.41510000000000002</v>
+        <v>57</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.87870000000000004</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="J46" s="5">
-        <v>-0.41510000000000002</v>
-      </c>
-      <c r="K46" s="5">
-        <v>-0.41510000000000002</v>
-      </c>
-      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
         <v>1.0988</v>
       </c>
-      <c r="M46" s="4">
-        <v>-6.6299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="O46" s="4">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>0.89319999999999999</v>
@@ -3059,34 +3151,40 @@
       <c r="E47">
         <v>2.2202000000000002</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>135</v>
+      <c r="F47" t="s">
+        <v>137</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H47" s="2">
-        <v>-0.48409999999999997</v>
+        <v>91</v>
+      </c>
+      <c r="H47">
+        <v>0.81430000000000002</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="J47" s="2">
-        <v>-0.48409999999999997</v>
-      </c>
-      <c r="K47" s="2">
-        <v>-0.48409999999999997</v>
-      </c>
-      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47">
         <v>1.026</v>
       </c>
-      <c r="M47">
-        <v>-2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="4" customFormat="1">
+      <c r="O47">
+        <v>1.0218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4">
         <v>0.79630000000000001</v>
@@ -3100,34 +3198,40 @@
       <c r="E48" s="4">
         <v>7.8590999999999998</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>136</v>
+      <c r="F48" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H48" s="5">
-        <v>-0.51490000000000002</v>
+        <v>61</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.78249999999999997</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="J48" s="5">
-        <v>-0.51490000000000002</v>
-      </c>
-      <c r="K48" s="5">
-        <v>-0.51490000000000002</v>
-      </c>
-      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L48" s="5">
+        <v>-0.55730000000000002</v>
+      </c>
+      <c r="M48" s="5">
+        <v>-0.55730000000000002</v>
+      </c>
+      <c r="N48" s="4">
         <v>1.004</v>
       </c>
-      <c r="M48" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="4" customFormat="1">
+      <c r="O48" s="4">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49" s="4">
         <v>0.69620000000000004</v>
@@ -3141,34 +3245,40 @@
       <c r="E49" s="4">
         <v>8.5192999999999994</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>137</v>
+      <c r="F49" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L49" s="5">
         <v>-0.83660000000000001</v>
       </c>
-      <c r="K49" s="5">
+      <c r="M49" s="5">
         <v>-0.83660000000000001</v>
       </c>
-      <c r="L49" s="4">
+      <c r="N49" s="4">
         <v>1</v>
       </c>
-      <c r="M49" s="4">
-        <v>5.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="4" customFormat="1">
+      <c r="O49" s="4">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" s="4">
         <v>0.8196</v>
@@ -3182,34 +3292,40 @@
       <c r="E50" s="4">
         <v>8.9616000000000007</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>138</v>
+      <c r="F50" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H50" s="5">
-        <v>-0.57220000000000004</v>
+        <v>61</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.7419</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J50" s="5">
-        <v>-0.57220000000000004</v>
-      </c>
-      <c r="K50" s="5">
-        <v>-0.57220000000000004</v>
-      </c>
-      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L50" s="5">
+        <v>-0.61860000000000004</v>
+      </c>
+      <c r="M50" s="5">
+        <v>-0.61860000000000004</v>
+      </c>
+      <c r="N50" s="4">
         <v>1.0057</v>
       </c>
-      <c r="M50" s="4">
-        <v>4.3499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50" s="4">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>11.0647</v>
@@ -3223,34 +3339,40 @@
       <c r="E51">
         <v>25.008099999999999</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>139</v>
+      <c r="F51" t="s">
+        <v>141</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H51" s="2">
-        <v>-0.42420000000000002</v>
+        <v>28</v>
+      </c>
+      <c r="H51">
+        <v>0.80610000000000004</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="J51" s="2">
-        <v>-0.42420000000000002</v>
-      </c>
-      <c r="K51" s="2">
-        <v>-0.42420000000000002</v>
-      </c>
-      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>1.0494000000000001</v>
       </c>
-      <c r="M51">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>11.212199999999999</v>
@@ -3264,34 +3386,40 @@
       <c r="E52">
         <v>28.885300000000001</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>140</v>
+      <c r="F52" t="s">
+        <v>142</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H52" s="2">
-        <v>-0.63049999999999995</v>
+        <v>28</v>
+      </c>
+      <c r="H52">
+        <v>0.77429999999999999</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="J52" s="2">
-        <v>-0.63049999999999995</v>
-      </c>
-      <c r="K52" s="2">
-        <v>-0.63049999999999995</v>
-      </c>
-      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>1.0510999999999999</v>
       </c>
-      <c r="M52">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <v>0.99109999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>11.918699999999999</v>
@@ -3305,34 +3433,40 @@
       <c r="E53">
         <v>31.266500000000001</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>141</v>
+      <c r="F53" t="s">
+        <v>143</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H53" s="2">
-        <v>-0.41839999999999999</v>
+        <v>28</v>
+      </c>
+      <c r="H53">
+        <v>0.75270000000000004</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="J53" s="2">
-        <v>-0.41839999999999999</v>
-      </c>
-      <c r="K53" s="2">
-        <v>-0.41839999999999999</v>
-      </c>
-      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53">
         <v>1.0605</v>
       </c>
-      <c r="M53">
-        <v>-3.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="4" customFormat="1">
+      <c r="O53">
+        <v>1.0354000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" s="4">
         <v>18.230799999999999</v>
@@ -3346,34 +3480,40 @@
       <c r="E54" s="4">
         <v>118.0595</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>142</v>
+      <c r="F54" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0.36070000000000002</v>
+        <v>68</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.57899999999999996</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="J54" s="5">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="L54" s="4">
+        <v>-0.61780000000000002</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>-0.61780000000000002</v>
+      </c>
+      <c r="N54" s="4">
         <v>1.0243</v>
       </c>
-      <c r="M54" s="4">
-        <v>-1.55E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="4" customFormat="1">
+      <c r="O54" s="4">
+        <v>1.0157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55" s="4">
         <v>19.526599999999998</v>
@@ -3387,34 +3527,40 @@
       <c r="E55" s="4">
         <v>131.93170000000001</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>143</v>
+      <c r="F55" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0.42930000000000001</v>
+        <v>68</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.72230000000000005</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="J55" s="5">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="K55" s="5">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="L55" s="4">
+        <v>-0.6482</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <v>-0.6482</v>
+      </c>
+      <c r="N55" s="4">
         <v>1.0084</v>
       </c>
-      <c r="M55" s="4">
-        <v>-8.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="4" customFormat="1">
+      <c r="O55" s="4">
+        <v>1.0084</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B56" s="4">
         <v>21.436800000000002</v>
@@ -3428,34 +3574,40 @@
       <c r="E56" s="4">
         <v>152.58080000000001</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>144</v>
+      <c r="F56" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H56" s="5">
+        <v>68</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J56" s="5">
         <v>0.62690000000000001</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J56" s="5">
-        <v>0</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="K56" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
         <v>0.62690000000000001</v>
       </c>
-      <c r="L56" s="4">
+      <c r="N56" s="4">
         <v>1</v>
       </c>
-      <c r="M56" s="4">
-        <v>1.3100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="O56" s="4">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>1.8171999999999999</v>
@@ -3469,34 +3621,40 @@
       <c r="E57">
         <v>6.6342999999999996</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>145</v>
+      <c r="F57" t="s">
+        <v>147</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0.60189999999999999</v>
+        <v>46</v>
+      </c>
+      <c r="H57">
+        <v>0.52010000000000001</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="J57" s="2">
-        <v>0.60189999999999999</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0.60189999999999999</v>
-      </c>
-      <c r="L57">
+        <v>-0.77280000000000004</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>-0.77280000000000004</v>
+      </c>
+      <c r="N57">
         <v>1.0130999999999999</v>
       </c>
-      <c r="M57">
-        <v>-8.8000000000000005E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="O57">
+        <v>1.0087999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>1.6254999999999999</v>
@@ -3510,34 +3668,40 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>146</v>
+      <c r="F58" t="s">
+        <v>148</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H58" s="2">
-        <v>-0.63260000000000005</v>
+        <v>46</v>
+      </c>
+      <c r="H58">
+        <v>0.75939999999999996</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="J58" s="2">
-        <v>-0.63260000000000005</v>
-      </c>
-      <c r="K58" s="2">
-        <v>-0.63260000000000005</v>
-      </c>
-      <c r="L58">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="N58">
         <v>1.0042</v>
       </c>
-      <c r="M58">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>1.7653000000000001</v>
@@ -3551,34 +3715,40 @@
       <c r="E59">
         <v>8.3163</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>147</v>
+      <c r="F59" t="s">
+        <v>149</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.6573</v>
+        <v>91</v>
+      </c>
+      <c r="H59">
+        <v>0.70960000000000001</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="J59" s="2">
-        <v>0.6573</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0.6573</v>
-      </c>
-      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59">
         <v>1.0132000000000001</v>
       </c>
-      <c r="M59">
-        <v>-9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="4" customFormat="1">
+      <c r="O59">
+        <v>1.0097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B60" s="4">
         <v>0.86850000000000005</v>
@@ -3592,34 +3762,40 @@
       <c r="E60" s="4">
         <v>3.4958999999999998</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>148</v>
+      <c r="F60" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H60" s="5">
-        <v>-0.7288</v>
+        <v>91</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.65369999999999995</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="J60" s="5">
-        <v>-0.7288</v>
-      </c>
-      <c r="K60" s="5">
-        <v>-0.7288</v>
-      </c>
-      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4">
         <v>1.0034000000000001</v>
       </c>
-      <c r="M60" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="4" customFormat="1">
+      <c r="O60" s="4">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B61" s="4">
         <v>0.85389999999999999</v>
@@ -3633,34 +3809,40 @@
       <c r="E61" s="4">
         <v>3.7054999999999998</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>149</v>
+      <c r="F61" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H61" s="5">
-        <v>-0.52259999999999995</v>
+        <v>91</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.71079999999999999</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="J61" s="5">
-        <v>-0.52259999999999995</v>
-      </c>
-      <c r="K61" s="5">
-        <v>-0.52259999999999995</v>
-      </c>
-      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4">
         <v>1.0037</v>
       </c>
-      <c r="M61" s="4">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="4" customFormat="1">
+      <c r="O61" s="4">
+        <v>1.0002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B62" s="4">
         <v>0.98299999999999998</v>
@@ -3674,34 +3856,40 @@
       <c r="E62" s="4">
         <v>4.6002000000000001</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>150</v>
+      <c r="F62" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H62" s="5">
-        <v>-7.8100000000000003E-2</v>
+        <v>91</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.75660000000000005</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="J62" s="5">
-        <v>-7.8100000000000003E-2</v>
-      </c>
-      <c r="K62" s="5">
-        <v>-7.8100000000000003E-2</v>
-      </c>
-      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
         <v>1.0036</v>
       </c>
-      <c r="M62" s="4">
-        <v>1.11E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="O62" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>0.50439999999999996</v>
@@ -3715,34 +3903,40 @@
       <c r="E63">
         <v>1.9418</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>151</v>
+      <c r="F63" t="s">
+        <v>153</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H63" s="2">
-        <v>-0.67810000000000004</v>
+        <v>91</v>
+      </c>
+      <c r="H63">
+        <v>0.77680000000000005</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="J63" s="2">
-        <v>-0.67810000000000004</v>
-      </c>
-      <c r="K63" s="2">
-        <v>-0.67810000000000004</v>
-      </c>
-      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63">
         <v>1.0146999999999999</v>
       </c>
-      <c r="M63">
-        <v>-1.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="4" customFormat="1">
+      <c r="O63">
+        <v>1.0146999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4">
         <v>8.6320999999999994</v>
@@ -3756,34 +3950,40 @@
       <c r="E64" s="4">
         <v>77.970699999999994</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>152</v>
+      <c r="F64" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H64" s="5">
+        <v>76</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J64" s="5">
         <v>0.56689999999999996</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J64" s="5">
-        <v>0</v>
-      </c>
-      <c r="K64" s="5">
+      <c r="K64" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
         <v>0.56689999999999996</v>
       </c>
-      <c r="L64" s="4">
+      <c r="N64" s="4">
         <v>1</v>
       </c>
-      <c r="M64" s="4">
-        <v>1.5900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="4" customFormat="1">
+      <c r="O64" s="4">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="4">
         <v>7.9958999999999998</v>
@@ -3797,34 +3997,40 @@
       <c r="E65" s="4">
         <v>71.694699999999997</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>153</v>
+      <c r="F65" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H65" s="5">
-        <v>-0.19500000000000001</v>
+        <v>76</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.82199999999999995</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="J65" s="5">
-        <v>-0.19500000000000001</v>
-      </c>
-      <c r="K65" s="5">
-        <v>-0.19500000000000001</v>
-      </c>
-      <c r="L65" s="4">
+        <v>-0.75009999999999999</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>-0.75009999999999999</v>
+      </c>
+      <c r="N65" s="4">
         <v>1.0159</v>
       </c>
-      <c r="M65" s="4">
-        <v>0.1111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="4" customFormat="1">
+      <c r="O65" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4">
         <v>13.287699999999999</v>
@@ -3838,34 +4044,40 @@
       <c r="E66" s="4">
         <v>80.386300000000006</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>154</v>
+      <c r="F66" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H66" s="5">
-        <v>4.5699999999999998E-2</v>
+        <v>43</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.43059999999999998</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="J66" s="5">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="K66" s="5">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="L66" s="4">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="N66" s="4">
         <v>1.1287</v>
       </c>
-      <c r="M66" s="4">
-        <v>-0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="O66" s="4">
+        <v>1.1134999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>2.54</v>
@@ -3879,34 +4091,40 @@
       <c r="E67">
         <v>18.720800000000001</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>155</v>
+      <c r="F67" t="s">
+        <v>157</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H67" s="2">
-        <v>-0.62909999999999999</v>
+        <v>91</v>
+      </c>
+      <c r="H67">
+        <v>0.56740000000000002</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="J67" s="2">
-        <v>-0.62909999999999999</v>
-      </c>
-      <c r="K67" s="2">
-        <v>-0.62909999999999999</v>
-      </c>
-      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>1.0136000000000001</v>
       </c>
-      <c r="M67">
-        <v>1.9800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="O67">
+        <v>0.98060000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>2.3294999999999999</v>
@@ -3920,34 +4138,40 @@
       <c r="E68">
         <v>16.5044</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>156</v>
+      <c r="F68" t="s">
+        <v>158</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H68" s="2">
-        <v>-0.52210000000000001</v>
+        <v>91</v>
+      </c>
+      <c r="H68">
+        <v>0.62770000000000004</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J68" s="2">
-        <v>-0.52210000000000001</v>
-      </c>
-      <c r="K68" s="2">
-        <v>-0.52210000000000001</v>
-      </c>
-      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68">
         <v>1.0337000000000001</v>
       </c>
-      <c r="M68">
-        <v>1.7100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="O68">
+        <v>0.98319999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>17.659400000000002</v>
@@ -3961,34 +4185,40 @@
       <c r="E69">
         <v>44.705399999999997</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>157</v>
+      <c r="F69" t="s">
+        <v>159</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0.24410000000000001</v>
+        <v>37</v>
+      </c>
+      <c r="H69">
+        <v>0.52059999999999995</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="J69" s="2">
-        <v>0.24410000000000001</v>
-      </c>
-      <c r="K69" s="2">
-        <v>0.24410000000000001</v>
-      </c>
-      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="N69">
         <v>1.0513999999999999</v>
       </c>
-      <c r="M69">
-        <v>2.58E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="O69">
+        <v>0.97489999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>12.961499999999999</v>
@@ -4002,34 +4232,40 @@
       <c r="E70">
         <v>32.206000000000003</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>158</v>
+      <c r="F70" t="s">
+        <v>160</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0.56330000000000002</v>
+        <v>28</v>
+      </c>
+      <c r="H70">
+        <v>0.74060000000000004</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="J70" s="2">
-        <v>0.56330000000000002</v>
-      </c>
-      <c r="K70" s="2">
-        <v>0.56330000000000002</v>
-      </c>
-      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>1.0785</v>
       </c>
-      <c r="M70">
-        <v>-3.04E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="4" customFormat="1">
+      <c r="O70">
+        <v>1.0313000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" s="4">
         <v>5.4183000000000003</v>
@@ -4043,34 +4279,40 @@
       <c r="E71" s="4">
         <v>26.5852</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>159</v>
+      <c r="F71" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H71" s="5">
-        <v>-0.19819999999999999</v>
+        <v>91</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0.56510000000000005</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="J71" s="5">
-        <v>-0.19819999999999999</v>
-      </c>
-      <c r="K71" s="5">
-        <v>-0.19819999999999999</v>
-      </c>
-      <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4">
         <v>1.0458000000000001</v>
       </c>
-      <c r="M71" s="4">
-        <v>-3.9100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="4" customFormat="1">
+      <c r="O71" s="4">
+        <v>1.0407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" s="4">
         <v>5.1632999999999996</v>
@@ -4084,34 +4326,40 @@
       <c r="E72" s="4">
         <v>34.042400000000001</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>160</v>
+      <c r="F72" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H72" s="5">
-        <v>-0.98470000000000002</v>
+        <v>61</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0.54730000000000001</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="J72" s="5">
-        <v>-0.98470000000000002</v>
-      </c>
-      <c r="K72" s="5">
-        <v>-0.98470000000000002</v>
-      </c>
-      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L72" s="5">
+        <v>-0.99760000000000004</v>
+      </c>
+      <c r="M72" s="5">
+        <v>-0.99760000000000004</v>
+      </c>
+      <c r="N72" s="4">
         <v>1.0048999999999999</v>
       </c>
-      <c r="M72" s="4">
-        <v>2.53E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="4" customFormat="1">
+      <c r="O72" s="4">
+        <v>0.97529999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73" s="4">
         <v>6.4225000000000003</v>
@@ -4125,34 +4373,40 @@
       <c r="E73" s="4">
         <v>33.824599999999997</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>161</v>
+      <c r="F73" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0.4708</v>
+        <v>61</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0.71730000000000005</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="J73" s="5">
-        <v>0.4708</v>
-      </c>
-      <c r="K73" s="5">
-        <v>0.4708</v>
-      </c>
-      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="N73" s="4">
         <v>1.0303</v>
       </c>
-      <c r="M73" s="4">
-        <v>-1.83E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="O73" s="4">
+        <v>1.0186999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>1.6259999999999999</v>
@@ -4166,34 +4420,40 @@
       <c r="E74">
         <v>3.5472999999999999</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>162</v>
+      <c r="F74" t="s">
+        <v>164</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H74" s="2">
-        <v>-0.97430000000000005</v>
+        <v>91</v>
+      </c>
+      <c r="H74">
+        <v>0.6028</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="J74" s="2">
-        <v>-0.97430000000000005</v>
-      </c>
-      <c r="K74" s="2">
-        <v>-0.97430000000000005</v>
-      </c>
-      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74">
         <v>1.0114000000000001</v>
       </c>
-      <c r="M74">
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="O74">
+        <v>0.98119999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>4.7514000000000003</v>
@@ -4207,34 +4467,40 @@
       <c r="E75">
         <v>4.1646000000000001</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>163</v>
+      <c r="F75" t="s">
+        <v>165</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0.92420000000000002</v>
+        <v>28</v>
+      </c>
+      <c r="H75">
+        <v>0.7077</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="J75" s="2">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="K75" s="2">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75">
         <v>1.0308999999999999</v>
       </c>
-      <c r="M75">
-        <v>-1.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="O75">
+        <v>1.0115000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>2.2856000000000001</v>
@@ -4248,34 +4514,40 @@
       <c r="E76">
         <v>4.6909999999999998</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>164</v>
+      <c r="F76" t="s">
+        <v>166</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0.76029999999999998</v>
+        <v>91</v>
+      </c>
+      <c r="H76">
+        <v>0.4546</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="J76" s="2">
-        <v>0.76029999999999998</v>
-      </c>
-      <c r="K76" s="2">
-        <v>0.76029999999999998</v>
-      </c>
-      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76">
         <v>1.0192000000000001</v>
       </c>
-      <c r="M76">
-        <v>-1.8599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="4" customFormat="1">
+      <c r="O76">
+        <v>1.0188999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="4">
         <v>7.7999999999999996E-3</v>
@@ -4289,34 +4561,40 @@
       <c r="E77" s="4">
         <v>0.7581</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>165</v>
+      <c r="F77" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="H77" s="5">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0.99280000000000002</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="J77" s="5">
-        <v>1</v>
-      </c>
-      <c r="K77" s="5">
-        <v>1</v>
-      </c>
-      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0</v>
+      </c>
+      <c r="N77" s="4">
         <v>1.0002</v>
       </c>
-      <c r="M77" s="4">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="4" customFormat="1">
+      <c r="O77" s="4">
+        <v>1.0002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="4">
         <v>2.3E-3</v>
@@ -4330,34 +4608,40 @@
       <c r="E78" s="4">
         <v>0.7581</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>166</v>
+      <c r="F78" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0.99990000000000001</v>
+        <v>91</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0.99919999999999998</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="J78" s="5">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="K78" s="5">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
+      <c r="M78" s="5">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4">
         <v>1</v>
       </c>
-      <c r="M78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="4" customFormat="1">
+      <c r="O78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="4">
         <v>5.9999999999999995E-4</v>
@@ -4371,27 +4655,34 @@
       <c r="E79" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>167</v>
+      <c r="F79" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H79" s="5">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J79" s="5">
         <v>0</v>
       </c>
-      <c r="K79" s="5">
-        <v>0</v>
-      </c>
-      <c r="L79" s="4">
+      <c r="K79" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5">
+        <v>0</v>
+      </c>
+      <c r="N79" s="4">
         <v>1</v>
       </c>
+      <c r="O79" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/14-16 all_dmu analysis.xlsx
+++ b/14-16 all_dmu analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/insurer-emperical-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6150E4-F860-0043-AA96-B3CF49507946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E87695-C0DF-3E42-A801-67D372BB46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="173">
-  <si>
-    <t>insurance_exp</t>
-  </si>
-  <si>
-    <t>operation_exp</t>
-  </si>
-  <si>
-    <t>underwriting_profit</t>
-  </si>
-  <si>
-    <t>investment_profit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="175">
+  <si>
+    <t>Insurance Expenses</t>
+  </si>
+  <si>
+    <t>Operation Expenses</t>
+  </si>
+  <si>
+    <t>Underwriting Profit</t>
+  </si>
+  <si>
+    <t>Investment Profit</t>
   </si>
   <si>
     <t>output progress direction</t>
@@ -55,13 +55,19 @@
     <t>operation_exp cosine similarity</t>
   </si>
   <si>
-    <t>overall cosine similarity</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>efficiency changing</t>
+    <t>Marginal Profit Consistency</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Efficiency Change</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
   <si>
     <t>AIA Taiwan 14</t>
@@ -615,14 +621,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -963,20 +969,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="144" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="33.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.3984375" style="2" customWidth="1"/>
-    <col min="9" max="13" width="9" style="2"/>
+    <col min="1" max="1" width="33.796875" customWidth="1"/>
+    <col min="6" max="6" width="17" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.796875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="28.59765625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,151 +1029,175 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
         <v>1.0019</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1.5533999999999999</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>162.9486</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>1.7022999999999999</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="4">
+        <v>94</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.5363</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="4">
         <v>0.9869</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="K2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
         <v>0.9869</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>1.0087999999999999</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>1.0007999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="P2" s="3">
+        <v>2.5552000000000001</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>164.65100000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.93769999999999998</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.6458999999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>162.91139999999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1.9300999999999999</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4">
+        <v>95</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3">
         <v>0.58340000000000003</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="4">
         <v>0.24740000000000001</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="K3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>0.24740000000000001</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>1.008</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>1.0028999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="P3" s="3">
+        <v>2.5836000000000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>164.8416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.87809999999999999</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.7330000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>163.31110000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>2.0322</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="4">
+        <v>96</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.63129999999999997</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="4">
         <v>-0.84909999999999997</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="K4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>-0.84909999999999997</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>1.0051000000000001</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>0.99319999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="3">
+        <v>2.6111</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>165.3433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>3.1435</v>
@@ -1177,28 +1211,28 @@
       <c r="E5">
         <v>1.7201</v>
       </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
+      <c r="F5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H5">
         <v>0.78749999999999998</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="I5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
         <v>0</v>
       </c>
       <c r="N5">
@@ -1207,10 +1241,16 @@
       <c r="O5">
         <v>0.99080000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>4.8487999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>164.83709999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>4.5007999999999999</v>
@@ -1224,28 +1264,28 @@
       <c r="E6">
         <v>1.8231999999999999</v>
       </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
+      <c r="F6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H6">
         <v>0.99429999999999996</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="I6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
         <v>0</v>
       </c>
       <c r="N6">
@@ -1254,10 +1294,16 @@
       <c r="O6">
         <v>1.0086999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>6.4081999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>163.4753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>3.6065</v>
@@ -1271,28 +1317,28 @@
       <c r="E7">
         <v>2.3632</v>
       </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+      <c r="F7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0.92130000000000001</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="I7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
         <v>0</v>
       </c>
       <c r="N7">
@@ -1301,151 +1347,175 @@
       <c r="O7">
         <v>0.99790000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="P7">
+        <v>5.7081</v>
+      </c>
+      <c r="Q7">
+        <v>165.05080000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
         <v>1.8587</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1.2122999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>152.23509999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>12.176500000000001</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="3">
         <v>0.6552</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0146999999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>164.41159999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.3653</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.3187</v>
+      </c>
+      <c r="D9" s="3">
+        <v>152.31110000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10.387</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L8" s="5">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="M8" s="5">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1.0146999999999999</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.97789999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2.3653</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.3187</v>
-      </c>
-      <c r="D9" s="4">
-        <v>152.31110000000001</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10.387</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>-0.99980000000000002</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>-0.99980000000000002</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>1.0377000000000001</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.99850000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="P9" s="3">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>162.69810000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
         <v>2.9632000000000001</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1.1625000000000001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>152.29759999999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>9.7167999999999992</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="4">
+        <v>102</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.92679999999999996</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="I10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="4">
         <v>-0.56340000000000001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>-0.56340000000000001</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>1.0392999999999999</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>1.0367</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="3">
+        <v>4.1257000000000001</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>162.01439999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>1.0458000000000001</v>
@@ -1459,28 +1529,28 @@
       <c r="E11">
         <v>2.0626000000000002</v>
       </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>91</v>
+      <c r="F11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H11">
         <v>0.72629999999999995</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="I11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <v>0</v>
       </c>
       <c r="N11">
@@ -1489,10 +1559,16 @@
       <c r="O11">
         <v>1.002</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>165.58430000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1.3233999999999999</v>
@@ -1506,28 +1582,28 @@
       <c r="E12">
         <v>2.1907999999999999</v>
       </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>91</v>
+      <c r="F12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H12">
         <v>0.66459999999999997</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="I12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
         <v>0</v>
       </c>
       <c r="N12">
@@ -1536,10 +1612,16 @@
       <c r="O12">
         <v>1.0003</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>166.0487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>1.1358999999999999</v>
@@ -1553,28 +1635,28 @@
       <c r="E13">
         <v>1.8709</v>
       </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>91</v>
+      <c r="F13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H13">
         <v>0.63</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="I13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
         <v>0</v>
       </c>
       <c r="N13">
@@ -1583,151 +1665,175 @@
       <c r="O13">
         <v>0.98509999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="P13">
+        <v>1.9145000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>165.97280000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
         <v>4.6574999999999998</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1.2277</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>163.0693</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1.04</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="4">
+        <v>106</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="I14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1.0154000000000001</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>1.0056</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="P14" s="3">
+        <v>5.8852000000000002</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>164.10929999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
         <v>4.7965</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1.3541000000000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>163.95439999999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1.1474</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="4">
+        <v>107</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.99970000000000003</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="I15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>1.0097</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>1.0097</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="P15" s="3">
+        <v>6.1505999999999998</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>165.10169999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
         <v>3.5586000000000002</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1.2273000000000001</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>165.57579999999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>1.121</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="4">
+        <v>108</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="I16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
         <v>1</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="3">
+        <v>4.7858000000000001</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>166.6968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>32.2151</v>
@@ -1741,28 +1847,28 @@
       <c r="E17">
         <v>169.2475</v>
       </c>
-      <c r="F17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
+      <c r="F17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="I17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="5">
         <v>-0.27189999999999998</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5">
         <v>-0.27189999999999998</v>
       </c>
       <c r="N17">
@@ -1771,10 +1877,16 @@
       <c r="O17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>51.626100000000001</v>
+      </c>
+      <c r="Q17">
+        <v>198.13120000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>32.787799999999997</v>
@@ -1788,28 +1900,28 @@
       <c r="E18">
         <v>182.49760000000001</v>
       </c>
-      <c r="F18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>30</v>
+      <c r="F18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="I18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
         <v>0</v>
       </c>
       <c r="N18">
@@ -1818,10 +1930,16 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>58.221800000000002</v>
+      </c>
+      <c r="Q18">
+        <v>207.63820000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>37.923999999999999</v>
@@ -1835,28 +1953,28 @@
       <c r="E19">
         <v>191.2397</v>
       </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>31</v>
+      <c r="F19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="I19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
         <v>0</v>
       </c>
       <c r="N19">
@@ -1865,10 +1983,16 @@
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>68.115499999999997</v>
+      </c>
+      <c r="Q19">
+        <v>191.2397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>33.6128</v>
@@ -1882,28 +2006,28 @@
       <c r="E20">
         <v>171.89519999999999</v>
       </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
+      <c r="F20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="I20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="5">
         <v>0.64329999999999998</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="5">
         <v>0.64329999999999998</v>
       </c>
       <c r="N20">
@@ -1912,151 +2036,175 @@
       <c r="O20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="P20">
+        <v>54.167700000000004</v>
+      </c>
+      <c r="Q20">
+        <v>192.9196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3">
         <v>0.80249999999999999</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.3054</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>162.8236</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>3.1263000000000001</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="4">
+        <v>113</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="I21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" s="4">
         <v>-0.99280000000000002</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>-0.99280000000000002</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>1</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>0.99229999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="P21" s="3">
+        <v>1.1079000000000001</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>165.94980000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
         <v>0.76619999999999999</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.29899999999999999</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>162.65989999999999</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>1.7727999999999999</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="4">
+        <v>114</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="3">
         <v>0.88660000000000005</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="I22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>1.0077</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>0.99929999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="P22" s="3">
+        <v>1.0651999999999999</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>164.43270000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
         <v>0.71430000000000005</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.29210000000000003</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>162.7192</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>1.5447</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="4">
+        <v>115</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="3">
         <v>0.8679</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="I23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>1.0084</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>0.99680000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="3">
+        <v>1.0064</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>164.26390000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>9.5121000000000002</v>
@@ -2070,28 +2218,28 @@
       <c r="E24">
         <v>39.691499999999998</v>
       </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>38</v>
+      <c r="F24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H24">
         <v>0.76100000000000001</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="5">
         <v>-0.47560000000000002</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="K24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="5">
         <v>-0.47560000000000002</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="5">
         <v>-0.47560000000000002</v>
       </c>
       <c r="N24">
@@ -2100,10 +2248,16 @@
       <c r="O24">
         <v>1.0117</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>13.213699999999999</v>
+      </c>
+      <c r="Q24">
+        <v>172.03909999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>13.5952</v>
@@ -2117,28 +2271,28 @@
       <c r="E25">
         <v>47.904899999999998</v>
       </c>
-      <c r="F25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>37</v>
+      <c r="F25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="I25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="5">
         <v>0.8014</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="5">
         <v>0.8014</v>
       </c>
       <c r="N25">
@@ -2147,10 +2301,16 @@
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>17.497299999999999</v>
+      </c>
+      <c r="Q25">
+        <v>175.81120000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>11.731</v>
@@ -2164,28 +2324,28 @@
       <c r="E26">
         <v>47.708599999999997</v>
       </c>
-      <c r="F26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>38</v>
+      <c r="F26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="5">
         <v>0.61309999999999998</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="K26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="5">
         <v>0.61309999999999998</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="5">
         <v>0.61309999999999998</v>
       </c>
       <c r="N26">
@@ -2194,151 +2354,175 @@
       <c r="O26">
         <v>0.99919999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="4">
+      <c r="P26">
+        <v>16.045300000000001</v>
+      </c>
+      <c r="Q26">
+        <v>175.87790000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3">
         <v>0.85529999999999995</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>0.53029999999999999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>164.59270000000001</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>0.76980000000000004</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="4">
+        <v>119</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="3">
         <v>0.6905</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="I27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>1.0007999999999999</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>1.0003</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="4">
+      <c r="P27" s="3">
+        <v>1.3855999999999999</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>165.36250000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3">
         <v>0.82289999999999996</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>0.77680000000000005</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>164.68100000000001</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>0.79679999999999995</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="4">
+        <v>120</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="3">
         <v>0.61180000000000001</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="I28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
         <v>1.0004999999999999</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>0.99839999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="P28" s="3">
+        <v>1.5996999999999999</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>165.4778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3">
         <v>1.0187999999999999</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>0.83830000000000005</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>164.47929999999999</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>0.7722</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="4">
+        <v>121</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="3">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="I29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1.0021</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>1.0021</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="3">
+        <v>1.8571</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>165.25139999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>0.4869</v>
@@ -2352,28 +2536,28 @@
       <c r="E30">
         <v>20.221399999999999</v>
       </c>
-      <c r="F30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>42</v>
+      <c r="F30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="5">
         <v>0.76939999999999997</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="K30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
         <v>0.76939999999999997</v>
       </c>
       <c r="N30">
@@ -2382,10 +2566,16 @@
       <c r="O30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>3.4701</v>
+      </c>
+      <c r="Q30">
+        <v>164.952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>0.376</v>
@@ -2399,28 +2589,28 @@
       <c r="E31">
         <v>19.016100000000002</v>
       </c>
-      <c r="F31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>43</v>
+      <c r="F31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" s="5">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="K31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="N31">
@@ -2429,10 +2619,16 @@
       <c r="O31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>3.6093999999999999</v>
+      </c>
+      <c r="Q31">
+        <v>165.1986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>0.52800000000000002</v>
@@ -2446,28 +2642,28 @@
       <c r="E32">
         <v>19.298999999999999</v>
       </c>
-      <c r="F32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>44</v>
+      <c r="F32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="5">
         <v>0.71150000000000002</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="K32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L32" s="5">
         <v>0.71150000000000002</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="5">
         <v>0.71150000000000002</v>
       </c>
       <c r="N32">
@@ -2476,151 +2672,175 @@
       <c r="O32">
         <v>0.99780000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="P32">
+        <v>3.6221999999999999</v>
+      </c>
+      <c r="Q32">
+        <v>165.49160000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3">
         <v>1.1580999999999999</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>2.4321000000000002</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>164.78659999999999</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>0.93479999999999996</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="4">
+        <v>125</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="3">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J33" s="5">
+      <c r="I33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" s="4">
         <v>0.11219999999999999</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5">
+      <c r="K33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
         <v>0.11219999999999999</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>1.0022</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <v>1.0022</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="P33" s="3">
+        <v>3.5901000000000001</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>165.72139999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3">
         <v>1.0128999999999999</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>2.4756999999999998</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>165.12430000000001</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>0.97299999999999998</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="4">
+        <v>126</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="3">
         <v>1</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J34" s="5">
+      <c r="I34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
-      <c r="M34" s="5">
+      <c r="K34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <v>1</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <v>0.998</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="P34" s="3">
+        <v>3.4885999999999999</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>166.09719999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3">
         <v>0.90800000000000003</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>2.4441000000000002</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>164.67679999999999</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>1.0101</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="4">
+        <v>127</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="3">
         <v>0.88370000000000004</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="I35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J35" s="4">
         <v>0.73480000000000001</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
-      <c r="M35" s="5">
+      <c r="K35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
         <v>0.73480000000000001</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>1.002</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <v>0.97829999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="3">
+        <v>3.3521000000000001</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>165.68690000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>10.8484</v>
@@ -2634,28 +2854,28 @@
       <c r="E36">
         <v>12.6541</v>
       </c>
-      <c r="F36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>28</v>
+      <c r="F36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H36">
         <v>0.61350000000000005</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="I36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
         <v>0</v>
       </c>
       <c r="N36">
@@ -2664,10 +2884,16 @@
       <c r="O36">
         <v>0.99870000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>13.200100000000001</v>
+      </c>
+      <c r="Q36">
+        <v>166.58240000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>10.632</v>
@@ -2681,28 +2907,28 @@
       <c r="E37">
         <v>16.4587</v>
       </c>
-      <c r="F37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>91</v>
+      <c r="F37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H37">
         <v>0.61580000000000001</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="I37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
         <v>0</v>
       </c>
       <c r="N37">
@@ -2711,151 +2937,175 @@
       <c r="O37">
         <v>1.0198</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="4">
+      <c r="P37">
+        <v>13.1005</v>
+      </c>
+      <c r="Q37">
+        <v>167.33070000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3">
         <v>3.6964999999999999</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>1.8315999999999999</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>155.59950000000001</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>13.583</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="4">
+        <v>130</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="3">
         <v>0.82630000000000003</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="4">
+      <c r="I38" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
         <v>1.0055000000000001</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <v>0.99680000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="4">
+      <c r="P38" s="3">
+        <v>5.5281000000000002</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>169.1825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="3">
         <v>4.8190999999999997</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>1.8012999999999999</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>154.59780000000001</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>14.106999999999999</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="4">
+        <v>131</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="3">
         <v>0.4844</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4">
+      <c r="I39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
         <v>1.0087999999999999</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
         <v>0.9798</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="4">
+      <c r="P39" s="3">
+        <v>6.6204000000000001</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>168.70480000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="3">
         <v>7.2412000000000001</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>2.1236999999999999</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>152.48159999999999</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>13.058199999999999</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="4">
+        <v>132</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="3">
         <v>0.54679999999999995</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4">
+      <c r="I40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
         <v>1.0296000000000001</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <v>1.0274000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="3">
+        <v>9.3649000000000004</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>165.53989999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <v>0.6139</v>
@@ -2869,28 +3119,28 @@
       <c r="E41">
         <v>1.0580000000000001</v>
       </c>
-      <c r="F41" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>91</v>
+      <c r="F41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H41">
         <v>0.78449999999999998</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="I41" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
         <v>0</v>
       </c>
       <c r="N41">
@@ -2899,10 +3149,16 @@
       <c r="O41">
         <v>0.99950000000000006</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41">
+        <v>1.0364</v>
+      </c>
+      <c r="Q41">
+        <v>165.18639999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>0.67989999999999995</v>
@@ -2916,28 +3172,28 @@
       <c r="E42">
         <v>0.96379999999999999</v>
       </c>
-      <c r="F42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>91</v>
+      <c r="F42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H42">
         <v>0.73319999999999996</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="I42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
         <v>0</v>
       </c>
       <c r="N42">
@@ -2946,10 +3202,16 @@
       <c r="O42">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42">
+        <v>1.1979</v>
+      </c>
+      <c r="Q42">
+        <v>165.1121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>0.57589999999999997</v>
@@ -2963,28 +3225,28 @@
       <c r="E43">
         <v>0.99350000000000005</v>
       </c>
-      <c r="F43" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>91</v>
+      <c r="F43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H43">
         <v>0.74590000000000001</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="I43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
         <v>0</v>
       </c>
       <c r="N43">
@@ -2993,151 +3255,175 @@
       <c r="O43">
         <v>1.0019</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="4">
+      <c r="P43">
+        <v>1.1158999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>165.05119999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="3">
         <v>23.229500000000002</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>14.5695</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>95.7791</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>110.49720000000001</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="4">
+        <v>136</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="3">
         <v>0.84540000000000004</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="4">
+      <c r="I44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>1.0009999999999999</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="3">
         <v>1.0009999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="4">
+      <c r="P44" s="3">
+        <v>37.798999999999999</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>206.27629999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="3">
         <v>26.095700000000001</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>17.2027</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>83.319100000000006</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>130.68</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="4">
+        <v>137</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="3">
         <v>1</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="4">
+      <c r="I45" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>1</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="3">
         <v>0.91010000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="P45" s="3">
+        <v>43.298499999999997</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>213.9991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="3">
         <v>33.474600000000002</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>18.6934</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>69.404300000000006</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>124.6546</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="4">
+        <v>138</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="3">
         <v>0.87870000000000004</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="I46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>1.0988</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="3">
         <v>1.071</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46" s="3">
+        <v>52.167999999999999</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>194.05889999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>0.89319999999999999</v>
@@ -3151,28 +3437,28 @@
       <c r="E47">
         <v>2.2202000000000002</v>
       </c>
-      <c r="F47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>91</v>
+      <c r="F47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H47">
         <v>0.81430000000000002</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="I47" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
         <v>0</v>
       </c>
       <c r="N47">
@@ -3181,151 +3467,175 @@
       <c r="O47">
         <v>1.0218</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="4">
+      <c r="P47">
+        <v>1.3455999999999999</v>
+      </c>
+      <c r="Q47">
+        <v>161.77430000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="3">
         <v>0.79630000000000001</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>0.61419999999999997</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>156.33160000000001</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>7.8590999999999998</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="4">
+        <v>140</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="3">
         <v>0.78249999999999997</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L48" s="5">
+      <c r="I48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L48" s="4">
         <v>-0.55730000000000002</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="4">
         <v>-0.55730000000000002</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <v>1.004</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="3">
         <v>1.004</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="4">
+      <c r="P48" s="3">
+        <v>1.4105000000000001</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>164.19069999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3">
         <v>0.69620000000000004</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>0.63549999999999995</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>155.88839999999999</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>8.5192999999999994</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="4">
+        <v>141</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="3">
         <v>1</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L49" s="5">
+      <c r="I49" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L49" s="4">
         <v>-0.83660000000000001</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="4">
         <v>-0.83660000000000001</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <v>1</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="3">
         <v>0.99439999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="4">
+      <c r="P49" s="3">
+        <v>1.3315999999999999</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>164.40770000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3">
         <v>0.8196</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>0.83360000000000001</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>155.21299999999999</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>8.9616000000000007</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H50" s="4">
+        <v>142</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="3">
         <v>0.7419</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L50" s="5">
+      <c r="I50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L50" s="4">
         <v>-0.61860000000000004</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="4">
         <v>-0.61860000000000004</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>1.0057</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <v>0.95830000000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50" s="3">
+        <v>1.6532</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>164.1746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>11.0647</v>
@@ -3339,28 +3649,28 @@
       <c r="E51">
         <v>25.008099999999999</v>
       </c>
-      <c r="F51" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>28</v>
+      <c r="F51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0.80610000000000004</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="I51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
         <v>0</v>
       </c>
       <c r="N51">
@@ -3369,10 +3679,16 @@
       <c r="O51">
         <v>0.99839999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51">
+        <v>16.005600000000001</v>
+      </c>
+      <c r="Q51">
+        <v>167.58850000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>11.212199999999999</v>
@@ -3386,28 +3702,28 @@
       <c r="E52">
         <v>28.885300000000001</v>
       </c>
-      <c r="F52" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>28</v>
+      <c r="F52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H52">
         <v>0.77429999999999999</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
+      <c r="I52" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
         <v>0</v>
       </c>
       <c r="N52">
@@ -3416,10 +3732,16 @@
       <c r="O52">
         <v>0.99109999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52">
+        <v>16.812000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>168.74590000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>11.918699999999999</v>
@@ -3433,28 +3755,28 @@
       <c r="E53">
         <v>31.266500000000001</v>
       </c>
-      <c r="F53" t="s">
-        <v>143</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>28</v>
+      <c r="F53" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H53">
         <v>0.75270000000000004</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="I53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
         <v>0</v>
       </c>
       <c r="N53">
@@ -3463,151 +3785,175 @@
       <c r="O53">
         <v>1.0354000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="4">
+      <c r="P53">
+        <v>17.868099999999998</v>
+      </c>
+      <c r="Q53">
+        <v>168.21199999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="3">
         <v>18.230799999999999</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>20.2684</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>70.113600000000005</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>118.0595</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="4">
+        <v>146</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="3">
         <v>0.57899999999999996</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J54" s="5">
+      <c r="I54" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" s="4">
         <v>-0.61780000000000002</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
-      <c r="M54" s="5">
+      <c r="K54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
         <v>-0.61780000000000002</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <v>1.0243</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="3">
         <v>1.0157</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="4">
+      <c r="P54" s="3">
+        <v>38.499200000000002</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>188.17320000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="3">
         <v>19.526599999999998</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>21.588999999999999</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>59.215899999999998</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>131.93170000000001</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="4">
+        <v>147</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="3">
         <v>0.72230000000000005</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J55" s="5">
+      <c r="I55" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="4">
         <v>-0.6482</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
-      <c r="M55" s="5">
+      <c r="K55" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
         <v>-0.6482</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="3">
         <v>1.0084</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="3">
         <v>1.0084</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="4">
+      <c r="P55" s="3">
+        <v>41.115699999999997</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>191.14760000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="3">
         <v>21.436800000000002</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>25.787199999999999</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>41.639800000000001</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>152.58080000000001</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="4">
+        <v>148</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="I56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J56" s="4">
         <v>0.62690000000000001</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L56" s="5">
-        <v>0</v>
-      </c>
-      <c r="M56" s="5">
+      <c r="K56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
         <v>0.62690000000000001</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="3">
         <v>1</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="3">
         <v>0.98709999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56" s="3">
+        <v>47.223999999999997</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>194.22069999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B57">
         <v>1.8171999999999999</v>
@@ -3621,28 +3967,28 @@
       <c r="E57">
         <v>6.6342999999999996</v>
       </c>
-      <c r="F57" t="s">
-        <v>147</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>46</v>
+      <c r="F57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H57">
         <v>0.52010000000000001</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J57" s="2">
+      <c r="I57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J57" s="5">
         <v>-0.77280000000000004</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
+      <c r="K57" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5">
         <v>-0.77280000000000004</v>
       </c>
       <c r="N57">
@@ -3651,10 +3997,16 @@
       <c r="O57">
         <v>1.0087999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57">
+        <v>3.9356</v>
+      </c>
+      <c r="Q57">
+        <v>165.72389999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>1.6254999999999999</v>
@@ -3668,28 +4020,28 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" t="s">
-        <v>148</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>46</v>
+      <c r="F58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H58">
         <v>0.75939999999999996</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J58" s="2">
+      <c r="I58" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="5">
         <v>0.77439999999999998</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
+      <c r="K58" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
         <v>0.77439999999999998</v>
       </c>
       <c r="N58">
@@ -3698,10 +4050,16 @@
       <c r="O58">
         <v>0.99119999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58">
+        <v>3.8717000000000001</v>
+      </c>
+      <c r="Q58">
+        <v>164.53749999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>1.7653000000000001</v>
@@ -3715,28 +4073,28 @@
       <c r="E59">
         <v>8.3163</v>
       </c>
-      <c r="F59" t="s">
-        <v>149</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>91</v>
+      <c r="F59" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H59">
         <v>0.70960000000000001</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
+      <c r="I59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
         <v>0</v>
       </c>
       <c r="N59">
@@ -3745,151 +4103,175 @@
       <c r="O59">
         <v>1.0097</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="4">
+      <c r="P59">
+        <v>3.9769000000000001</v>
+      </c>
+      <c r="Q59">
+        <v>166.06010000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="3">
         <v>0.86850000000000005</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>1.6385000000000001</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>162.41749999999999</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>3.4958999999999998</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="4">
+        <v>152</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="3">
         <v>0.65369999999999995</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L60" s="5">
-        <v>0</v>
-      </c>
-      <c r="M60" s="5">
-        <v>0</v>
-      </c>
-      <c r="N60" s="4">
+      <c r="I60" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>1.0034000000000001</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="3">
         <v>0.99970000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="4">
+      <c r="P60" s="3">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>165.9134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="3">
         <v>0.85389999999999999</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>1.7269000000000001</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>162.18459999999999</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>3.7054999999999998</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="4">
+        <v>153</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="3">
         <v>0.71079999999999999</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L61" s="5">
-        <v>0</v>
-      </c>
-      <c r="M61" s="5">
-        <v>0</v>
-      </c>
-      <c r="N61" s="4">
+      <c r="I61" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1.0037</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="3">
         <v>1.0002</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="4">
+      <c r="P61" s="3">
+        <v>2.5808</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>165.89009999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="3">
         <v>0.98299999999999998</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>1.8386</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>161.60769999999999</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>4.6002000000000001</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="4">
+        <v>154</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="3">
         <v>0.75660000000000005</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J62" s="5">
-        <v>0</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L62" s="5">
-        <v>0</v>
-      </c>
-      <c r="M62" s="5">
-        <v>0</v>
-      </c>
-      <c r="N62" s="4">
+      <c r="I62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>1.0036</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O62" s="3">
         <v>0.98899999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62" s="3">
+        <v>2.8216999999999999</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>166.2079</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63">
         <v>0.50439999999999996</v>
@@ -3903,28 +4285,28 @@
       <c r="E63">
         <v>1.9418</v>
       </c>
-      <c r="F63" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>91</v>
+      <c r="F63" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H63">
         <v>0.77680000000000005</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L63" s="2">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
+      <c r="I63" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
         <v>0</v>
       </c>
       <c r="N63">
@@ -3933,151 +4315,175 @@
       <c r="O63">
         <v>1.0146999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="4">
+      <c r="P63">
+        <v>1.196</v>
+      </c>
+      <c r="Q63">
+        <v>163.4171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="3">
         <v>8.6320999999999994</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>14.993600000000001</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>89.612099999999998</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>77.970699999999994</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="4">
+        <v>156</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" s="3">
         <v>1</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J64" s="5">
+      <c r="I64" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J64" s="4">
         <v>0.56689999999999996</v>
       </c>
-      <c r="K64" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L64" s="5">
-        <v>0</v>
-      </c>
-      <c r="M64" s="5">
+      <c r="K64" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
         <v>0.56689999999999996</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="3">
         <v>1</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="3">
         <v>0.98440000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="4">
+      <c r="P64" s="3">
+        <v>23.625699999999998</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>167.58279999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="3">
         <v>7.9958999999999998</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>14.77</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>93.930700000000002</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>71.694699999999997</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="4">
+        <v>157</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="3">
         <v>0.82199999999999995</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="I65" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J65" s="4">
         <v>-0.75009999999999999</v>
       </c>
-      <c r="K65" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L65" s="5">
-        <v>0</v>
-      </c>
-      <c r="M65" s="5">
+      <c r="K65" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
         <v>-0.75009999999999999</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="3">
         <v>1.0159</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="4">
+      <c r="P65" s="3">
+        <v>22.765899999999998</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>165.62540000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="3">
         <v>13.287699999999999</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>14.8871</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>84.072999999999993</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>80.386300000000006</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="4">
+        <v>158</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="3">
         <v>0.43059999999999998</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J66" s="5">
+      <c r="I66" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J66" s="4">
         <v>0.72340000000000004</v>
       </c>
-      <c r="K66" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0</v>
-      </c>
-      <c r="M66" s="5">
+      <c r="K66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
         <v>0.72340000000000004</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="3">
         <v>1.1287</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O66" s="3">
         <v>1.1134999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66" s="3">
+        <v>28.174800000000001</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>164.45930000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B67">
         <v>2.54</v>
@@ -4091,28 +4497,28 @@
       <c r="E67">
         <v>18.720800000000001</v>
       </c>
-      <c r="F67" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>91</v>
+      <c r="F67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H67">
         <v>0.56740000000000002</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="I67" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
         <v>0</v>
       </c>
       <c r="N67">
@@ -4121,10 +4527,16 @@
       <c r="O67">
         <v>0.98060000000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67">
+        <v>6.2789999999999999</v>
+      </c>
+      <c r="Q67">
+        <v>167.40610000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <v>2.3294999999999999</v>
@@ -4138,28 +4550,28 @@
       <c r="E68">
         <v>16.5044</v>
       </c>
-      <c r="F68" t="s">
-        <v>158</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>91</v>
+      <c r="F68" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H68">
         <v>0.62770000000000004</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L68" s="2">
-        <v>0</v>
-      </c>
-      <c r="M68" s="2">
+      <c r="I68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
         <v>0</v>
       </c>
       <c r="N68">
@@ -4168,10 +4580,16 @@
       <c r="O68">
         <v>0.98319999999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68">
+        <v>5.9836999999999998</v>
+      </c>
+      <c r="Q68">
+        <v>163.815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>17.659400000000002</v>
@@ -4185,28 +4603,28 @@
       <c r="E69">
         <v>44.705399999999997</v>
       </c>
-      <c r="F69" t="s">
-        <v>159</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>37</v>
+      <c r="F69" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H69">
         <v>0.52059999999999995</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L69" s="2">
+      <c r="I69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L69" s="5">
         <v>0.55559999999999998</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="5">
         <v>0.55559999999999998</v>
       </c>
       <c r="N69">
@@ -4215,10 +4633,16 @@
       <c r="O69">
         <v>0.97489999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69">
+        <v>22.561499999999999</v>
+      </c>
+      <c r="Q69">
+        <v>170.0908</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B70">
         <v>12.961499999999999</v>
@@ -4232,28 +4656,28 @@
       <c r="E70">
         <v>32.206000000000003</v>
       </c>
-      <c r="F70" t="s">
-        <v>160</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>28</v>
+      <c r="F70" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0.74060000000000004</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L70" s="2">
-        <v>0</v>
-      </c>
-      <c r="M70" s="2">
+      <c r="I70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
         <v>0</v>
       </c>
       <c r="N70">
@@ -4262,151 +4686,175 @@
       <c r="O70">
         <v>1.0313000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="4">
+      <c r="P70">
+        <v>19.084199999999999</v>
+      </c>
+      <c r="Q70">
+        <v>165.9443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="3">
         <v>5.4183000000000003</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>3.4003999999999999</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>139.9426</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>26.5852</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="4">
+        <v>163</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H71" s="3">
         <v>0.56510000000000005</v>
       </c>
-      <c r="I71" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J71" s="5">
-        <v>0</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="4">
+      <c r="I71" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
         <v>1.0458000000000001</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O71" s="3">
         <v>1.0407</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="4">
+      <c r="P71" s="3">
+        <v>8.8186999999999998</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>166.52780000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="3">
         <v>5.1632999999999996</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>4.1616</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>136.90129999999999</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>34.042400000000001</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H72" s="4">
+        <v>164</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" s="3">
         <v>0.54730000000000001</v>
       </c>
-      <c r="I72" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J72" s="5">
-        <v>0</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L72" s="5">
+      <c r="I72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L72" s="4">
         <v>-0.99760000000000004</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="4">
         <v>-0.99760000000000004</v>
       </c>
-      <c r="N72" s="4">
+      <c r="N72" s="3">
         <v>1.0048999999999999</v>
       </c>
-      <c r="O72" s="4">
+      <c r="O72" s="3">
         <v>0.97529999999999994</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="4">
+      <c r="P72" s="3">
+        <v>9.3248999999999995</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>170.94370000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="3">
         <v>6.4225000000000003</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>3.8174999999999999</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>133.73820000000001</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>33.824599999999997</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H73" s="4">
+        <v>165</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" s="3">
         <v>0.71730000000000005</v>
       </c>
-      <c r="I73" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J73" s="5">
-        <v>0</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L73" s="5">
+      <c r="I73" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L73" s="4">
         <v>0.67269999999999996</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="4">
         <v>0.67269999999999996</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N73" s="3">
         <v>1.0303</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O73" s="3">
         <v>1.0186999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="P73" s="3">
+        <v>10.2401</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>167.56280000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74">
         <v>1.6259999999999999</v>
@@ -4420,28 +4868,28 @@
       <c r="E74">
         <v>3.5472999999999999</v>
       </c>
-      <c r="F74" t="s">
-        <v>164</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>91</v>
+      <c r="F74" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H74">
         <v>0.6028</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L74" s="2">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2">
+      <c r="I74" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+      <c r="M74" s="5">
         <v>0</v>
       </c>
       <c r="N74">
@@ -4450,10 +4898,16 @@
       <c r="O74">
         <v>0.98119999999999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="P74">
+        <v>2.5988000000000002</v>
+      </c>
+      <c r="Q74">
+        <v>164.81530000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75">
         <v>4.7514000000000003</v>
@@ -4467,28 +4921,28 @@
       <c r="E75">
         <v>4.1646000000000001</v>
       </c>
-      <c r="F75" t="s">
-        <v>165</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>28</v>
+      <c r="F75" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H75">
         <v>0.7077</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J75" s="2">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L75" s="2">
-        <v>0</v>
-      </c>
-      <c r="M75" s="2">
+      <c r="I75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
         <v>0</v>
       </c>
       <c r="N75">
@@ -4497,10 +4951,16 @@
       <c r="O75">
         <v>1.0115000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75">
+        <v>6.0654000000000003</v>
+      </c>
+      <c r="Q75">
+        <v>162.4676</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76">
         <v>2.2856000000000001</v>
@@ -4514,28 +4974,28 @@
       <c r="E76">
         <v>4.6909999999999998</v>
       </c>
-      <c r="F76" t="s">
-        <v>166</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>91</v>
+      <c r="F76" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H76">
         <v>0.4546</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J76" s="2">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L76" s="2">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2">
+      <c r="I76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5">
         <v>0</v>
       </c>
       <c r="N76">
@@ -4544,145 +5004,169 @@
       <c r="O76">
         <v>1.0188999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="4">
+      <c r="P76">
+        <v>3.6073</v>
+      </c>
+      <c r="Q76">
+        <v>164.17859999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="3">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>7.22E-2</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>164.37450000000001</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>0.7581</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="4">
+        <v>169</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="3">
         <v>0.99280000000000002</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>1.0002</v>
+      </c>
+      <c r="O77" s="3">
+        <v>1.0002</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>165.1326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="D78" s="3">
+        <v>164.40729999999999</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.7581</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3">
+        <v>1</v>
+      </c>
+      <c r="P78" s="3">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>165.1653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D79" s="3">
+        <v>164.40940000000001</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J77" s="5">
-        <v>0</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L77" s="5">
-        <v>0</v>
-      </c>
-      <c r="M77" s="5">
-        <v>0</v>
-      </c>
-      <c r="N77" s="4">
-        <v>1.0002</v>
-      </c>
-      <c r="O77" s="4">
-        <v>1.0002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="4">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C78" s="4">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="D78" s="4">
-        <v>164.40729999999999</v>
-      </c>
-      <c r="E78" s="4">
-        <v>0.7581</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="4">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J78" s="5">
-        <v>0</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L78" s="5">
-        <v>0</v>
-      </c>
-      <c r="M78" s="5">
-        <v>0</v>
-      </c>
-      <c r="N78" s="4">
+      <c r="G79" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H79" s="3">
         <v>1</v>
       </c>
-      <c r="O78" s="4">
+      <c r="I79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="C79" s="4">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D79" s="4">
-        <v>164.40940000000001</v>
-      </c>
-      <c r="E79" s="4">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="4">
-        <v>1</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J79" s="5">
-        <v>0</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L79" s="5">
-        <v>0</v>
-      </c>
-      <c r="M79" s="5">
-        <v>0</v>
-      </c>
-      <c r="N79" s="4">
-        <v>1</v>
-      </c>
-      <c r="O79" s="4"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>165.16749999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/14-16 all_dmu analysis.xlsx
+++ b/14-16 all_dmu analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/insurer-emperical-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E87695-C0DF-3E42-A801-67D372BB46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89EFC1B-DBF1-E941-BDC6-1038F565A0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,496 +55,498 @@
     <t>operation_exp cosine similarity</t>
   </si>
   <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Efficiency Change</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>AIA Taiwan 14</t>
+  </si>
+  <si>
+    <t>AIA Taiwan 15</t>
+  </si>
+  <si>
+    <t>AIA Taiwan 16</t>
+  </si>
+  <si>
+    <t>Allianz Taiwan Life 14</t>
+  </si>
+  <si>
+    <t>Allianz Taiwan Life 15</t>
+  </si>
+  <si>
+    <t>Allianz Taiwan Life 16</t>
+  </si>
+  <si>
+    <t>Bank Taiwan Life 14</t>
+  </si>
+  <si>
+    <t>Bank Taiwan Life 15</t>
+  </si>
+  <si>
+    <t>Bank Taiwan Life 16</t>
+  </si>
+  <si>
+    <t>BNP Paribas Cardif TCB 14</t>
+  </si>
+  <si>
+    <t>BNP Paribas Cardif TCB 15</t>
+  </si>
+  <si>
+    <t>BNP Paribas Cardif TCB 16</t>
+  </si>
+  <si>
+    <t>Cardif 14</t>
+  </si>
+  <si>
+    <t>Cardif 15</t>
+  </si>
+  <si>
+    <t>Cardif 16</t>
+  </si>
+  <si>
+    <t>Cathay Life 14</t>
+  </si>
+  <si>
+    <t>Cathay Life 15</t>
+  </si>
+  <si>
+    <t>Cathay Life 16</t>
+  </si>
+  <si>
+    <t>DUMMY Cathay 15</t>
+  </si>
+  <si>
+    <t>Chaoyang Life 14</t>
+  </si>
+  <si>
+    <t>Chaoyang Life 15</t>
+  </si>
+  <si>
+    <t>Chaoyang Life 16</t>
+  </si>
+  <si>
+    <t>China Life 14</t>
+  </si>
+  <si>
+    <t>China Life 15</t>
+  </si>
+  <si>
+    <t>China Life 16</t>
+  </si>
+  <si>
+    <t>ACE Tempest Life 14</t>
+  </si>
+  <si>
+    <t>ACE Tempest Life 15</t>
+  </si>
+  <si>
+    <t>Chubb Tempest Life 16</t>
+  </si>
+  <si>
+    <t>Chunghwa Post 14</t>
+  </si>
+  <si>
+    <t>Chunghwa Post 15</t>
+  </si>
+  <si>
+    <t>Chunghwa Post 16</t>
+  </si>
+  <si>
+    <t>CIGNA 14</t>
+  </si>
+  <si>
+    <t>CIGNA 15</t>
+  </si>
+  <si>
+    <t>CIGNA 16</t>
+  </si>
+  <si>
+    <t>CTBC Life 14</t>
+  </si>
+  <si>
+    <t>CTBC Life 15</t>
+  </si>
+  <si>
+    <t>Farglory Life 14</t>
+  </si>
+  <si>
+    <t>Farglory Life 15</t>
+  </si>
+  <si>
+    <t>Farglory Life 16</t>
+  </si>
+  <si>
+    <t>First-Aviva Life 14</t>
+  </si>
+  <si>
+    <t>First-Aviva Life 15</t>
+  </si>
+  <si>
+    <t>First-Aviva Life 16</t>
+  </si>
+  <si>
+    <t>Fubon Life 14</t>
+  </si>
+  <si>
+    <t>Fubon Life 15</t>
+  </si>
+  <si>
+    <t>Fubon Life 16</t>
+  </si>
+  <si>
+    <t>Global Life 14</t>
+  </si>
+  <si>
+    <t>Hontai Life 14</t>
+  </si>
+  <si>
+    <t>Hontai Life 15</t>
+  </si>
+  <si>
+    <t>Hontai Life 16</t>
+  </si>
+  <si>
+    <t>Mercuries Life 14</t>
+  </si>
+  <si>
+    <t>Mercuries Life 15</t>
+  </si>
+  <si>
+    <t>Mercuries Life 16</t>
+  </si>
+  <si>
+    <t>Nan Shan Life 14</t>
+  </si>
+  <si>
+    <t>Nan Shan Life 15</t>
+  </si>
+  <si>
+    <t>Nan Shan Life 16</t>
+  </si>
+  <si>
+    <t>PCA Life 14</t>
+  </si>
+  <si>
+    <t>PCA Life 15</t>
+  </si>
+  <si>
+    <t>PCA Life 16</t>
+  </si>
+  <si>
+    <t>Prudential of Taiwan 14</t>
+  </si>
+  <si>
+    <t>Prudential of Taiwan 15</t>
+  </si>
+  <si>
+    <t>Prudential of Taiwan 16</t>
+  </si>
+  <si>
+    <t>Singfor Life 14</t>
+  </si>
+  <si>
+    <t>Shin Kong Life 14</t>
+  </si>
+  <si>
+    <t>Shin Kong Life 15</t>
+  </si>
+  <si>
+    <t>Shin Kong Life 16</t>
+  </si>
+  <si>
+    <t>Taiwan Life 14</t>
+  </si>
+  <si>
+    <t>Taiwan Life 15</t>
+  </si>
+  <si>
+    <t>Taiwan Life 16</t>
+  </si>
+  <si>
+    <t>DUMMY Taiwan 16</t>
+  </si>
+  <si>
+    <t>TransGlobe Life 14</t>
+  </si>
+  <si>
+    <t>TransGlobe Life 15</t>
+  </si>
+  <si>
+    <t>Yuanta Life 14</t>
+  </si>
+  <si>
+    <t>Yuanta Life 15</t>
+  </si>
+  <si>
+    <t>Yuanta Life 16</t>
+  </si>
+  <si>
+    <t>Zurich 14</t>
+  </si>
+  <si>
+    <t>Zurich 15</t>
+  </si>
+  <si>
+    <t>Zurich 16</t>
+  </si>
+  <si>
+    <t>[-0.1404  0.8596]</t>
+  </si>
+  <si>
+    <t>[0.7966 0.2034]</t>
+  </si>
+  <si>
+    <t>[-0.3835 -0.6165]</t>
+  </si>
+  <si>
+    <t>[-0.9343  0.0657]</t>
+  </si>
+  <si>
+    <t>[0.6572 0.3428]</t>
+  </si>
+  <si>
+    <t>[-0.5158  0.4842]</t>
+  </si>
+  <si>
+    <t>[ 0.0408 -0.9592]</t>
+  </si>
+  <si>
+    <t>[-0.0197 -0.9803]</t>
+  </si>
+  <si>
+    <t>[ 0.5945 -0.4055]</t>
+  </si>
+  <si>
+    <t>[0.7241 0.2759]</t>
+  </si>
+  <si>
+    <t>[ 0.4327 -0.5673]</t>
+  </si>
+  <si>
+    <t>[-0.5541 -0.4459]</t>
+  </si>
+  <si>
+    <t>[0.8918 0.1082]</t>
+  </si>
+  <si>
+    <t>[ 0.984 -0.016]</t>
+  </si>
+  <si>
+    <t>[-0.4484  0.5516]</t>
+  </si>
+  <si>
+    <t>[-0.2203  0.7797]</t>
+  </si>
+  <si>
+    <t>[-0.742  0.258]</t>
+  </si>
+  <si>
+    <t>[ 0.5208 -0.4792]</t>
+  </si>
+  <si>
+    <t>[ 0.4566 -0.5434]</t>
+  </si>
+  <si>
+    <t>[-0.1079 -0.8921]</t>
+  </si>
+  <si>
+    <t>[ 0.2064 -0.7936]</t>
+  </si>
+  <si>
+    <t>[-0.4433  0.5567]</t>
+  </si>
+  <si>
+    <t>[-0.351  0.649]</t>
+  </si>
+  <si>
+    <t>[ 0.5726 -0.4274]</t>
+  </si>
+  <si>
+    <t>[ 0.4369 -0.5631]</t>
+  </si>
+  <si>
+    <t>[0.7654 0.2346]</t>
+  </si>
+  <si>
+    <t>[-0.891 -0.109]</t>
+  </si>
+  <si>
+    <t>[-0.5038  0.4962]</t>
+  </si>
+  <si>
+    <t>[ 0.5464 -0.4536]</t>
+  </si>
+  <si>
+    <t>[0.0345 0.9655]</t>
+  </si>
+  <si>
+    <t>[ 0.5031 -0.4969]</t>
+  </si>
+  <si>
+    <t>[0.8986 0.1014]</t>
+  </si>
+  <si>
+    <t>[-0.9234  0.0766]</t>
+  </si>
+  <si>
+    <t>[-0.48  0.52]</t>
+  </si>
+  <si>
+    <t>[-0.4455  0.5545]</t>
+  </si>
+  <si>
+    <t>[ 0.6218 -0.3782]</t>
+  </si>
+  <si>
+    <t>[-0.6565  0.3435]</t>
+  </si>
+  <si>
+    <t>[-0.6686 -0.3314]</t>
+  </si>
+  <si>
+    <t>[ 0.4925 -0.5075]</t>
+  </si>
+  <si>
+    <t>[ 0.1742 -0.8258]</t>
+  </si>
+  <si>
+    <t>[-0.7532  0.2468]</t>
+  </si>
+  <si>
+    <t>[-0.3841  0.6159]</t>
+  </si>
+  <si>
+    <t>[-0.3817  0.6183]</t>
+  </si>
+  <si>
+    <t>[-0.6978 -0.3022]</t>
+  </si>
+  <si>
+    <t>[ 0.4241 -0.5759]</t>
+  </si>
+  <si>
+    <t>[-0.3637  0.6363]</t>
+  </si>
+  <si>
+    <t>[-0.4016  0.5984]</t>
+  </si>
+  <si>
+    <t>[-0.6043  0.3957]</t>
+  </si>
+  <si>
+    <t>[-0.4405  0.5595]</t>
+  </si>
+  <si>
+    <t>[-0.4123  0.5877]</t>
+  </si>
+  <si>
+    <t>[-0.5504  0.4496]</t>
+  </si>
+  <si>
+    <t>[-0.435  0.565]</t>
+  </si>
+  <si>
+    <t>[-0.44  0.56]</t>
+  </si>
+  <si>
+    <t>[-0.4598  0.5402]</t>
+  </si>
+  <si>
+    <t>[ 0.4459 -0.5541]</t>
+  </si>
+  <si>
+    <t>[ 0.4509 -0.5491]</t>
+  </si>
+  <si>
+    <t>[-0.4496  0.5504]</t>
+  </si>
+  <si>
+    <t>[ 0.4923 -0.5077]</t>
+  </si>
+  <si>
+    <t>[-0.5263  0.4737]</t>
+  </si>
+  <si>
+    <t>[-0.392  0.608]</t>
+  </si>
+  <si>
+    <t>[-0.0474 -0.9526]</t>
+  </si>
+  <si>
+    <t>[-0.4859  0.5141]</t>
+  </si>
+  <si>
+    <t>[ 0.4076 -0.5924]</t>
+  </si>
+  <si>
+    <t>[-0.5314  0.4686]</t>
+  </si>
+  <si>
+    <t>[ 0.5117 -0.4883]</t>
+  </si>
+  <si>
+    <t>[-0.3828 -0.6172]</t>
+  </si>
+  <si>
+    <t>[-0.4374  0.5626]</t>
+  </si>
+  <si>
+    <t>[ 0.4006 -0.5994]</t>
+  </si>
+  <si>
+    <t>[ 0.5247 -0.4753]</t>
+  </si>
+  <si>
+    <t>[-0.2897  0.7103]</t>
+  </si>
+  <si>
+    <t>[-0.9356 -0.0644]</t>
+  </si>
+  <si>
+    <t>[ 0.4762 -0.5238]</t>
+  </si>
+  <si>
+    <t>[-0.8277  0.1723]</t>
+  </si>
+  <si>
+    <t>[0.6924 0.3076]</t>
+  </si>
+  <si>
+    <t>[ 0.5541 -0.4459]</t>
+  </si>
+  <si>
+    <t>[ 9.991e-01 -9.000e-04]</t>
+  </si>
+  <si>
+    <t>[ 0.9922 -0.0078]</t>
+  </si>
+  <si>
+    <t>[nan nan]</t>
+  </si>
+  <si>
+    <t>[0 1]</t>
+  </si>
+  <si>
+    <t>[0 0]</t>
+  </si>
+  <si>
+    <t>[1 0]</t>
+  </si>
+  <si>
+    <t>TransGlobe Life 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Marginal Profit Consistency</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Efficiency Change</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>AIA Taiwan 14</t>
-  </si>
-  <si>
-    <t>AIA Taiwan 15</t>
-  </si>
-  <si>
-    <t>AIA Taiwan 16</t>
-  </si>
-  <si>
-    <t>Allianz Taiwan Life 14</t>
-  </si>
-  <si>
-    <t>Allianz Taiwan Life 15</t>
-  </si>
-  <si>
-    <t>Allianz Taiwan Life 16</t>
-  </si>
-  <si>
-    <t>Bank Taiwan Life 14</t>
-  </si>
-  <si>
-    <t>Bank Taiwan Life 15</t>
-  </si>
-  <si>
-    <t>Bank Taiwan Life 16</t>
-  </si>
-  <si>
-    <t>BNP Paribas Cardif TCB 14</t>
-  </si>
-  <si>
-    <t>BNP Paribas Cardif TCB 15</t>
-  </si>
-  <si>
-    <t>BNP Paribas Cardif TCB 16</t>
-  </si>
-  <si>
-    <t>Cardif 14</t>
-  </si>
-  <si>
-    <t>Cardif 15</t>
-  </si>
-  <si>
-    <t>Cardif 16</t>
-  </si>
-  <si>
-    <t>Cathay Life 14</t>
-  </si>
-  <si>
-    <t>Cathay Life 15</t>
-  </si>
-  <si>
-    <t>Cathay Life 16</t>
-  </si>
-  <si>
-    <t>DUMMY Cathay 15</t>
-  </si>
-  <si>
-    <t>Chaoyang Life 14</t>
-  </si>
-  <si>
-    <t>Chaoyang Life 15</t>
-  </si>
-  <si>
-    <t>Chaoyang Life 16</t>
-  </si>
-  <si>
-    <t>China Life 14</t>
-  </si>
-  <si>
-    <t>China Life 15</t>
-  </si>
-  <si>
-    <t>China Life 16</t>
-  </si>
-  <si>
-    <t>ACE Tempest Life 14</t>
-  </si>
-  <si>
-    <t>ACE Tempest Life 15</t>
-  </si>
-  <si>
-    <t>Chubb Tempest Life 16</t>
-  </si>
-  <si>
-    <t>Chunghwa Post 14</t>
-  </si>
-  <si>
-    <t>Chunghwa Post 15</t>
-  </si>
-  <si>
-    <t>Chunghwa Post 16</t>
-  </si>
-  <si>
-    <t>CIGNA 14</t>
-  </si>
-  <si>
-    <t>CIGNA 15</t>
-  </si>
-  <si>
-    <t>CIGNA 16</t>
-  </si>
-  <si>
-    <t>CTBC Life 14</t>
-  </si>
-  <si>
-    <t>CTBC Life 15</t>
-  </si>
-  <si>
-    <t>Farglory Life 14</t>
-  </si>
-  <si>
-    <t>Farglory Life 15</t>
-  </si>
-  <si>
-    <t>Farglory Life 16</t>
-  </si>
-  <si>
-    <t>First-Aviva Life 14</t>
-  </si>
-  <si>
-    <t>First-Aviva Life 15</t>
-  </si>
-  <si>
-    <t>First-Aviva Life 16</t>
-  </si>
-  <si>
-    <t>Fubon Life 14</t>
-  </si>
-  <si>
-    <t>Fubon Life 15</t>
-  </si>
-  <si>
-    <t>Fubon Life 16</t>
-  </si>
-  <si>
-    <t>Global Life 14</t>
-  </si>
-  <si>
-    <t>Hontai Life 14</t>
-  </si>
-  <si>
-    <t>Hontai Life 15</t>
-  </si>
-  <si>
-    <t>Hontai Life 16</t>
-  </si>
-  <si>
-    <t>Mercuries Life 14</t>
-  </si>
-  <si>
-    <t>Mercuries Life 15</t>
-  </si>
-  <si>
-    <t>Mercuries Life 16</t>
-  </si>
-  <si>
-    <t>Nan Shan Life 14</t>
-  </si>
-  <si>
-    <t>Nan Shan Life 15</t>
-  </si>
-  <si>
-    <t>Nan Shan Life 16</t>
-  </si>
-  <si>
-    <t>PCA Life 14</t>
-  </si>
-  <si>
-    <t>PCA Life 15</t>
-  </si>
-  <si>
-    <t>PCA Life 16</t>
-  </si>
-  <si>
-    <t>Prudential of Taiwan 14</t>
-  </si>
-  <si>
-    <t>Prudential of Taiwan 15</t>
-  </si>
-  <si>
-    <t>Prudential of Taiwan 16</t>
-  </si>
-  <si>
-    <t>Singfor Life 14</t>
-  </si>
-  <si>
-    <t>Shin Kong Life 14</t>
-  </si>
-  <si>
-    <t>Shin Kong Life 15</t>
-  </si>
-  <si>
-    <t>Shin Kong Life 16</t>
-  </si>
-  <si>
-    <t>Taiwan Life 14</t>
-  </si>
-  <si>
-    <t>Taiwan Life 15</t>
-  </si>
-  <si>
-    <t>Taiwan Life 16</t>
-  </si>
-  <si>
-    <t>DUMMY Taiwan 16</t>
-  </si>
-  <si>
-    <t>TransGlobe Life 14</t>
-  </si>
-  <si>
-    <t>TransGlobe Life 15</t>
-  </si>
-  <si>
-    <t>TransGlobe Life 16</t>
-  </si>
-  <si>
-    <t>Yuanta Life 14</t>
-  </si>
-  <si>
-    <t>Yuanta Life 15</t>
-  </si>
-  <si>
-    <t>Yuanta Life 16</t>
-  </si>
-  <si>
-    <t>Zurich 14</t>
-  </si>
-  <si>
-    <t>Zurich 15</t>
-  </si>
-  <si>
-    <t>Zurich 16</t>
-  </si>
-  <si>
-    <t>[-0.1404  0.8596]</t>
-  </si>
-  <si>
-    <t>[0.7966 0.2034]</t>
-  </si>
-  <si>
-    <t>[-0.3835 -0.6165]</t>
-  </si>
-  <si>
-    <t>[-0.9343  0.0657]</t>
-  </si>
-  <si>
-    <t>[0.6572 0.3428]</t>
-  </si>
-  <si>
-    <t>[-0.5158  0.4842]</t>
-  </si>
-  <si>
-    <t>[ 0.0408 -0.9592]</t>
-  </si>
-  <si>
-    <t>[-0.0197 -0.9803]</t>
-  </si>
-  <si>
-    <t>[ 0.5945 -0.4055]</t>
-  </si>
-  <si>
-    <t>[0.7241 0.2759]</t>
-  </si>
-  <si>
-    <t>[ 0.4327 -0.5673]</t>
-  </si>
-  <si>
-    <t>[-0.5541 -0.4459]</t>
-  </si>
-  <si>
-    <t>[0.8918 0.1082]</t>
-  </si>
-  <si>
-    <t>[ 0.984 -0.016]</t>
-  </si>
-  <si>
-    <t>[-0.4484  0.5516]</t>
-  </si>
-  <si>
-    <t>[-0.2203  0.7797]</t>
-  </si>
-  <si>
-    <t>[-0.742  0.258]</t>
-  </si>
-  <si>
-    <t>[ 0.5208 -0.4792]</t>
-  </si>
-  <si>
-    <t>[ 0.4566 -0.5434]</t>
-  </si>
-  <si>
-    <t>[-0.1079 -0.8921]</t>
-  </si>
-  <si>
-    <t>[ 0.2064 -0.7936]</t>
-  </si>
-  <si>
-    <t>[-0.4433  0.5567]</t>
-  </si>
-  <si>
-    <t>[-0.351  0.649]</t>
-  </si>
-  <si>
-    <t>[ 0.5726 -0.4274]</t>
-  </si>
-  <si>
-    <t>[ 0.4369 -0.5631]</t>
-  </si>
-  <si>
-    <t>[0.7654 0.2346]</t>
-  </si>
-  <si>
-    <t>[-0.891 -0.109]</t>
-  </si>
-  <si>
-    <t>[-0.5038  0.4962]</t>
-  </si>
-  <si>
-    <t>[ 0.5464 -0.4536]</t>
-  </si>
-  <si>
-    <t>[0.0345 0.9655]</t>
-  </si>
-  <si>
-    <t>[ 0.5031 -0.4969]</t>
-  </si>
-  <si>
-    <t>[0.8986 0.1014]</t>
-  </si>
-  <si>
-    <t>[-0.9234  0.0766]</t>
-  </si>
-  <si>
-    <t>[-0.48  0.52]</t>
-  </si>
-  <si>
-    <t>[-0.4455  0.5545]</t>
-  </si>
-  <si>
-    <t>[ 0.6218 -0.3782]</t>
-  </si>
-  <si>
-    <t>[-0.6565  0.3435]</t>
-  </si>
-  <si>
-    <t>[-0.6686 -0.3314]</t>
-  </si>
-  <si>
-    <t>[ 0.4925 -0.5075]</t>
-  </si>
-  <si>
-    <t>[ 0.1742 -0.8258]</t>
-  </si>
-  <si>
-    <t>[-0.7532  0.2468]</t>
-  </si>
-  <si>
-    <t>[-0.3841  0.6159]</t>
-  </si>
-  <si>
-    <t>[-0.3817  0.6183]</t>
-  </si>
-  <si>
-    <t>[-0.6978 -0.3022]</t>
-  </si>
-  <si>
-    <t>[ 0.4241 -0.5759]</t>
-  </si>
-  <si>
-    <t>[-0.3637  0.6363]</t>
-  </si>
-  <si>
-    <t>[-0.4016  0.5984]</t>
-  </si>
-  <si>
-    <t>[-0.6043  0.3957]</t>
-  </si>
-  <si>
-    <t>[-0.4405  0.5595]</t>
-  </si>
-  <si>
-    <t>[-0.4123  0.5877]</t>
-  </si>
-  <si>
-    <t>[-0.5504  0.4496]</t>
-  </si>
-  <si>
-    <t>[-0.435  0.565]</t>
-  </si>
-  <si>
-    <t>[-0.44  0.56]</t>
-  </si>
-  <si>
-    <t>[-0.4598  0.5402]</t>
-  </si>
-  <si>
-    <t>[ 0.4459 -0.5541]</t>
-  </si>
-  <si>
-    <t>[ 0.4509 -0.5491]</t>
-  </si>
-  <si>
-    <t>[-0.4496  0.5504]</t>
-  </si>
-  <si>
-    <t>[ 0.4923 -0.5077]</t>
-  </si>
-  <si>
-    <t>[-0.5263  0.4737]</t>
-  </si>
-  <si>
-    <t>[-0.392  0.608]</t>
-  </si>
-  <si>
-    <t>[-0.0474 -0.9526]</t>
-  </si>
-  <si>
-    <t>[-0.4859  0.5141]</t>
-  </si>
-  <si>
-    <t>[ 0.4076 -0.5924]</t>
-  </si>
-  <si>
-    <t>[-0.5314  0.4686]</t>
-  </si>
-  <si>
-    <t>[ 0.5117 -0.4883]</t>
-  </si>
-  <si>
-    <t>[-0.3828 -0.6172]</t>
-  </si>
-  <si>
-    <t>[-0.4374  0.5626]</t>
-  </si>
-  <si>
-    <t>[ 0.4006 -0.5994]</t>
-  </si>
-  <si>
-    <t>[ 0.5247 -0.4753]</t>
-  </si>
-  <si>
-    <t>[-0.2897  0.7103]</t>
-  </si>
-  <si>
-    <t>[-0.9356 -0.0644]</t>
-  </si>
-  <si>
-    <t>[ 0.4762 -0.5238]</t>
-  </si>
-  <si>
-    <t>[-0.8277  0.1723]</t>
-  </si>
-  <si>
-    <t>[0.6924 0.3076]</t>
-  </si>
-  <si>
-    <t>[ 0.5541 -0.4459]</t>
-  </si>
-  <si>
-    <t>[ 9.991e-01 -9.000e-04]</t>
-  </si>
-  <si>
-    <t>[ 0.9922 -0.0078]</t>
-  </si>
-  <si>
-    <t>[nan nan]</t>
-  </si>
-  <si>
-    <t>[0 1]</t>
-  </si>
-  <si>
-    <t>[0 0]</t>
-  </si>
-  <si>
-    <t>[1 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -972,7 +974,8 @@
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1021,24 +1024,24 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>1.0019</v>
@@ -1053,22 +1056,22 @@
         <v>1.7022999999999999</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3">
         <v>0.5363</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J2" s="4">
         <v>0.9869</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>0.93769999999999998</v>
@@ -1106,22 +1109,22 @@
         <v>1.9300999999999999</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3">
         <v>0.58340000000000003</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J3" s="4">
         <v>0.24740000000000001</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>0.87809999999999999</v>
@@ -1159,22 +1162,22 @@
         <v>2.0322</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3">
         <v>0.63129999999999997</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J4" s="4">
         <v>-0.84909999999999997</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3.1435</v>
@@ -1212,22 +1215,22 @@
         <v>1.7201</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>0.78749999999999998</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -1250,7 +1253,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>4.5007999999999999</v>
@@ -1265,22 +1268,22 @@
         <v>1.8231999999999999</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>0.99429999999999996</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>3.6065</v>
@@ -1318,22 +1321,22 @@
         <v>2.3632</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>0.92130000000000001</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>1.8587</v>
@@ -1371,22 +1374,22 @@
         <v>12.176500000000001</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="3">
         <v>0.6552</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L8" s="4">
         <v>4.2500000000000003E-2</v>
@@ -1409,7 +1412,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
         <v>2.3653</v>
@@ -1424,22 +1427,22 @@
         <v>10.387</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3">
         <v>0.93989999999999996</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L9" s="4">
         <v>-0.99980000000000002</v>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
         <v>2.9632000000000001</v>
@@ -1477,22 +1480,22 @@
         <v>9.7167999999999992</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3">
         <v>0.92679999999999996</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L10" s="4">
         <v>-0.56340000000000001</v>
@@ -1515,7 +1518,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1.0458000000000001</v>
@@ -1530,22 +1533,22 @@
         <v>2.0626000000000002</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H11">
         <v>0.72629999999999995</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -1568,7 +1571,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1.3233999999999999</v>
@@ -1583,22 +1586,22 @@
         <v>2.1907999999999999</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12">
         <v>0.66459999999999997</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1621,7 +1624,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>1.1358999999999999</v>
@@ -1636,22 +1639,22 @@
         <v>1.8709</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13">
         <v>0.63</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1674,7 +1677,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
         <v>4.6574999999999998</v>
@@ -1689,22 +1692,22 @@
         <v>1.04</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
         <v>4.7965</v>
@@ -1742,22 +1745,22 @@
         <v>1.1474</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3">
         <v>0.99970000000000003</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
         <v>3.5586000000000002</v>
@@ -1795,22 +1798,22 @@
         <v>1.121</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>32.2151</v>
@@ -1848,22 +1851,22 @@
         <v>169.2475</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J17" s="5">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L17" s="5">
         <v>-0.27189999999999998</v>
@@ -1886,7 +1889,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>32.787799999999997</v>
@@ -1901,22 +1904,22 @@
         <v>182.49760000000001</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -1939,7 +1942,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>37.923999999999999</v>
@@ -1954,22 +1957,22 @@
         <v>191.2397</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>33.6128</v>
@@ -2007,22 +2010,22 @@
         <v>171.89519999999999</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J20" s="5">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L20" s="5">
         <v>0.64329999999999998</v>
@@ -2045,7 +2048,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3">
         <v>0.80249999999999999</v>
@@ -2060,22 +2063,22 @@
         <v>3.1263000000000001</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L21" s="4">
         <v>-0.99280000000000002</v>
@@ -2098,7 +2101,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
         <v>0.76619999999999999</v>
@@ -2113,22 +2116,22 @@
         <v>1.7727999999999999</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H22" s="3">
         <v>0.88660000000000005</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <v>0.71430000000000005</v>
@@ -2166,22 +2169,22 @@
         <v>1.5447</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H23" s="3">
         <v>0.8679</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L23" s="4">
         <v>0</v>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>9.5121000000000002</v>
@@ -2219,22 +2222,22 @@
         <v>39.691499999999998</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0.76100000000000001</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J24" s="5">
         <v>-0.47560000000000002</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L24" s="5">
         <v>-0.47560000000000002</v>
@@ -2257,7 +2260,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>13.5952</v>
@@ -2272,22 +2275,22 @@
         <v>47.904899999999998</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L25" s="5">
         <v>0.8014</v>
@@ -2310,7 +2313,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>11.731</v>
@@ -2325,22 +2328,22 @@
         <v>47.708599999999997</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J26" s="5">
         <v>0.61309999999999998</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L26" s="5">
         <v>0.61309999999999998</v>
@@ -2363,7 +2366,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3">
         <v>0.85529999999999995</v>
@@ -2378,22 +2381,22 @@
         <v>0.76980000000000004</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27" s="3">
         <v>0.6905</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
@@ -2416,7 +2419,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
         <v>0.82289999999999996</v>
@@ -2431,22 +2434,22 @@
         <v>0.79679999999999995</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H28" s="3">
         <v>0.61180000000000001</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L28" s="4">
         <v>0</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3">
         <v>1.0187999999999999</v>
@@ -2484,22 +2487,22 @@
         <v>0.7722</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H29" s="3">
         <v>0.55800000000000005</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
@@ -2522,7 +2525,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>0.4869</v>
@@ -2537,22 +2540,22 @@
         <v>20.221399999999999</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J30" s="5">
         <v>0.76939999999999997</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L30" s="5">
         <v>0</v>
@@ -2575,7 +2578,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>0.376</v>
@@ -2590,22 +2593,22 @@
         <v>19.016100000000002</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J31" s="5">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L31" s="5">
         <v>0</v>
@@ -2628,7 +2631,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>0.52800000000000002</v>
@@ -2643,22 +2646,22 @@
         <v>19.298999999999999</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J32" s="5">
         <v>0.71150000000000002</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L32" s="5">
         <v>0.71150000000000002</v>
@@ -2681,7 +2684,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3">
         <v>1.1580999999999999</v>
@@ -2696,22 +2699,22 @@
         <v>0.93479999999999996</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" s="3">
         <v>0.94299999999999995</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J33" s="4">
         <v>0.11219999999999999</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3">
         <v>1.0128999999999999</v>
@@ -2749,22 +2752,22 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J34" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L34" s="4">
         <v>0</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3">
         <v>0.90800000000000003</v>
@@ -2802,22 +2805,22 @@
         <v>1.0101</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35" s="3">
         <v>0.88370000000000004</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J35" s="4">
         <v>0.73480000000000001</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L35" s="4">
         <v>0</v>
@@ -2840,7 +2843,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>10.8484</v>
@@ -2855,22 +2858,22 @@
         <v>12.6541</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>0.61350000000000005</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J36" s="5">
         <v>0</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>10.632</v>
@@ -2908,22 +2911,22 @@
         <v>16.4587</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>0.61580000000000001</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J37" s="5">
         <v>0</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L37" s="5">
         <v>0</v>
@@ -2946,7 +2949,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3">
         <v>3.6964999999999999</v>
@@ -2961,22 +2964,22 @@
         <v>13.583</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H38" s="3">
         <v>0.82630000000000003</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L38" s="4">
         <v>0</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3">
         <v>4.8190999999999997</v>
@@ -3014,22 +3017,22 @@
         <v>14.106999999999999</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H39" s="3">
         <v>0.4844</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L39" s="4">
         <v>0</v>
@@ -3052,7 +3055,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3">
         <v>7.2412000000000001</v>
@@ -3067,22 +3070,22 @@
         <v>13.058199999999999</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H40" s="3">
         <v>0.54679999999999995</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L40" s="4">
         <v>0</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>0.6139</v>
@@ -3120,22 +3123,22 @@
         <v>1.0580000000000001</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H41">
         <v>0.78449999999999998</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J41" s="5">
         <v>0</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L41" s="5">
         <v>0</v>
@@ -3158,7 +3161,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>0.67989999999999995</v>
@@ -3173,22 +3176,22 @@
         <v>0.96379999999999999</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H42">
         <v>0.73319999999999996</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J42" s="5">
         <v>0</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L42" s="5">
         <v>0</v>
@@ -3211,7 +3214,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>0.57589999999999997</v>
@@ -3226,22 +3229,22 @@
         <v>0.99350000000000005</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>0.74590000000000001</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J43" s="5">
         <v>0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
@@ -3264,7 +3267,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3">
         <v>23.229500000000002</v>
@@ -3279,22 +3282,22 @@
         <v>110.49720000000001</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H44" s="3">
         <v>0.84540000000000004</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L44" s="4">
         <v>0</v>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3">
         <v>26.095700000000001</v>
@@ -3332,22 +3335,22 @@
         <v>130.68</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L45" s="4">
         <v>0</v>
@@ -3370,7 +3373,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3">
         <v>33.474600000000002</v>
@@ -3385,22 +3388,22 @@
         <v>124.6546</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="3">
         <v>0.87870000000000004</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L46" s="4">
         <v>0</v>
@@ -3423,7 +3426,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>0.89319999999999999</v>
@@ -3438,22 +3441,22 @@
         <v>2.2202000000000002</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H47">
         <v>0.81430000000000002</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J47" s="5">
         <v>0</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L47" s="5">
         <v>0</v>
@@ -3476,7 +3479,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3">
         <v>0.79630000000000001</v>
@@ -3491,22 +3494,22 @@
         <v>7.8590999999999998</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="3">
         <v>0.78249999999999997</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L48" s="4">
         <v>-0.55730000000000002</v>
@@ -3529,7 +3532,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3">
         <v>0.69620000000000004</v>
@@ -3544,22 +3547,22 @@
         <v>8.5192999999999994</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L49" s="4">
         <v>-0.83660000000000001</v>
@@ -3582,7 +3585,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="3">
         <v>0.8196</v>
@@ -3597,22 +3600,22 @@
         <v>8.9616000000000007</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H50" s="3">
         <v>0.7419</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L50" s="4">
         <v>-0.61860000000000004</v>
@@ -3635,7 +3638,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>11.0647</v>
@@ -3650,22 +3653,22 @@
         <v>25.008099999999999</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>0.80610000000000004</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J51" s="5">
         <v>0</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L51" s="5">
         <v>0</v>
@@ -3688,7 +3691,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>11.212199999999999</v>
@@ -3703,22 +3706,22 @@
         <v>28.885300000000001</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>0.77429999999999999</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J52" s="5">
         <v>0</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L52" s="5">
         <v>0</v>
@@ -3741,7 +3744,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>11.918699999999999</v>
@@ -3756,22 +3759,22 @@
         <v>31.266500000000001</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0.75270000000000004</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J53" s="5">
         <v>0</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L53" s="5">
         <v>0</v>
@@ -3794,7 +3797,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3">
         <v>18.230799999999999</v>
@@ -3809,22 +3812,22 @@
         <v>118.0595</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H54" s="3">
         <v>0.57899999999999996</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J54" s="4">
         <v>-0.61780000000000002</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L54" s="4">
         <v>0</v>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3">
         <v>19.526599999999998</v>
@@ -3862,22 +3865,22 @@
         <v>131.93170000000001</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H55" s="3">
         <v>0.72230000000000005</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J55" s="4">
         <v>-0.6482</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L55" s="4">
         <v>0</v>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3">
         <v>21.436800000000002</v>
@@ -3915,22 +3918,22 @@
         <v>152.58080000000001</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J56" s="4">
         <v>0.62690000000000001</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L56" s="4">
         <v>0</v>
@@ -3953,7 +3956,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>1.8171999999999999</v>
@@ -3968,22 +3971,22 @@
         <v>6.6342999999999996</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H57">
         <v>0.52010000000000001</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J57" s="5">
         <v>-0.77280000000000004</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L57" s="5">
         <v>0</v>
@@ -4006,7 +4009,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>1.6254999999999999</v>
@@ -4021,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>0.75939999999999996</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J58" s="5">
         <v>0.77439999999999998</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L58" s="5">
         <v>0</v>
@@ -4059,7 +4062,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>1.7653000000000001</v>
@@ -4074,22 +4077,22 @@
         <v>8.3163</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H59">
         <v>0.70960000000000001</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J59" s="5">
         <v>0</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L59" s="5">
         <v>0</v>
@@ -4112,7 +4115,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="3">
         <v>0.86850000000000005</v>
@@ -4127,22 +4130,22 @@
         <v>3.4958999999999998</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H60" s="3">
         <v>0.65369999999999995</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J60" s="4">
         <v>0</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L60" s="4">
         <v>0</v>
@@ -4165,7 +4168,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="3">
         <v>0.85389999999999999</v>
@@ -4180,22 +4183,22 @@
         <v>3.7054999999999998</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H61" s="3">
         <v>0.71079999999999999</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J61" s="4">
         <v>0</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L61" s="4">
         <v>0</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3">
         <v>0.98299999999999998</v>
@@ -4233,22 +4236,22 @@
         <v>4.6002000000000001</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H62" s="3">
         <v>0.75660000000000005</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J62" s="4">
         <v>0</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L62" s="4">
         <v>0</v>
@@ -4271,7 +4274,7 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>0.50439999999999996</v>
@@ -4286,22 +4289,22 @@
         <v>1.9418</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H63">
         <v>0.77680000000000005</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J63" s="5">
         <v>0</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L63" s="5">
         <v>0</v>
@@ -4324,7 +4327,7 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="3">
         <v>8.6320999999999994</v>
@@ -4339,22 +4342,22 @@
         <v>77.970699999999994</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J64" s="4">
         <v>0.56689999999999996</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L64" s="4">
         <v>0</v>
@@ -4377,7 +4380,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="3">
         <v>7.9958999999999998</v>
@@ -4392,22 +4395,22 @@
         <v>71.694699999999997</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H65" s="3">
         <v>0.82199999999999995</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J65" s="4">
         <v>-0.75009999999999999</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L65" s="4">
         <v>0</v>
@@ -4430,7 +4433,7 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="3">
         <v>13.287699999999999</v>
@@ -4445,22 +4448,22 @@
         <v>80.386300000000006</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H66" s="3">
         <v>0.43059999999999998</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J66" s="4">
         <v>0.72340000000000004</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L66" s="4">
         <v>0</v>
@@ -4483,7 +4486,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>2.54</v>
@@ -4498,22 +4501,22 @@
         <v>18.720800000000001</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H67">
         <v>0.56740000000000002</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J67" s="5">
         <v>0</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L67" s="5">
         <v>0</v>
@@ -4536,7 +4539,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>2.3294999999999999</v>
@@ -4551,22 +4554,22 @@
         <v>16.5044</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H68">
         <v>0.62770000000000004</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J68" s="5">
         <v>0</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L68" s="5">
         <v>0</v>
@@ -4589,7 +4592,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>17.659400000000002</v>
@@ -4604,22 +4607,22 @@
         <v>44.705399999999997</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>0.52059999999999995</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J69" s="5">
         <v>0</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L69" s="5">
         <v>0.55559999999999998</v>
@@ -4642,7 +4645,7 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>12.961499999999999</v>
@@ -4657,22 +4660,22 @@
         <v>32.206000000000003</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>0.74060000000000004</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J70" s="5">
         <v>0</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L70" s="5">
         <v>0</v>
@@ -4695,7 +4698,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="3">
         <v>5.4183000000000003</v>
@@ -4710,22 +4713,22 @@
         <v>26.5852</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H71" s="3">
         <v>0.56510000000000005</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J71" s="4">
         <v>0</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L71" s="4">
         <v>0</v>
@@ -4748,7 +4751,7 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="3">
         <v>5.1632999999999996</v>
@@ -4763,22 +4766,22 @@
         <v>34.042400000000001</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H72" s="3">
         <v>0.54730000000000001</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J72" s="4">
         <v>0</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L72" s="4">
         <v>-0.99760000000000004</v>
@@ -4801,7 +4804,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="B73" s="3">
         <v>6.4225000000000003</v>
@@ -4816,22 +4819,22 @@
         <v>33.824599999999997</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="3">
         <v>0.71730000000000005</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J73" s="4">
         <v>0</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L73" s="4">
         <v>0.67269999999999996</v>
@@ -4854,7 +4857,7 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>1.6259999999999999</v>
@@ -4869,22 +4872,22 @@
         <v>3.5472999999999999</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H74">
         <v>0.6028</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J74" s="5">
         <v>0</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L74" s="5">
         <v>0</v>
@@ -4907,7 +4910,7 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>4.7514000000000003</v>
@@ -4922,22 +4925,22 @@
         <v>4.1646000000000001</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>0.7077</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J75" s="5">
         <v>0</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L75" s="5">
         <v>0</v>
@@ -4960,7 +4963,7 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>2.2856000000000001</v>
@@ -4975,22 +4978,22 @@
         <v>4.6909999999999998</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H76">
         <v>0.4546</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J76" s="5">
         <v>0</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L76" s="5">
         <v>0</v>
@@ -5013,7 +5016,7 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77" s="3">
         <v>7.7999999999999996E-3</v>
@@ -5028,22 +5031,22 @@
         <v>0.7581</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H77" s="3">
         <v>0.99280000000000002</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J77" s="4">
         <v>0</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L77" s="4">
         <v>0</v>
@@ -5066,7 +5069,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78" s="3">
         <v>2.3E-3</v>
@@ -5081,22 +5084,22 @@
         <v>0.7581</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H78" s="3">
         <v>0.99919999999999998</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J78" s="4">
         <v>0</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L78" s="4">
         <v>0</v>
@@ -5119,7 +5122,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79" s="3">
         <v>5.9999999999999995E-4</v>
@@ -5134,22 +5137,22 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J79" s="4">
         <v>0</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L79" s="4">
         <v>0</v>

--- a/14-16 all_dmu analysis.xlsx
+++ b/14-16 all_dmu analysis.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/insurer-emperical-study/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B8134-2979-3B47-B0D0-E395209120CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -481,12 +487,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -494,17 +500,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -534,22 +553,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,9 +660,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,6 +712,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -832,12 +905,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="3" width="18.796875" customWidth="1"/>
+    <col min="9" max="12" width="9" style="5"/>
+    <col min="14" max="14" width="14.19921875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5"/>
+    <col min="16" max="16" width="13" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
@@ -905,185 +989,192 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1.0019</v>
       </c>
-      <c r="C2">
-        <v>1.5534</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>1.5533999999999999</v>
+      </c>
+      <c r="D2" s="3">
         <v>162.9486</v>
       </c>
-      <c r="E2">
-        <v>1.7023</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="3">
+        <v>1.7022999999999999</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.5363</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>0.9869</v>
       </c>
-      <c r="K2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="K2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
         <v>0.9869</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>0.1512</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>0.1512</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>0.1512</v>
       </c>
-      <c r="S2">
-        <v>1.0088</v>
-      </c>
-      <c r="T2">
-        <v>1.0008</v>
-      </c>
-      <c r="U2">
-        <v>2.5552</v>
-      </c>
-      <c r="V2">
-        <v>164.651</v>
+      <c r="S2" s="3">
+        <v>1.0087999999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2.5552000000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <v>164.65100000000001</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>0.9377</v>
-      </c>
-      <c r="C3">
-        <v>1.6459</v>
-      </c>
-      <c r="D3">
-        <v>162.9114</v>
-      </c>
-      <c r="E3">
-        <v>1.9301</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B3" s="3">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.6458999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>162.91139999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.9300999999999999</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H3">
-        <v>0.5834</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="3">
+        <v>0.58340000000000003</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J3">
-        <v>0.2474</v>
-      </c>
-      <c r="K3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.2474</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="J3" s="4">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O3">
-        <v>-0.9714</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="O3" s="4">
+        <v>-0.97140000000000004</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q3">
-        <v>-0.9714</v>
-      </c>
-      <c r="R3">
-        <v>-0.9714</v>
-      </c>
-      <c r="S3">
+      <c r="Q3" s="4">
+        <v>-0.97140000000000004</v>
+      </c>
+      <c r="R3" s="3">
+        <v>-0.97140000000000004</v>
+      </c>
+      <c r="S3" s="3">
         <v>1.008</v>
       </c>
-      <c r="T3">
-        <v>1.0029</v>
-      </c>
-      <c r="U3">
-        <v>2.5836</v>
-      </c>
-      <c r="V3">
+      <c r="T3" s="3">
+        <v>1.0028999999999999</v>
+      </c>
+      <c r="U3" s="3">
+        <v>2.5836000000000001</v>
+      </c>
+      <c r="V3" s="3">
         <v>164.8416</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>0.8781</v>
-      </c>
-      <c r="C4">
-        <v>1.733</v>
-      </c>
-      <c r="D4">
-        <v>163.3111</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="3">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>163.31110000000001</v>
+      </c>
+      <c r="E4" s="3">
         <v>2.0322</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H4">
-        <v>0.6313</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="3">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="S4">
-        <v>1.0051</v>
-      </c>
-      <c r="U4">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3">
+        <v>1.0051000000000001</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
         <v>2.6111</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="3">
         <v>165.3433</v>
       </c>
     </row>
@@ -1098,7 +1189,7 @@
         <v>1.7054</v>
       </c>
       <c r="D5">
-        <v>163.117</v>
+        <v>163.11699999999999</v>
       </c>
       <c r="E5">
         <v>1.7201</v>
@@ -1110,49 +1201,49 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>0.7875</v>
-      </c>
-      <c r="I5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O5">
-        <v>0.9968</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="O5" s="5">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q5">
-        <v>0.9968</v>
+      <c r="Q5" s="5">
+        <v>0.99680000000000002</v>
       </c>
       <c r="R5">
-        <v>0.9968</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="S5">
         <v>1.012</v>
       </c>
       <c r="T5">
-        <v>0.9908</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="U5">
-        <v>4.8488</v>
+        <v>4.8487999999999998</v>
       </c>
       <c r="V5">
-        <v>164.8371</v>
+        <v>164.83709999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1160,16 +1251,16 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>4.5008</v>
+        <v>4.5007999999999999</v>
       </c>
       <c r="C6">
         <v>1.9074</v>
       </c>
       <c r="D6">
-        <v>161.6521</v>
+        <v>161.65209999999999</v>
       </c>
       <c r="E6">
-        <v>1.8232</v>
+        <v>1.8231999999999999</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
@@ -1178,46 +1269,46 @@
         <v>35</v>
       </c>
       <c r="H6">
-        <v>0.9943</v>
-      </c>
-      <c r="I6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="5">
         <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O6">
-        <v>-0.8913</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="O6" s="5">
+        <v>-0.89129999999999998</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q6">
-        <v>-0.8913</v>
+      <c r="Q6" s="5">
+        <v>-0.89129999999999998</v>
       </c>
       <c r="R6">
-        <v>-0.8913</v>
+        <v>-0.89129999999999998</v>
       </c>
       <c r="S6">
-        <v>1.0214</v>
+        <v>1.0214000000000001</v>
       </c>
       <c r="T6">
-        <v>1.0087</v>
+        <v>1.0086999999999999</v>
       </c>
       <c r="U6">
-        <v>6.4082</v>
+        <v>6.4081999999999999</v>
       </c>
       <c r="V6">
         <v>163.4753</v>
@@ -1231,7 +1322,7 @@
         <v>3.6065</v>
       </c>
       <c r="C7">
-        <v>2.1016</v>
+        <v>2.1015999999999999</v>
       </c>
       <c r="D7">
         <v>162.6875</v>
@@ -1246,211 +1337,218 @@
         <v>35</v>
       </c>
       <c r="H7">
-        <v>0.9213</v>
-      </c>
-      <c r="I7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N7" t="s">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="5" t="s">
         <v>152</v>
       </c>
       <c r="S7">
-        <v>1.0126</v>
+        <v>1.0125999999999999</v>
       </c>
       <c r="U7">
         <v>5.7081</v>
       </c>
       <c r="V7">
-        <v>165.0508</v>
+        <v>165.05080000000001</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1.8587</v>
       </c>
-      <c r="C8">
-        <v>1.2123</v>
-      </c>
-      <c r="D8">
-        <v>152.2351</v>
-      </c>
-      <c r="E8">
-        <v>12.1765</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C8" s="3">
+        <v>1.2122999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>152.23509999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12.176500000000001</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.6552</v>
       </c>
-      <c r="I8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L8">
-        <v>0.0425</v>
-      </c>
-      <c r="M8">
-        <v>0.0425</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="L8" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O8">
-        <v>0.9991</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="O8" s="4">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q8">
-        <v>0.9991</v>
-      </c>
-      <c r="R8">
-        <v>0.9991</v>
-      </c>
-      <c r="S8">
-        <v>1.0147</v>
-      </c>
-      <c r="T8">
-        <v>0.9779</v>
-      </c>
-      <c r="U8">
-        <v>3.071</v>
-      </c>
-      <c r="V8">
-        <v>164.4116</v>
+      <c r="Q8" s="4">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1.0146999999999999</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="V8" s="3">
+        <v>164.41159999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2.3653</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1.3187</v>
       </c>
-      <c r="D9">
-        <v>152.3111</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <v>152.31110000000001</v>
+      </c>
+      <c r="E9" s="3">
         <v>10.387</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9">
-        <v>0.9399</v>
-      </c>
-      <c r="I9" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H9" s="3">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L9">
-        <v>-0.9998</v>
-      </c>
-      <c r="M9">
-        <v>-0.9998</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="L9" s="4">
+        <v>-0.99980000000000002</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-0.99980000000000002</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O9">
-        <v>0.9998</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="O9" s="4">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q9">
-        <v>0.9998</v>
-      </c>
-      <c r="R9">
-        <v>0.9998</v>
-      </c>
-      <c r="S9">
-        <v>1.0377</v>
-      </c>
-      <c r="T9">
-        <v>0.9985000000000001</v>
-      </c>
-      <c r="U9">
-        <v>3.684</v>
-      </c>
-      <c r="V9">
-        <v>162.6981</v>
+      <c r="Q9" s="4">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1.0377000000000001</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="U9" s="3">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="V9" s="3">
+        <v>162.69810000000001</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>2.9632</v>
-      </c>
-      <c r="C10">
-        <v>1.1625</v>
-      </c>
-      <c r="D10">
-        <v>152.2976</v>
-      </c>
-      <c r="E10">
-        <v>9.716799999999999</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B10" s="3">
+        <v>2.9632000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.1625000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>152.29759999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9.7167999999999992</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H10">
-        <v>0.9268</v>
-      </c>
-      <c r="I10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" s="3">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N10" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P10" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S10">
-        <v>1.0393</v>
-      </c>
-      <c r="U10">
-        <v>4.1257</v>
-      </c>
-      <c r="V10">
-        <v>162.0144</v>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
+        <v>1.0392999999999999</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3">
+        <v>4.1257000000000001</v>
+      </c>
+      <c r="V10" s="3">
+        <v>162.01439999999999</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1458,16 +1556,16 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>1.0458</v>
+        <v>1.0458000000000001</v>
       </c>
       <c r="C11">
-        <v>0.5862000000000001</v>
+        <v>0.58620000000000005</v>
       </c>
       <c r="D11">
-        <v>163.5217</v>
+        <v>163.52170000000001</v>
       </c>
       <c r="E11">
-        <v>2.0626</v>
+        <v>2.0626000000000002</v>
       </c>
       <c r="F11" t="s">
         <v>106</v>
@@ -1476,49 +1574,49 @@
         <v>98</v>
       </c>
       <c r="H11">
-        <v>0.7262999999999999</v>
-      </c>
-      <c r="I11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="5">
         <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
-        <v>150</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q11">
+      <c r="N11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1.0025</v>
+        <v>1.0024999999999999</v>
       </c>
       <c r="T11">
         <v>1.002</v>
       </c>
       <c r="U11">
-        <v>1.632</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="V11">
-        <v>165.5843</v>
+        <v>165.58430000000001</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1526,16 +1624,16 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>1.3234</v>
+        <v>1.3233999999999999</v>
       </c>
       <c r="C12">
-        <v>0.6516999999999999</v>
+        <v>0.65169999999999995</v>
       </c>
       <c r="D12">
         <v>163.8579</v>
       </c>
       <c r="E12">
-        <v>2.1908</v>
+        <v>2.1907999999999999</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -1544,46 +1642,46 @@
         <v>98</v>
       </c>
       <c r="H12">
-        <v>0.6646</v>
-      </c>
-      <c r="I12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12">
+        <v>0.66459999999999997</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="5">
         <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q12">
+      <c r="N12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q12" s="5">
         <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1.0005</v>
+        <v>1.0004999999999999</v>
       </c>
       <c r="T12">
         <v>1.0003</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="V12">
         <v>166.0487</v>
@@ -1594,10 +1692,10 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>1.1359</v>
+        <v>1.1358999999999999</v>
       </c>
       <c r="C13">
-        <v>0.7786</v>
+        <v>0.77859999999999996</v>
       </c>
       <c r="D13">
         <v>164.1019</v>
@@ -1614,208 +1712,215 @@
       <c r="H13">
         <v>0.63</v>
       </c>
-      <c r="I13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N13" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="I13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>150</v>
       </c>
       <c r="S13">
         <v>1.0003</v>
       </c>
       <c r="U13">
-        <v>1.9145</v>
+        <v>1.9145000000000001</v>
       </c>
       <c r="V13">
-        <v>165.9728</v>
+        <v>165.97280000000001</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
-        <v>4.6575</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>4.6574999999999998</v>
+      </c>
+      <c r="C14" s="3">
         <v>1.2277</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>163.0693</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>1.04</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="I14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O14">
-        <v>-0.9939</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="O14" s="4">
+        <v>-0.99390000000000001</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q14">
-        <v>-0.9939</v>
-      </c>
-      <c r="R14">
-        <v>-0.9939</v>
-      </c>
-      <c r="S14">
-        <v>1.0154</v>
-      </c>
-      <c r="T14">
+      <c r="Q14" s="4">
+        <v>-0.99390000000000001</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-0.99390000000000001</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1.0154000000000001</v>
+      </c>
+      <c r="T14" s="3">
         <v>1.0056</v>
       </c>
-      <c r="U14">
-        <v>5.8852</v>
-      </c>
-      <c r="V14">
-        <v>164.1093</v>
+      <c r="U14" s="3">
+        <v>5.8852000000000002</v>
+      </c>
+      <c r="V14" s="3">
+        <v>164.10929999999999</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>4.7965</v>
       </c>
-      <c r="C15">
-        <v>1.3541</v>
-      </c>
-      <c r="D15">
-        <v>163.9544</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="3">
+        <v>1.3541000000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>163.95439999999999</v>
+      </c>
+      <c r="E15" s="3">
         <v>1.1474</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H15">
-        <v>0.9997</v>
-      </c>
-      <c r="I15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="H15" s="3">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O15">
-        <v>-0.9997</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="O15" s="4">
+        <v>-0.99970000000000003</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q15">
-        <v>-0.9997</v>
-      </c>
-      <c r="R15">
-        <v>-0.9997</v>
-      </c>
-      <c r="S15">
+      <c r="Q15" s="4">
+        <v>-0.99970000000000003</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-0.99970000000000003</v>
+      </c>
+      <c r="S15" s="3">
         <v>1.0097</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="3">
         <v>1.0097</v>
       </c>
-      <c r="U15">
-        <v>6.1506</v>
-      </c>
-      <c r="V15">
-        <v>165.1017</v>
+      <c r="U15" s="3">
+        <v>6.1505999999999998</v>
+      </c>
+      <c r="V15" s="3">
+        <v>165.10169999999999</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
-        <v>3.5586</v>
-      </c>
-      <c r="C16">
-        <v>1.2273</v>
-      </c>
-      <c r="D16">
-        <v>165.5758</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="3">
+        <v>3.5586000000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.2273000000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>165.57579999999999</v>
+      </c>
+      <c r="E16" s="3">
         <v>1.121</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="I16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P16" t="s">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="S16">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
         <v>1</v>
       </c>
-      <c r="U16">
-        <v>4.7858</v>
-      </c>
-      <c r="V16">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3">
+        <v>4.7858000000000001</v>
+      </c>
+      <c r="V16" s="3">
         <v>166.6968</v>
       </c>
     </row>
@@ -1827,10 +1932,10 @@
         <v>32.2151</v>
       </c>
       <c r="C17">
-        <v>19.4109</v>
+        <v>19.410900000000002</v>
       </c>
       <c r="D17">
-        <v>28.8837</v>
+        <v>28.883700000000001</v>
       </c>
       <c r="E17">
         <v>169.2475</v>
@@ -1844,35 +1949,35 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" t="s">
-        <v>150</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="I17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L17">
-        <v>-0.2719</v>
+      <c r="L17" s="5">
+        <v>-0.27189999999999998</v>
       </c>
       <c r="M17">
-        <v>-0.2719</v>
-      </c>
-      <c r="N17" t="s">
+        <v>-0.27189999999999998</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O17">
-        <v>-0.9623</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="O17" s="5">
+        <v>-0.96230000000000004</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="Q17">
-        <v>-0.9623</v>
+      <c r="Q17" s="5">
+        <v>-0.96230000000000004</v>
       </c>
       <c r="R17">
-        <v>-0.9623</v>
+        <v>-0.96230000000000004</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1881,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>51.6261</v>
+        <v>51.626100000000001</v>
       </c>
       <c r="V17">
-        <v>198.1312</v>
+        <v>198.13120000000001</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1892,16 +1997,16 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>32.7878</v>
+        <v>32.787799999999997</v>
       </c>
       <c r="C18">
-        <v>25.434</v>
+        <v>25.434000000000001</v>
       </c>
       <c r="D18">
-        <v>25.1406</v>
+        <v>25.140599999999999</v>
       </c>
       <c r="E18">
-        <v>182.4976</v>
+        <v>182.49760000000001</v>
       </c>
       <c r="F18" t="s">
         <v>111</v>
@@ -1912,35 +2017,35 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18">
+      <c r="I18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="5">
         <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O18">
-        <v>-0.3284</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="O18" s="5">
+        <v>-0.32840000000000003</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="Q18">
-        <v>-0.3284</v>
+      <c r="Q18" s="5">
+        <v>-0.32840000000000003</v>
       </c>
       <c r="R18">
-        <v>-0.3284</v>
+        <v>-0.32840000000000003</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1949,10 +2054,10 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>58.2218</v>
+        <v>58.221800000000002</v>
       </c>
       <c r="V18">
-        <v>207.6382</v>
+        <v>207.63820000000001</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1960,10 +2065,10 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>37.924</v>
+        <v>37.923999999999999</v>
       </c>
       <c r="C19">
-        <v>30.1915</v>
+        <v>30.191500000000001</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1980,23 +2085,23 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" t="s">
-        <v>150</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="I19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="U19">
-        <v>68.1155</v>
+        <v>68.115499999999997</v>
       </c>
       <c r="V19">
         <v>191.2397</v>
@@ -2016,7 +2121,7 @@
         <v>21.0244</v>
       </c>
       <c r="E20">
-        <v>171.8952</v>
+        <v>171.89519999999999</v>
       </c>
       <c r="F20" t="s">
         <v>101</v>
@@ -2027,209 +2132,216 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>150</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="I20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>54.1677</v>
+        <v>54.167700000000004</v>
       </c>
       <c r="V20">
         <v>192.9196</v>
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
-        <v>0.8025</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="3">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.3054</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>162.8236</v>
       </c>
-      <c r="E21">
-        <v>3.1263</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="3">
+        <v>3.1263000000000001</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="I21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L21">
-        <v>-0.9928</v>
-      </c>
-      <c r="M21">
-        <v>-0.9928</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="L21" s="4">
+        <v>-0.99280000000000002</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-0.99280000000000002</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O21">
-        <v>0.9928</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O21" s="4">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q21">
-        <v>0.9928</v>
-      </c>
-      <c r="R21">
-        <v>0.9928</v>
-      </c>
-      <c r="S21">
+      <c r="Q21" s="4">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="S21" s="3">
         <v>1</v>
       </c>
-      <c r="T21">
-        <v>0.9923</v>
-      </c>
-      <c r="U21">
-        <v>1.1079</v>
-      </c>
-      <c r="V21">
-        <v>165.9498</v>
+      <c r="T21" s="3">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1.1079000000000001</v>
+      </c>
+      <c r="V21" s="3">
+        <v>165.94980000000001</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22">
-        <v>0.7662</v>
-      </c>
-      <c r="C22">
-        <v>0.299</v>
-      </c>
-      <c r="D22">
-        <v>162.6599</v>
-      </c>
-      <c r="E22">
-        <v>1.7728</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B22" s="3">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>162.65989999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.7727999999999999</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H22">
-        <v>0.8866000000000001</v>
-      </c>
-      <c r="I22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>150</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
+      <c r="H22" s="3">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>1.0077</v>
       </c>
-      <c r="T22">
-        <v>0.9993</v>
-      </c>
-      <c r="U22">
-        <v>1.0652</v>
-      </c>
-      <c r="V22">
-        <v>164.4327</v>
+      <c r="T22" s="3">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1.0651999999999999</v>
+      </c>
+      <c r="V22" s="3">
+        <v>164.43270000000001</v>
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23">
-        <v>0.7143</v>
-      </c>
-      <c r="C23">
-        <v>0.2921</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="3">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="D23" s="3">
         <v>162.7192</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>1.5447</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>0.8679</v>
       </c>
-      <c r="I23" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" t="s">
-        <v>150</v>
-      </c>
-      <c r="N23" t="s">
-        <v>150</v>
-      </c>
-      <c r="P23" t="s">
-        <v>150</v>
-      </c>
-      <c r="S23">
+      <c r="I23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3">
         <v>1.0084</v>
       </c>
-      <c r="U23">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3">
         <v>1.0064</v>
       </c>
-      <c r="V23">
-        <v>164.2639</v>
+      <c r="V23" s="3">
+        <v>164.26390000000001</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2237,7 +2349,7 @@
         <v>43</v>
       </c>
       <c r="B24">
-        <v>9.5121</v>
+        <v>9.5121000000000002</v>
       </c>
       <c r="C24">
         <v>3.7016</v>
@@ -2246,7 +2358,7 @@
         <v>132.3476</v>
       </c>
       <c r="E24">
-        <v>39.6915</v>
+        <v>39.691499999999998</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2255,37 +2367,37 @@
         <v>45</v>
       </c>
       <c r="H24">
-        <v>0.761</v>
-      </c>
-      <c r="I24" t="s">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J24">
-        <v>-0.4756</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" s="5">
+        <v>-0.47560000000000002</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L24">
-        <v>-0.4756</v>
+      <c r="L24" s="5">
+        <v>-0.47560000000000002</v>
       </c>
       <c r="M24">
-        <v>-0.4756</v>
-      </c>
-      <c r="N24" t="s">
+        <v>-0.47560000000000002</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O24">
-        <v>-0.8796</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="O24" s="5">
+        <v>-0.87960000000000005</v>
+      </c>
+      <c r="P24" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="Q24">
-        <v>-0.8796</v>
+      <c r="Q24" s="5">
+        <v>-0.87960000000000005</v>
       </c>
       <c r="R24">
-        <v>-0.8796</v>
+        <v>-0.87960000000000005</v>
       </c>
       <c r="S24">
         <v>1.0117</v>
@@ -2294,10 +2406,10 @@
         <v>1.0117</v>
       </c>
       <c r="U24">
-        <v>13.2137</v>
+        <v>13.213699999999999</v>
       </c>
       <c r="V24">
-        <v>172.0391</v>
+        <v>172.03909999999999</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2308,13 +2420,13 @@
         <v>13.5952</v>
       </c>
       <c r="C25">
-        <v>3.9021</v>
+        <v>3.9020999999999999</v>
       </c>
       <c r="D25">
         <v>127.9063</v>
       </c>
       <c r="E25">
-        <v>47.9049</v>
+        <v>47.904899999999998</v>
       </c>
       <c r="F25" t="s">
         <v>115</v>
@@ -2325,35 +2437,35 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="I25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="5">
         <v>0.8014</v>
       </c>
       <c r="M25">
         <v>0.8014</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O25">
-        <v>0.5982</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="O25" s="5">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="P25" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="Q25">
-        <v>0.5982</v>
+      <c r="Q25" s="5">
+        <v>0.59819999999999995</v>
       </c>
       <c r="R25">
-        <v>0.5982</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2362,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>17.4973</v>
+        <v>17.497299999999999</v>
       </c>
       <c r="V25">
-        <v>175.8112</v>
+        <v>175.81120000000001</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2376,13 +2488,13 @@
         <v>11.731</v>
       </c>
       <c r="C26">
-        <v>4.3143</v>
+        <v>4.3143000000000002</v>
       </c>
       <c r="D26">
-        <v>128.1692</v>
+        <v>128.16919999999999</v>
       </c>
       <c r="E26">
-        <v>47.7086</v>
+        <v>47.708599999999997</v>
       </c>
       <c r="F26" t="s">
         <v>101</v>
@@ -2393,209 +2505,216 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="U26">
-        <v>16.0453</v>
+        <v>16.045300000000001</v>
       </c>
       <c r="V26">
-        <v>175.8779</v>
+        <v>175.87790000000001</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
-        <v>0.8552999999999999</v>
-      </c>
-      <c r="C27">
-        <v>0.5303</v>
-      </c>
-      <c r="D27">
-        <v>164.5927</v>
-      </c>
-      <c r="E27">
-        <v>0.7698</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="B27" s="3">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="D27" s="3">
+        <v>164.59270000000001</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>0.6905</v>
       </c>
-      <c r="I27" t="s">
-        <v>150</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>150</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>150</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>1.0008</v>
-      </c>
-      <c r="T27">
+      <c r="I27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="T27" s="3">
         <v>1.0003</v>
       </c>
-      <c r="U27">
-        <v>1.3856</v>
-      </c>
-      <c r="V27">
-        <v>165.3625</v>
+      <c r="U27" s="3">
+        <v>1.3855999999999999</v>
+      </c>
+      <c r="V27" s="3">
+        <v>165.36250000000001</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28">
-        <v>0.8229</v>
-      </c>
-      <c r="C28">
-        <v>0.7768</v>
-      </c>
-      <c r="D28">
-        <v>164.681</v>
-      </c>
-      <c r="E28">
-        <v>0.7968</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B28" s="3">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="D28" s="3">
+        <v>164.68100000000001</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H28">
-        <v>0.6118</v>
-      </c>
-      <c r="I28" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>150</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>150</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>1.0005</v>
-      </c>
-      <c r="T28">
-        <v>0.9984</v>
-      </c>
-      <c r="U28">
-        <v>1.5997</v>
-      </c>
-      <c r="V28">
+      <c r="H28" s="3">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1.0004999999999999</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1.5996999999999999</v>
+      </c>
+      <c r="V28" s="3">
         <v>165.4778</v>
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B29">
-        <v>1.0188</v>
-      </c>
-      <c r="C29">
-        <v>0.8383</v>
-      </c>
-      <c r="D29">
-        <v>164.4793</v>
-      </c>
-      <c r="E29">
+      <c r="B29" s="3">
+        <v>1.0187999999999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="D29" s="3">
+        <v>164.47929999999999</v>
+      </c>
+      <c r="E29" s="3">
         <v>0.7722</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H29">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="I29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" t="s">
-        <v>150</v>
-      </c>
-      <c r="N29" t="s">
-        <v>150</v>
-      </c>
-      <c r="P29" t="s">
-        <v>150</v>
-      </c>
-      <c r="S29">
+      <c r="H29" s="3">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3">
         <v>1.0021</v>
       </c>
-      <c r="U29">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3">
         <v>1.8571</v>
       </c>
-      <c r="V29">
-        <v>165.2514</v>
+      <c r="V29" s="3">
+        <v>165.25139999999999</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2606,13 +2725,13 @@
         <v>0.4869</v>
       </c>
       <c r="C30">
-        <v>2.9832</v>
+        <v>2.9832000000000001</v>
       </c>
       <c r="D30">
-        <v>144.7306</v>
+        <v>144.73060000000001</v>
       </c>
       <c r="E30">
-        <v>20.2214</v>
+        <v>20.221399999999999</v>
       </c>
       <c r="F30" t="s">
         <v>118</v>
@@ -2623,35 +2742,35 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J30">
-        <v>0.7694</v>
-      </c>
-      <c r="K30" t="s">
-        <v>150</v>
-      </c>
-      <c r="L30">
+      <c r="J30" s="5">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L30" s="5">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.7694</v>
-      </c>
-      <c r="N30" t="s">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O30">
-        <v>0.6387</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O30" s="5">
+        <v>0.63870000000000005</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="Q30">
-        <v>0.6387</v>
+      <c r="Q30" s="5">
+        <v>0.63870000000000005</v>
       </c>
       <c r="R30">
-        <v>0.6387</v>
+        <v>0.63870000000000005</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -2674,13 +2793,13 @@
         <v>0.376</v>
       </c>
       <c r="C31">
-        <v>3.2334</v>
+        <v>3.2334000000000001</v>
       </c>
       <c r="D31">
         <v>146.1825</v>
       </c>
       <c r="E31">
-        <v>19.0161</v>
+        <v>19.016100000000002</v>
       </c>
       <c r="F31" t="s">
         <v>119</v>
@@ -2691,35 +2810,35 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J31">
-        <v>0.0358</v>
-      </c>
-      <c r="K31" t="s">
-        <v>150</v>
-      </c>
-      <c r="L31">
+      <c r="J31" s="5">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" s="5">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0358</v>
-      </c>
-      <c r="N31" t="s">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="O31">
-        <v>-0.9994</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="O31" s="5">
+        <v>-0.99939999999999996</v>
+      </c>
+      <c r="P31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="Q31">
-        <v>-0.9994</v>
+      <c r="Q31" s="5">
+        <v>-0.99939999999999996</v>
       </c>
       <c r="R31">
-        <v>-0.9994</v>
+        <v>-0.99939999999999996</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2728,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>3.6094</v>
+        <v>3.6093999999999999</v>
       </c>
       <c r="V31">
         <v>165.1986</v>
@@ -2739,16 +2858,16 @@
         <v>51</v>
       </c>
       <c r="B32">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C32">
-        <v>3.0942</v>
+        <v>3.0941999999999998</v>
       </c>
       <c r="D32">
         <v>146.1926</v>
       </c>
       <c r="E32">
-        <v>19.299</v>
+        <v>19.298999999999999</v>
       </c>
       <c r="F32" t="s">
         <v>101</v>
@@ -2759,209 +2878,216 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S32">
         <v>1</v>
       </c>
       <c r="U32">
-        <v>3.6222</v>
+        <v>3.6221999999999999</v>
       </c>
       <c r="V32">
-        <v>165.4916</v>
+        <v>165.49160000000001</v>
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B33">
-        <v>1.1581</v>
-      </c>
-      <c r="C33">
-        <v>2.4321</v>
-      </c>
-      <c r="D33">
-        <v>164.7866</v>
-      </c>
-      <c r="E33">
-        <v>0.9348</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B33" s="3">
+        <v>1.1580999999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2.4321000000000002</v>
+      </c>
+      <c r="D33" s="3">
+        <v>164.78659999999999</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H33">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" s="3">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J33">
-        <v>0.1122</v>
-      </c>
-      <c r="K33" t="s">
-        <v>150</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0.1122</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="J33" s="4">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O33">
-        <v>-0.9948</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="O33" s="4">
+        <v>-0.99480000000000002</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q33">
-        <v>-0.9948</v>
-      </c>
-      <c r="R33">
-        <v>-0.9948</v>
-      </c>
-      <c r="S33">
+      <c r="Q33" s="4">
+        <v>-0.99480000000000002</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-0.99480000000000002</v>
+      </c>
+      <c r="S33" s="3">
         <v>1.0022</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="3">
         <v>1.0022</v>
       </c>
-      <c r="U33">
-        <v>3.5901</v>
-      </c>
-      <c r="V33">
-        <v>165.7214</v>
+      <c r="U33" s="3">
+        <v>3.5901000000000001</v>
+      </c>
+      <c r="V33" s="3">
+        <v>165.72139999999999</v>
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B34">
-        <v>1.0129</v>
-      </c>
-      <c r="C34">
-        <v>2.4757</v>
-      </c>
-      <c r="D34">
-        <v>165.1243</v>
-      </c>
-      <c r="E34">
-        <v>0.973</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="B34" s="3">
+        <v>1.0128999999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.4756999999999998</v>
+      </c>
+      <c r="D34" s="3">
+        <v>165.12430000000001</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>1</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J34">
-        <v>0.08260000000000001</v>
-      </c>
-      <c r="K34" t="s">
-        <v>150</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0.08260000000000001</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="J34" s="4">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O34">
-        <v>0.9957</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="O34" s="4">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="P34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q34">
-        <v>0.9957</v>
-      </c>
-      <c r="R34">
-        <v>0.9957</v>
-      </c>
-      <c r="S34">
+      <c r="Q34" s="4">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="S34" s="3">
         <v>1</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="3">
         <v>0.998</v>
       </c>
-      <c r="U34">
-        <v>3.4886</v>
-      </c>
-      <c r="V34">
-        <v>166.0972</v>
+      <c r="U34" s="3">
+        <v>3.4885999999999999</v>
+      </c>
+      <c r="V34" s="3">
+        <v>166.09719999999999</v>
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B35">
-        <v>0.908</v>
-      </c>
-      <c r="C35">
-        <v>2.4441</v>
-      </c>
-      <c r="D35">
-        <v>164.6768</v>
-      </c>
-      <c r="E35">
+      <c r="B35" s="3">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2.4441000000000002</v>
+      </c>
+      <c r="D35" s="3">
+        <v>164.67679999999999</v>
+      </c>
+      <c r="E35" s="3">
         <v>1.0101</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H35">
-        <v>0.8837</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" s="3">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K35" t="s">
-        <v>150</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P35" t="s">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="S35">
+      <c r="Q35" s="4"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3">
         <v>1.002</v>
       </c>
-      <c r="U35">
-        <v>3.3521</v>
-      </c>
-      <c r="V35">
-        <v>165.6869</v>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3">
+        <v>3.3521000000000001</v>
+      </c>
+      <c r="V35" s="3">
+        <v>165.68690000000001</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2972,10 +3098,10 @@
         <v>10.8484</v>
       </c>
       <c r="C36">
-        <v>2.3518</v>
+        <v>2.3517999999999999</v>
       </c>
       <c r="D36">
-        <v>153.9283</v>
+        <v>153.92830000000001</v>
       </c>
       <c r="E36">
         <v>12.6541</v>
@@ -2987,49 +3113,49 @@
         <v>35</v>
       </c>
       <c r="H36">
-        <v>0.6135</v>
-      </c>
-      <c r="I36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>150</v>
-      </c>
-      <c r="L36">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L36" s="5">
         <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O36">
-        <v>0.6183999999999999</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="O36" s="5">
+        <v>0.61839999999999995</v>
+      </c>
+      <c r="P36" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q36">
-        <v>0.6183999999999999</v>
+      <c r="Q36" s="5">
+        <v>0.61839999999999995</v>
       </c>
       <c r="R36">
-        <v>0.6183999999999999</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="S36">
         <v>1.0242</v>
       </c>
       <c r="T36">
-        <v>0.9987</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="U36">
-        <v>13.2001</v>
+        <v>13.200100000000001</v>
       </c>
       <c r="V36">
-        <v>166.5824</v>
+        <v>166.58240000000001</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3040,10 +3166,10 @@
         <v>10.632</v>
       </c>
       <c r="C37">
-        <v>2.4684</v>
+        <v>2.4683999999999999</v>
       </c>
       <c r="D37">
-        <v>150.8721</v>
+        <v>150.87209999999999</v>
       </c>
       <c r="E37">
         <v>16.4587</v>
@@ -3055,211 +3181,218 @@
         <v>98</v>
       </c>
       <c r="H37">
-        <v>0.6158</v>
-      </c>
-      <c r="I37" t="s">
-        <v>150</v>
-      </c>
-      <c r="K37" t="s">
-        <v>150</v>
-      </c>
-      <c r="N37" t="s">
-        <v>150</v>
-      </c>
-      <c r="P37" t="s">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P37" s="5" t="s">
         <v>150</v>
       </c>
       <c r="S37">
-        <v>1.0255</v>
+        <v>1.0255000000000001</v>
       </c>
       <c r="U37">
         <v>13.1005</v>
       </c>
       <c r="V37">
-        <v>167.3307</v>
+        <v>167.33070000000001</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B38">
-        <v>3.6965</v>
-      </c>
-      <c r="C38">
-        <v>1.8316</v>
-      </c>
-      <c r="D38">
-        <v>155.5995</v>
-      </c>
-      <c r="E38">
+      <c r="B38" s="3">
+        <v>3.6964999999999999</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.8315999999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>155.59950000000001</v>
+      </c>
+      <c r="E38" s="3">
         <v>13.583</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H38">
-        <v>0.8263</v>
-      </c>
-      <c r="I38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>150</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>150</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>1.0055</v>
-      </c>
-      <c r="T38">
-        <v>0.9968</v>
-      </c>
-      <c r="U38">
-        <v>5.5281</v>
-      </c>
-      <c r="V38">
+      <c r="H38" s="3">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
+        <v>1.0055000000000001</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="U38" s="3">
+        <v>5.5281000000000002</v>
+      </c>
+      <c r="V38" s="3">
         <v>169.1825</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B39">
-        <v>4.8191</v>
-      </c>
-      <c r="C39">
-        <v>1.8013</v>
-      </c>
-      <c r="D39">
-        <v>154.5978</v>
-      </c>
-      <c r="E39">
-        <v>14.107</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="B39" s="3">
+        <v>4.8190999999999997</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.8012999999999999</v>
+      </c>
+      <c r="D39" s="3">
+        <v>154.59780000000001</v>
+      </c>
+      <c r="E39" s="3">
+        <v>14.106999999999999</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>0.4844</v>
       </c>
-      <c r="I39" t="s">
-        <v>150</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>150</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1.0088</v>
-      </c>
-      <c r="T39">
+      <c r="I39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
+        <v>1.0087999999999999</v>
+      </c>
+      <c r="T39" s="3">
         <v>0.9798</v>
       </c>
-      <c r="U39">
-        <v>6.6204</v>
-      </c>
-      <c r="V39">
-        <v>168.7048</v>
+      <c r="U39" s="3">
+        <v>6.6204000000000001</v>
+      </c>
+      <c r="V39" s="3">
+        <v>168.70480000000001</v>
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B40">
-        <v>7.2412</v>
-      </c>
-      <c r="C40">
-        <v>2.1237</v>
-      </c>
-      <c r="D40">
-        <v>152.4816</v>
-      </c>
-      <c r="E40">
-        <v>13.0582</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="B40" s="3">
+        <v>7.2412000000000001</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2.1236999999999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>152.48159999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>13.058199999999999</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H40">
-        <v>0.5468</v>
-      </c>
-      <c r="I40" t="s">
-        <v>150</v>
-      </c>
-      <c r="K40" t="s">
-        <v>150</v>
-      </c>
-      <c r="N40" t="s">
-        <v>150</v>
-      </c>
-      <c r="P40" t="s">
-        <v>150</v>
-      </c>
-      <c r="S40">
-        <v>1.0296</v>
-      </c>
-      <c r="U40">
-        <v>9.3649</v>
-      </c>
-      <c r="V40">
-        <v>165.5399</v>
+      <c r="H40" s="3">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3">
+        <v>1.0296000000000001</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3">
+        <v>9.3649000000000004</v>
+      </c>
+      <c r="V40" s="3">
+        <v>165.53989999999999</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3270,13 +3403,13 @@
         <v>0.6139</v>
       </c>
       <c r="C41">
-        <v>0.4225</v>
+        <v>0.42249999999999999</v>
       </c>
       <c r="D41">
         <v>164.1284</v>
       </c>
       <c r="E41">
-        <v>1.058</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="F41" t="s">
         <v>125</v>
@@ -3285,33 +3418,33 @@
         <v>98</v>
       </c>
       <c r="H41">
-        <v>0.7845</v>
-      </c>
-      <c r="I41" t="s">
-        <v>150</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>150</v>
-      </c>
-      <c r="L41">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L41" s="5">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" t="s">
-        <v>150</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q41">
+      <c r="N41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q41" s="5">
         <v>0</v>
       </c>
       <c r="R41">
@@ -3321,13 +3454,13 @@
         <v>1.0021</v>
       </c>
       <c r="T41">
-        <v>0.9995000000000001</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="U41">
         <v>1.0364</v>
       </c>
       <c r="V41">
-        <v>165.1864</v>
+        <v>165.18639999999999</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3335,16 +3468,16 @@
         <v>61</v>
       </c>
       <c r="B42">
-        <v>0.6798999999999999</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="C42">
-        <v>0.518</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D42">
-        <v>164.1483</v>
+        <v>164.14830000000001</v>
       </c>
       <c r="E42">
-        <v>0.9638</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="F42" t="s">
         <v>126</v>
@@ -3353,43 +3486,43 @@
         <v>98</v>
       </c>
       <c r="H42">
-        <v>0.7332</v>
-      </c>
-      <c r="I42" t="s">
-        <v>150</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>150</v>
-      </c>
-      <c r="L42">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L42" s="5">
         <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" t="s">
-        <v>150</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q42">
+      <c r="N42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q42" s="5">
         <v>0</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>1.0027</v>
+        <v>1.0026999999999999</v>
       </c>
       <c r="T42">
-        <v>0.9998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="U42">
         <v>1.1979</v>
@@ -3403,16 +3536,16 @@
         <v>62</v>
       </c>
       <c r="B43">
-        <v>0.5759</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="C43">
         <v>0.54</v>
       </c>
       <c r="D43">
-        <v>164.0577</v>
+        <v>164.05770000000001</v>
       </c>
       <c r="E43">
-        <v>0.9935</v>
+        <v>0.99350000000000005</v>
       </c>
       <c r="F43" t="s">
         <v>101</v>
@@ -3421,211 +3554,218 @@
         <v>98</v>
       </c>
       <c r="H43">
-        <v>0.7459</v>
-      </c>
-      <c r="I43" t="s">
-        <v>150</v>
-      </c>
-      <c r="K43" t="s">
-        <v>150</v>
-      </c>
-      <c r="N43" t="s">
-        <v>150</v>
-      </c>
-      <c r="P43" t="s">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P43" s="5" t="s">
         <v>150</v>
       </c>
       <c r="S43">
-        <v>1.0029</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="U43">
-        <v>1.1159</v>
+        <v>1.1158999999999999</v>
       </c>
       <c r="V43">
-        <v>165.0512</v>
+        <v>165.05119999999999</v>
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B44">
-        <v>23.2295</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="3">
+        <v>23.229500000000002</v>
+      </c>
+      <c r="C44" s="3">
         <v>14.5695</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>95.7791</v>
       </c>
-      <c r="E44">
-        <v>110.4972</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="3">
+        <v>110.49720000000001</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H44">
-        <v>0.8454</v>
-      </c>
-      <c r="I44" t="s">
-        <v>150</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>150</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="H44" s="3">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O44">
-        <v>-0.8509</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="O44" s="4">
+        <v>-0.85089999999999999</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q44">
-        <v>-0.8509</v>
-      </c>
-      <c r="R44">
-        <v>-0.8509</v>
-      </c>
-      <c r="S44">
-        <v>1.001</v>
-      </c>
-      <c r="T44">
-        <v>1.001</v>
-      </c>
-      <c r="U44">
-        <v>37.799</v>
-      </c>
-      <c r="V44">
-        <v>206.2763</v>
+      <c r="Q44" s="4">
+        <v>-0.85089999999999999</v>
+      </c>
+      <c r="R44" s="3">
+        <v>-0.85089999999999999</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="U44" s="3">
+        <v>37.798999999999999</v>
+      </c>
+      <c r="V44" s="3">
+        <v>206.27629999999999</v>
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B45">
-        <v>26.0957</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="3">
+        <v>26.095700000000001</v>
+      </c>
+      <c r="C45" s="3">
         <v>17.2027</v>
       </c>
-      <c r="D45">
-        <v>83.31910000000001</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="3">
+        <v>83.319100000000006</v>
+      </c>
+      <c r="E45" s="3">
         <v>130.68</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
-        <v>150</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>150</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="I45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O45">
-        <v>0.3974</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="O45" s="4">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="P45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q45">
-        <v>0.3974</v>
-      </c>
-      <c r="R45">
-        <v>0.3974</v>
-      </c>
-      <c r="S45">
+      <c r="Q45" s="4">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="S45" s="3">
         <v>1</v>
       </c>
-      <c r="T45">
-        <v>0.9101</v>
-      </c>
-      <c r="U45">
-        <v>43.2985</v>
-      </c>
-      <c r="V45">
+      <c r="T45" s="3">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="U45" s="3">
+        <v>43.298499999999997</v>
+      </c>
+      <c r="V45" s="3">
         <v>213.9991</v>
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B46">
-        <v>33.4746</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="3">
+        <v>33.474600000000002</v>
+      </c>
+      <c r="C46" s="3">
         <v>18.6934</v>
       </c>
-      <c r="D46">
-        <v>69.40430000000001</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="3">
+        <v>69.404300000000006</v>
+      </c>
+      <c r="E46" s="3">
         <v>124.6546</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H46">
-        <v>0.8787</v>
-      </c>
-      <c r="I46" t="s">
-        <v>150</v>
-      </c>
-      <c r="K46" t="s">
-        <v>150</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="H46" s="3">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P46" t="s">
+      <c r="O46" s="4"/>
+      <c r="P46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S46">
+      <c r="Q46" s="4"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3">
         <v>1.0988</v>
       </c>
-      <c r="U46">
-        <v>52.168</v>
-      </c>
-      <c r="V46">
-        <v>194.0589</v>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3">
+        <v>52.167999999999999</v>
+      </c>
+      <c r="V46" s="3">
+        <v>194.05889999999999</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3633,16 +3773,16 @@
         <v>66</v>
       </c>
       <c r="B47">
-        <v>0.8932</v>
+        <v>0.89319999999999999</v>
       </c>
       <c r="C47">
-        <v>0.4524</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="D47">
-        <v>159.5541</v>
+        <v>159.55410000000001</v>
       </c>
       <c r="E47">
-        <v>2.2202</v>
+        <v>2.2202000000000002</v>
       </c>
       <c r="F47" t="s">
         <v>101</v>
@@ -3651,210 +3791,217 @@
         <v>98</v>
       </c>
       <c r="H47">
-        <v>0.8143</v>
-      </c>
-      <c r="I47" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47" t="s">
-        <v>150</v>
-      </c>
-      <c r="N47" t="s">
-        <v>150</v>
-      </c>
-      <c r="P47" t="s">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P47" s="5" t="s">
         <v>150</v>
       </c>
       <c r="S47">
         <v>1.026</v>
       </c>
       <c r="U47">
-        <v>1.3456</v>
+        <v>1.3455999999999999</v>
       </c>
       <c r="V47">
-        <v>161.7743</v>
+        <v>161.77430000000001</v>
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B48">
-        <v>0.7963</v>
-      </c>
-      <c r="C48">
-        <v>0.6142</v>
-      </c>
-      <c r="D48">
-        <v>156.3316</v>
-      </c>
-      <c r="E48">
-        <v>7.8591</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="B48" s="3">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="D48" s="3">
+        <v>156.33160000000001</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7.8590999999999998</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H48">
-        <v>0.7825</v>
-      </c>
-      <c r="I48" t="s">
-        <v>150</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="H48" s="3">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L48">
-        <v>-0.5573</v>
-      </c>
-      <c r="M48">
-        <v>-0.5573</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="L48" s="4">
+        <v>-0.55730000000000002</v>
+      </c>
+      <c r="M48" s="3">
+        <v>-0.55730000000000002</v>
+      </c>
+      <c r="N48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O48">
-        <v>-0.8303</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="O48" s="4">
+        <v>-0.83030000000000004</v>
+      </c>
+      <c r="P48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q48">
-        <v>-0.8303</v>
-      </c>
-      <c r="R48">
-        <v>-0.8303</v>
-      </c>
-      <c r="S48">
+      <c r="Q48" s="4">
+        <v>-0.83030000000000004</v>
+      </c>
+      <c r="R48" s="3">
+        <v>-0.83030000000000004</v>
+      </c>
+      <c r="S48" s="3">
         <v>1.004</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="3">
         <v>1.004</v>
       </c>
-      <c r="U48">
-        <v>1.4105</v>
-      </c>
-      <c r="V48">
-        <v>164.1907</v>
+      <c r="U48" s="3">
+        <v>1.4105000000000001</v>
+      </c>
+      <c r="V48" s="3">
+        <v>164.19069999999999</v>
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B49">
-        <v>0.6962</v>
-      </c>
-      <c r="C49">
-        <v>0.6355</v>
-      </c>
-      <c r="D49">
-        <v>155.8884</v>
-      </c>
-      <c r="E49">
-        <v>8.519299999999999</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="B49" s="3">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="D49" s="3">
+        <v>155.88839999999999</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8.5192999999999994</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>1</v>
       </c>
-      <c r="I49" t="s">
-        <v>150</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="I49" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L49">
-        <v>-0.8366</v>
-      </c>
-      <c r="M49">
-        <v>-0.8366</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="L49" s="4">
+        <v>-0.83660000000000001</v>
+      </c>
+      <c r="M49" s="3">
+        <v>-0.83660000000000001</v>
+      </c>
+      <c r="N49" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O49">
-        <v>-0.5478</v>
-      </c>
-      <c r="P49" t="s">
+      <c r="O49" s="4">
+        <v>-0.54779999999999995</v>
+      </c>
+      <c r="P49" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q49">
-        <v>-0.5478</v>
-      </c>
-      <c r="R49">
-        <v>-0.5478</v>
-      </c>
-      <c r="S49">
+      <c r="Q49" s="4">
+        <v>-0.54779999999999995</v>
+      </c>
+      <c r="R49" s="3">
+        <v>-0.54779999999999995</v>
+      </c>
+      <c r="S49" s="3">
         <v>1</v>
       </c>
-      <c r="T49">
-        <v>0.9944</v>
-      </c>
-      <c r="U49">
-        <v>1.3316</v>
-      </c>
-      <c r="V49">
-        <v>164.4077</v>
+      <c r="T49" s="3">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1.3315999999999999</v>
+      </c>
+      <c r="V49" s="3">
+        <v>164.40770000000001</v>
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>0.8196</v>
       </c>
-      <c r="C50">
-        <v>0.8336</v>
-      </c>
-      <c r="D50">
-        <v>155.213</v>
-      </c>
-      <c r="E50">
-        <v>8.961600000000001</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="C50" s="3">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="D50" s="3">
+        <v>155.21299999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>8.9616000000000007</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>0.7419</v>
       </c>
-      <c r="I50" t="s">
-        <v>150</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="I50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N50" t="s">
+      <c r="L50" s="4"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P50" t="s">
+      <c r="O50" s="4"/>
+      <c r="P50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S50">
+      <c r="Q50" s="4"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3">
         <v>1.0057</v>
       </c>
-      <c r="U50">
+      <c r="T50" s="3"/>
+      <c r="U50" s="3">
         <v>1.6532</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="3">
         <v>164.1746</v>
       </c>
     </row>
@@ -3866,13 +4013,13 @@
         <v>11.0647</v>
       </c>
       <c r="C51">
-        <v>4.9409</v>
+        <v>4.9409000000000001</v>
       </c>
       <c r="D51">
         <v>142.5804</v>
       </c>
       <c r="E51">
-        <v>25.0081</v>
+        <v>25.008099999999999</v>
       </c>
       <c r="F51" t="s">
         <v>131</v>
@@ -3881,49 +4028,49 @@
         <v>35</v>
       </c>
       <c r="H51">
-        <v>0.8061</v>
-      </c>
-      <c r="I51" t="s">
-        <v>150</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="s">
-        <v>150</v>
-      </c>
-      <c r="L51">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L51" s="5">
         <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O51">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="P51" t="s">
+      <c r="O51" s="5">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="P51" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q51">
-        <v>0.5659999999999999</v>
+      <c r="Q51" s="5">
+        <v>0.56599999999999995</v>
       </c>
       <c r="R51">
-        <v>0.5659999999999999</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="S51">
-        <v>1.0494</v>
+        <v>1.0494000000000001</v>
       </c>
       <c r="T51">
-        <v>0.9984</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="U51">
-        <v>16.0056</v>
+        <v>16.005600000000001</v>
       </c>
       <c r="V51">
-        <v>167.5885</v>
+        <v>167.58850000000001</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3931,16 +4078,16 @@
         <v>71</v>
       </c>
       <c r="B52">
-        <v>11.2122</v>
+        <v>11.212199999999999</v>
       </c>
       <c r="C52">
-        <v>5.5998</v>
+        <v>5.5998000000000001</v>
       </c>
       <c r="D52">
-        <v>139.8606</v>
+        <v>139.86060000000001</v>
       </c>
       <c r="E52">
-        <v>28.8853</v>
+        <v>28.885300000000001</v>
       </c>
       <c r="F52" t="s">
         <v>132</v>
@@ -3949,49 +4096,49 @@
         <v>35</v>
       </c>
       <c r="H52">
-        <v>0.7743</v>
-      </c>
-      <c r="I52" t="s">
-        <v>150</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>150</v>
-      </c>
-      <c r="L52">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L52" s="5">
         <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O52">
-        <v>0.768</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="O52" s="5">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="P52" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q52">
-        <v>0.768</v>
+      <c r="Q52" s="5">
+        <v>0.76800000000000002</v>
       </c>
       <c r="R52">
-        <v>0.768</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="S52">
-        <v>1.0511</v>
+        <v>1.0510999999999999</v>
       </c>
       <c r="T52">
-        <v>0.9911</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="U52">
-        <v>16.812</v>
+        <v>16.812000000000001</v>
       </c>
       <c r="V52">
-        <v>168.7459</v>
+        <v>168.74590000000001</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -3999,16 +4146,16 @@
         <v>72</v>
       </c>
       <c r="B53">
-        <v>11.9187</v>
+        <v>11.918699999999999</v>
       </c>
       <c r="C53">
         <v>5.9493</v>
       </c>
       <c r="D53">
-        <v>136.9456</v>
+        <v>136.94560000000001</v>
       </c>
       <c r="E53">
-        <v>31.2665</v>
+        <v>31.266500000000001</v>
       </c>
       <c r="F53" t="s">
         <v>101</v>
@@ -4017,211 +4164,218 @@
         <v>35</v>
       </c>
       <c r="H53">
-        <v>0.7527</v>
-      </c>
-      <c r="I53" t="s">
-        <v>150</v>
-      </c>
-      <c r="K53" t="s">
-        <v>150</v>
-      </c>
-      <c r="N53" t="s">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N53" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="5" t="s">
         <v>152</v>
       </c>
       <c r="S53">
         <v>1.0605</v>
       </c>
       <c r="U53">
-        <v>17.8681</v>
+        <v>17.868099999999998</v>
       </c>
       <c r="V53">
-        <v>168.212</v>
+        <v>168.21199999999999</v>
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B54">
-        <v>18.2308</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="3">
+        <v>18.230799999999999</v>
+      </c>
+      <c r="C54" s="3">
         <v>20.2684</v>
       </c>
-      <c r="D54">
-        <v>70.11360000000001</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="3">
+        <v>70.113600000000005</v>
+      </c>
+      <c r="E54" s="3">
         <v>118.0595</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H54">
-        <v>0.579</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="H54" s="3">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J54">
-        <v>-0.6178</v>
-      </c>
-      <c r="K54" t="s">
-        <v>150</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>-0.6178</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="J54" s="4">
+        <v>-0.61780000000000002</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>-0.61780000000000002</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O54">
-        <v>-0.7864</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="O54" s="4">
+        <v>-0.78639999999999999</v>
+      </c>
+      <c r="P54" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q54">
-        <v>-0.7864</v>
-      </c>
-      <c r="R54">
-        <v>-0.7864</v>
-      </c>
-      <c r="S54">
+      <c r="Q54" s="4">
+        <v>-0.78639999999999999</v>
+      </c>
+      <c r="R54" s="3">
+        <v>-0.78639999999999999</v>
+      </c>
+      <c r="S54" s="3">
         <v>1.0243</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="3">
         <v>1.0157</v>
       </c>
-      <c r="U54">
-        <v>38.4992</v>
-      </c>
-      <c r="V54">
-        <v>188.1732</v>
+      <c r="U54" s="3">
+        <v>38.499200000000002</v>
+      </c>
+      <c r="V54" s="3">
+        <v>188.17320000000001</v>
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B55">
-        <v>19.5266</v>
-      </c>
-      <c r="C55">
-        <v>21.589</v>
-      </c>
-      <c r="D55">
-        <v>59.2159</v>
-      </c>
-      <c r="E55">
-        <v>131.9317</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="B55" s="3">
+        <v>19.526599999999998</v>
+      </c>
+      <c r="C55" s="3">
+        <v>21.588999999999999</v>
+      </c>
+      <c r="D55" s="3">
+        <v>59.215899999999998</v>
+      </c>
+      <c r="E55" s="3">
+        <v>131.93170000000001</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H55">
-        <v>0.7223000000000001</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H55" s="3">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>-0.6482</v>
       </c>
-      <c r="K55" t="s">
-        <v>150</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
+      <c r="K55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
         <v>-0.6482</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O55">
-        <v>-0.7615</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="O55" s="4">
+        <v>-0.76149999999999995</v>
+      </c>
+      <c r="P55" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q55">
-        <v>-0.7615</v>
-      </c>
-      <c r="R55">
-        <v>-0.7615</v>
-      </c>
-      <c r="S55">
+      <c r="Q55" s="4">
+        <v>-0.76149999999999995</v>
+      </c>
+      <c r="R55" s="3">
+        <v>-0.76149999999999995</v>
+      </c>
+      <c r="S55" s="3">
         <v>1.0084</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="3">
         <v>1.0084</v>
       </c>
-      <c r="U55">
-        <v>41.1157</v>
-      </c>
-      <c r="V55">
-        <v>191.1476</v>
+      <c r="U55" s="3">
+        <v>41.115699999999997</v>
+      </c>
+      <c r="V55" s="3">
+        <v>191.14760000000001</v>
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B56">
-        <v>21.4368</v>
-      </c>
-      <c r="C56">
-        <v>25.7872</v>
-      </c>
-      <c r="D56">
-        <v>41.6398</v>
-      </c>
-      <c r="E56">
-        <v>152.5808</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="B56" s="3">
+        <v>21.436800000000002</v>
+      </c>
+      <c r="C56" s="3">
+        <v>25.787199999999999</v>
+      </c>
+      <c r="D56" s="3">
+        <v>41.639800000000001</v>
+      </c>
+      <c r="E56" s="3">
+        <v>152.58080000000001</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K56" t="s">
-        <v>150</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P56" t="s">
+      <c r="O56" s="4"/>
+      <c r="P56" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S56">
+      <c r="Q56" s="4"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3">
         <v>1</v>
       </c>
-      <c r="U56">
-        <v>47.224</v>
-      </c>
-      <c r="V56">
-        <v>194.2207</v>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3">
+        <v>47.223999999999997</v>
+      </c>
+      <c r="V56" s="3">
+        <v>194.22069999999999</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4229,16 +4383,16 @@
         <v>76</v>
       </c>
       <c r="B57">
-        <v>1.8172</v>
+        <v>1.8171999999999999</v>
       </c>
       <c r="C57">
-        <v>2.1184</v>
+        <v>2.1183999999999998</v>
       </c>
       <c r="D57">
-        <v>159.0896</v>
+        <v>159.08959999999999</v>
       </c>
       <c r="E57">
-        <v>6.6343</v>
+        <v>6.6342999999999996</v>
       </c>
       <c r="F57" t="s">
         <v>135</v>
@@ -4247,49 +4401,49 @@
         <v>53</v>
       </c>
       <c r="H57">
-        <v>0.5201</v>
-      </c>
-      <c r="I57" t="s">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J57">
-        <v>-0.7728</v>
-      </c>
-      <c r="K57" t="s">
-        <v>150</v>
-      </c>
-      <c r="L57">
+      <c r="J57" s="5">
+        <v>-0.77280000000000004</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L57" s="5">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>-0.7728</v>
-      </c>
-      <c r="N57" t="s">
+        <v>-0.77280000000000004</v>
+      </c>
+      <c r="N57" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O57">
-        <v>-0.6268</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="O57" s="5">
+        <v>-0.62680000000000002</v>
+      </c>
+      <c r="P57" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q57">
-        <v>-0.6268</v>
+      <c r="Q57" s="5">
+        <v>-0.62680000000000002</v>
       </c>
       <c r="R57">
-        <v>-0.6268</v>
+        <v>-0.62680000000000002</v>
       </c>
       <c r="S57">
-        <v>1.0131</v>
+        <v>1.0130999999999999</v>
       </c>
       <c r="T57">
-        <v>1.0088</v>
+        <v>1.0087999999999999</v>
       </c>
       <c r="U57">
         <v>3.9356</v>
       </c>
       <c r="V57">
-        <v>165.7239</v>
+        <v>165.72389999999999</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4297,13 +4451,13 @@
         <v>77</v>
       </c>
       <c r="B58">
-        <v>1.6255</v>
+        <v>1.6254999999999999</v>
       </c>
       <c r="C58">
         <v>2.2462</v>
       </c>
       <c r="D58">
-        <v>164.5375</v>
+        <v>164.53749999999999</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4315,49 +4469,49 @@
         <v>53</v>
       </c>
       <c r="H58">
-        <v>0.7594</v>
-      </c>
-      <c r="I58" t="s">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J58">
-        <v>0.7744</v>
-      </c>
-      <c r="K58" t="s">
-        <v>150</v>
-      </c>
-      <c r="L58">
+      <c r="J58" s="5">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L58" s="5">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0.7744</v>
-      </c>
-      <c r="N58" t="s">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="N58" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O58">
-        <v>0.6248</v>
-      </c>
-      <c r="P58" t="s">
+      <c r="O58" s="5">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="P58" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q58">
-        <v>0.6248</v>
+      <c r="Q58" s="5">
+        <v>0.62480000000000002</v>
       </c>
       <c r="R58">
-        <v>0.6248</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="S58">
         <v>1.0042</v>
       </c>
       <c r="T58">
-        <v>0.9912</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="U58">
-        <v>3.8717</v>
+        <v>3.8717000000000001</v>
       </c>
       <c r="V58">
-        <v>164.5375</v>
+        <v>164.53749999999999</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4365,13 +4519,13 @@
         <v>78</v>
       </c>
       <c r="B59">
-        <v>1.7653</v>
+        <v>1.7653000000000001</v>
       </c>
       <c r="C59">
         <v>2.2117</v>
       </c>
       <c r="D59">
-        <v>157.7438</v>
+        <v>157.74379999999999</v>
       </c>
       <c r="E59">
         <v>8.3163</v>
@@ -4383,210 +4537,217 @@
         <v>98</v>
       </c>
       <c r="H59">
-        <v>0.7096</v>
-      </c>
-      <c r="I59" t="s">
-        <v>150</v>
-      </c>
-      <c r="K59" t="s">
-        <v>150</v>
-      </c>
-      <c r="N59" t="s">
-        <v>150</v>
-      </c>
-      <c r="P59" t="s">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P59" s="5" t="s">
         <v>150</v>
       </c>
       <c r="S59">
-        <v>1.0132</v>
+        <v>1.0132000000000001</v>
       </c>
       <c r="U59">
-        <v>3.9769</v>
+        <v>3.9769000000000001</v>
       </c>
       <c r="V59">
-        <v>166.0601</v>
+        <v>166.06010000000001</v>
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B60">
-        <v>0.8685</v>
-      </c>
-      <c r="C60">
-        <v>1.6385</v>
-      </c>
-      <c r="D60">
-        <v>162.4175</v>
-      </c>
-      <c r="E60">
-        <v>3.4959</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="B60" s="3">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1.6385000000000001</v>
+      </c>
+      <c r="D60" s="3">
+        <v>162.41749999999999</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3.4958999999999998</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H60">
-        <v>0.6536999999999999</v>
-      </c>
-      <c r="I60" t="s">
-        <v>150</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" t="s">
-        <v>150</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60" t="s">
-        <v>150</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>1.0034</v>
-      </c>
-      <c r="T60">
-        <v>0.9997</v>
-      </c>
-      <c r="U60">
-        <v>2.507</v>
-      </c>
-      <c r="V60">
+      <c r="H60" s="3">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1.0034000000000001</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="U60" s="3">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="V60" s="3">
         <v>165.9134</v>
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B61">
-        <v>0.8539</v>
-      </c>
-      <c r="C61">
-        <v>1.7269</v>
-      </c>
-      <c r="D61">
-        <v>162.1846</v>
-      </c>
-      <c r="E61">
-        <v>3.7055</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="B61" s="3">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1.7269000000000001</v>
+      </c>
+      <c r="D61" s="3">
+        <v>162.18459999999999</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3.7054999999999998</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H61">
-        <v>0.7108</v>
-      </c>
-      <c r="I61" t="s">
-        <v>150</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>150</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>150</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
+      <c r="H61" s="3">
+        <v>0.71079999999999999</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1.0037</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="3">
         <v>1.0002</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="3">
         <v>2.5808</v>
       </c>
-      <c r="V61">
-        <v>165.8901</v>
+      <c r="V61" s="3">
+        <v>165.89009999999999</v>
       </c>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B62">
-        <v>0.983</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C62" s="3">
         <v>1.8386</v>
       </c>
-      <c r="D62">
-        <v>161.6077</v>
-      </c>
-      <c r="E62">
-        <v>4.6002</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="D62" s="3">
+        <v>161.60769999999999</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4.6002000000000001</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H62">
-        <v>0.7566000000000001</v>
-      </c>
-      <c r="I62" t="s">
-        <v>150</v>
-      </c>
-      <c r="K62" t="s">
-        <v>150</v>
-      </c>
-      <c r="N62" t="s">
-        <v>150</v>
-      </c>
-      <c r="P62" t="s">
-        <v>150</v>
-      </c>
-      <c r="S62">
+      <c r="H62" s="3">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L62" s="4"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3">
         <v>1.0036</v>
       </c>
-      <c r="U62">
-        <v>2.8217</v>
-      </c>
-      <c r="V62">
+      <c r="T62" s="3"/>
+      <c r="U62" s="3">
+        <v>2.8216999999999999</v>
+      </c>
+      <c r="V62" s="3">
         <v>166.2079</v>
       </c>
     </row>
@@ -4595,10 +4756,10 @@
         <v>82</v>
       </c>
       <c r="B63">
-        <v>0.5044</v>
+        <v>0.50439999999999996</v>
       </c>
       <c r="C63">
-        <v>0.6916</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="D63">
         <v>161.4753</v>
@@ -4613,22 +4774,22 @@
         <v>98</v>
       </c>
       <c r="H63">
-        <v>0.7768</v>
-      </c>
-      <c r="I63" t="s">
-        <v>150</v>
-      </c>
-      <c r="K63" t="s">
-        <v>150</v>
-      </c>
-      <c r="N63" t="s">
-        <v>150</v>
-      </c>
-      <c r="P63" t="s">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P63" s="5" t="s">
         <v>150</v>
       </c>
       <c r="S63">
-        <v>1.0147</v>
+        <v>1.0146999999999999</v>
       </c>
       <c r="U63">
         <v>1.196</v>
@@ -4638,186 +4799,193 @@
       </c>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B64">
-        <v>8.632099999999999</v>
-      </c>
-      <c r="C64">
-        <v>14.9936</v>
-      </c>
-      <c r="D64">
-        <v>89.6121</v>
-      </c>
-      <c r="E64">
-        <v>77.97069999999999</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="B64" s="3">
+        <v>8.6320999999999994</v>
+      </c>
+      <c r="C64" s="3">
+        <v>14.993600000000001</v>
+      </c>
+      <c r="D64" s="3">
+        <v>89.612099999999998</v>
+      </c>
+      <c r="E64" s="3">
+        <v>77.970699999999994</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>1</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J64">
-        <v>0.5669</v>
-      </c>
-      <c r="K64" t="s">
-        <v>150</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0.5669</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="J64" s="4">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O64">
-        <v>0.8238</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="O64" s="4">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="P64" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q64">
-        <v>0.8238</v>
-      </c>
-      <c r="R64">
-        <v>0.8238</v>
-      </c>
-      <c r="S64">
+      <c r="Q64" s="4">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="S64" s="3">
         <v>1</v>
       </c>
-      <c r="T64">
-        <v>0.9844000000000001</v>
-      </c>
-      <c r="U64">
-        <v>23.6257</v>
-      </c>
-      <c r="V64">
-        <v>167.5828</v>
+      <c r="T64" s="3">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="U64" s="3">
+        <v>23.625699999999998</v>
+      </c>
+      <c r="V64" s="3">
+        <v>167.58279999999999</v>
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B65">
-        <v>7.9959</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="3">
+        <v>7.9958999999999998</v>
+      </c>
+      <c r="C65" s="3">
         <v>14.77</v>
       </c>
-      <c r="D65">
-        <v>93.9307</v>
-      </c>
-      <c r="E65">
-        <v>71.6947</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D65" s="3">
+        <v>93.930700000000002</v>
+      </c>
+      <c r="E65" s="3">
+        <v>71.694699999999997</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H65">
-        <v>0.822</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="H65" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J65">
-        <v>-0.7501</v>
-      </c>
-      <c r="K65" t="s">
-        <v>150</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>-0.7501</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="J65" s="4">
+        <v>-0.75009999999999999</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>-0.75009999999999999</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O65">
-        <v>-0.6614</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="O65" s="4">
+        <v>-0.66139999999999999</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q65">
-        <v>-0.6614</v>
-      </c>
-      <c r="R65">
-        <v>-0.6614</v>
-      </c>
-      <c r="S65">
+      <c r="Q65" s="4">
+        <v>-0.66139999999999999</v>
+      </c>
+      <c r="R65" s="3">
+        <v>-0.66139999999999999</v>
+      </c>
+      <c r="S65" s="3">
         <v>1.0159</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="3">
         <v>0.9</v>
       </c>
-      <c r="U65">
-        <v>22.7659</v>
-      </c>
-      <c r="V65">
-        <v>165.6254</v>
+      <c r="U65" s="3">
+        <v>22.765899999999998</v>
+      </c>
+      <c r="V65" s="3">
+        <v>165.62540000000001</v>
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B66">
-        <v>13.2877</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="3">
+        <v>13.287699999999999</v>
+      </c>
+      <c r="C66" s="3">
         <v>14.8871</v>
       </c>
-      <c r="D66">
-        <v>84.07299999999999</v>
-      </c>
-      <c r="E66">
-        <v>80.38630000000001</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="D66" s="3">
+        <v>84.072999999999993</v>
+      </c>
+      <c r="E66" s="3">
+        <v>80.386300000000006</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H66">
-        <v>0.4306</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="H66" s="3">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K66" t="s">
-        <v>150</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L66" s="4"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P66" t="s">
+      <c r="O66" s="4"/>
+      <c r="P66" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S66">
+      <c r="Q66" s="4"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3">
         <v>1.1287</v>
       </c>
-      <c r="U66">
-        <v>28.1748</v>
-      </c>
-      <c r="V66">
-        <v>164.4593</v>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3">
+        <v>28.174800000000001</v>
+      </c>
+      <c r="V66" s="3">
+        <v>164.45930000000001</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4828,13 +4996,13 @@
         <v>2.54</v>
       </c>
       <c r="C67">
-        <v>3.739</v>
+        <v>3.7389999999999999</v>
       </c>
       <c r="D67">
-        <v>148.6853</v>
+        <v>148.68530000000001</v>
       </c>
       <c r="E67">
-        <v>18.7208</v>
+        <v>18.720800000000001</v>
       </c>
       <c r="F67" t="s">
         <v>141</v>
@@ -4843,49 +5011,49 @@
         <v>98</v>
       </c>
       <c r="H67">
-        <v>0.5674</v>
-      </c>
-      <c r="I67" t="s">
-        <v>150</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>150</v>
-      </c>
-      <c r="L67">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L67" s="5">
         <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
-      <c r="N67" t="s">
-        <v>150</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q67">
+      <c r="N67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q67" s="5">
         <v>0</v>
       </c>
       <c r="R67">
         <v>0</v>
       </c>
       <c r="S67">
-        <v>1.0136</v>
+        <v>1.0136000000000001</v>
       </c>
       <c r="T67">
-        <v>0.9806</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="U67">
-        <v>6.279</v>
+        <v>6.2789999999999999</v>
       </c>
       <c r="V67">
-        <v>167.4061</v>
+        <v>167.40610000000001</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -4893,13 +5061,13 @@
         <v>87</v>
       </c>
       <c r="B68">
-        <v>2.3295</v>
+        <v>2.3294999999999999</v>
       </c>
       <c r="C68">
-        <v>3.6542</v>
+        <v>3.6541999999999999</v>
       </c>
       <c r="D68">
-        <v>147.3106</v>
+        <v>147.31059999999999</v>
       </c>
       <c r="E68">
         <v>16.5044</v>
@@ -4911,46 +5079,46 @@
         <v>98</v>
       </c>
       <c r="H68">
-        <v>0.6277</v>
-      </c>
-      <c r="I68" t="s">
-        <v>150</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>150</v>
-      </c>
-      <c r="L68">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L68" s="5">
         <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
-      <c r="N68" t="s">
-        <v>150</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q68">
+      <c r="N68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q68" s="5">
         <v>0</v>
       </c>
       <c r="R68">
         <v>0</v>
       </c>
       <c r="S68">
-        <v>1.0337</v>
+        <v>1.0337000000000001</v>
       </c>
       <c r="T68">
-        <v>0.9832</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="U68">
-        <v>5.9837</v>
+        <v>5.9836999999999998</v>
       </c>
       <c r="V68">
         <v>163.815</v>
@@ -4961,16 +5129,16 @@
         <v>88</v>
       </c>
       <c r="B69">
-        <v>17.6594</v>
+        <v>17.659400000000002</v>
       </c>
       <c r="C69">
-        <v>4.9022</v>
+        <v>4.9021999999999997</v>
       </c>
       <c r="D69">
         <v>125.3854</v>
       </c>
       <c r="E69">
-        <v>44.7054</v>
+        <v>44.705399999999997</v>
       </c>
       <c r="F69" t="s">
         <v>101</v>
@@ -4979,25 +5147,25 @@
         <v>44</v>
       </c>
       <c r="H69">
-        <v>0.5206</v>
-      </c>
-      <c r="I69" t="s">
-        <v>150</v>
-      </c>
-      <c r="K69" t="s">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S69">
-        <v>1.0514</v>
+        <v>1.0513999999999999</v>
       </c>
       <c r="U69">
-        <v>22.5615</v>
+        <v>22.561499999999999</v>
       </c>
       <c r="V69">
         <v>170.0908</v>
@@ -5008,16 +5176,16 @@
         <v>89</v>
       </c>
       <c r="B70">
-        <v>12.9615</v>
+        <v>12.961499999999999</v>
       </c>
       <c r="C70">
         <v>6.1227</v>
       </c>
       <c r="D70">
-        <v>133.7383</v>
+        <v>133.73830000000001</v>
       </c>
       <c r="E70">
-        <v>32.206</v>
+        <v>32.206000000000003</v>
       </c>
       <c r="F70" t="s">
         <v>101</v>
@@ -5026,211 +5194,218 @@
         <v>35</v>
       </c>
       <c r="H70">
-        <v>0.7406</v>
-      </c>
-      <c r="I70" t="s">
-        <v>150</v>
-      </c>
-      <c r="K70" t="s">
-        <v>150</v>
-      </c>
-      <c r="N70" t="s">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N70" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="5" t="s">
         <v>152</v>
       </c>
       <c r="S70">
         <v>1.0785</v>
       </c>
       <c r="U70">
-        <v>19.0842</v>
+        <v>19.084199999999999</v>
       </c>
       <c r="V70">
         <v>165.9443</v>
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B71">
-        <v>5.4183</v>
-      </c>
-      <c r="C71">
-        <v>3.4004</v>
-      </c>
-      <c r="D71">
+      <c r="B71" s="3">
+        <v>5.4183000000000003</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3.4003999999999999</v>
+      </c>
+      <c r="D71" s="3">
         <v>139.9426</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>26.5852</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H71">
-        <v>0.5651</v>
-      </c>
-      <c r="I71" t="s">
-        <v>150</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>150</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
-        <v>150</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>1.0458</v>
-      </c>
-      <c r="T71">
+      <c r="H71" s="3">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>1.0458000000000001</v>
+      </c>
+      <c r="T71" s="3">
         <v>1.0407</v>
       </c>
-      <c r="U71">
-        <v>8.8187</v>
-      </c>
-      <c r="V71">
-        <v>166.5278</v>
+      <c r="U71" s="3">
+        <v>8.8186999999999998</v>
+      </c>
+      <c r="V71" s="3">
+        <v>166.52780000000001</v>
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B72">
-        <v>5.1633</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="3">
+        <v>5.1632999999999996</v>
+      </c>
+      <c r="C72" s="3">
         <v>4.1616</v>
       </c>
-      <c r="D72">
-        <v>136.9013</v>
-      </c>
-      <c r="E72">
-        <v>34.0424</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="D72" s="3">
+        <v>136.90129999999999</v>
+      </c>
+      <c r="E72" s="3">
+        <v>34.042400000000001</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H72">
-        <v>0.5473</v>
-      </c>
-      <c r="I72" t="s">
-        <v>150</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="H72" s="3">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L72">
-        <v>-0.9976</v>
-      </c>
-      <c r="M72">
-        <v>-0.9976</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="L72" s="4">
+        <v>-0.99760000000000004</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-0.99760000000000004</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O72">
-        <v>0.0687</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="O72" s="4">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="P72" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q72">
-        <v>0.0687</v>
-      </c>
-      <c r="R72">
-        <v>0.0687</v>
-      </c>
-      <c r="S72">
-        <v>1.0049</v>
-      </c>
-      <c r="T72">
-        <v>0.9752999999999999</v>
-      </c>
-      <c r="U72">
-        <v>9.3249</v>
-      </c>
-      <c r="V72">
-        <v>170.9437</v>
+      <c r="Q72" s="4">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="R72" s="3">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="S72" s="3">
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="U72" s="3">
+        <v>9.3248999999999995</v>
+      </c>
+      <c r="V72" s="3">
+        <v>170.94370000000001</v>
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B73">
-        <v>6.4225</v>
-      </c>
-      <c r="C73">
-        <v>3.8175</v>
-      </c>
-      <c r="D73">
-        <v>133.7382</v>
-      </c>
-      <c r="E73">
-        <v>33.8246</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="B73" s="3">
+        <v>6.4225000000000003</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3.8174999999999999</v>
+      </c>
+      <c r="D73" s="3">
+        <v>133.73820000000001</v>
+      </c>
+      <c r="E73" s="3">
+        <v>33.824599999999997</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H73">
-        <v>0.7173</v>
-      </c>
-      <c r="I73" t="s">
-        <v>150</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="H73" s="3">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N73" t="s">
+      <c r="L73" s="4"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P73" t="s">
+      <c r="O73" s="4"/>
+      <c r="P73" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S73">
+      <c r="Q73" s="4"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3">
         <v>1.0303</v>
       </c>
-      <c r="U73">
+      <c r="T73" s="3"/>
+      <c r="U73" s="3">
         <v>10.2401</v>
       </c>
-      <c r="V73">
-        <v>167.5628</v>
+      <c r="V73" s="3">
+        <v>167.56280000000001</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5238,16 +5413,16 @@
         <v>93</v>
       </c>
       <c r="B74">
-        <v>1.626</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="C74">
-        <v>0.9729</v>
+        <v>0.97289999999999999</v>
       </c>
       <c r="D74">
         <v>161.268</v>
       </c>
       <c r="E74">
-        <v>3.5473</v>
+        <v>3.5472999999999999</v>
       </c>
       <c r="F74" t="s">
         <v>145</v>
@@ -5258,47 +5433,47 @@
       <c r="H74">
         <v>0.6028</v>
       </c>
-      <c r="I74" t="s">
-        <v>150</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>150</v>
-      </c>
-      <c r="L74">
+      <c r="I74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L74" s="5">
         <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74" t="s">
-        <v>150</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q74">
+      <c r="N74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q74" s="5">
         <v>0</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74">
-        <v>1.0114</v>
+        <v>1.0114000000000001</v>
       </c>
       <c r="T74">
-        <v>0.9812</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="U74">
-        <v>2.5988</v>
+        <v>2.5988000000000002</v>
       </c>
       <c r="V74">
-        <v>164.8153</v>
+        <v>164.81530000000001</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5306,16 +5481,16 @@
         <v>94</v>
       </c>
       <c r="B75">
-        <v>4.7514</v>
+        <v>4.7514000000000003</v>
       </c>
       <c r="C75">
         <v>1.3141</v>
       </c>
       <c r="D75">
-        <v>158.3029</v>
+        <v>158.30289999999999</v>
       </c>
       <c r="E75">
-        <v>4.1646</v>
+        <v>4.1646000000000001</v>
       </c>
       <c r="F75" t="s">
         <v>146</v>
@@ -5326,44 +5501,44 @@
       <c r="H75">
         <v>0.7077</v>
       </c>
-      <c r="I75" t="s">
-        <v>150</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>150</v>
-      </c>
-      <c r="L75">
+      <c r="I75" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L75" s="5">
         <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O75">
-        <v>-0.9179</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="O75" s="5">
+        <v>-0.91790000000000005</v>
+      </c>
+      <c r="P75" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q75">
-        <v>-0.9179</v>
+      <c r="Q75" s="5">
+        <v>-0.91790000000000005</v>
       </c>
       <c r="R75">
-        <v>-0.9179</v>
+        <v>-0.91790000000000005</v>
       </c>
       <c r="S75">
-        <v>1.0309</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="T75">
-        <v>1.0115</v>
+        <v>1.0115000000000001</v>
       </c>
       <c r="U75">
-        <v>6.0654</v>
+        <v>6.0654000000000003</v>
       </c>
       <c r="V75">
         <v>162.4676</v>
@@ -5374,16 +5549,16 @@
         <v>95</v>
       </c>
       <c r="B76">
-        <v>2.2856</v>
+        <v>2.2856000000000001</v>
       </c>
       <c r="C76">
-        <v>1.3217</v>
+        <v>1.3217000000000001</v>
       </c>
       <c r="D76">
-        <v>159.4876</v>
+        <v>159.48759999999999</v>
       </c>
       <c r="E76">
-        <v>4.691</v>
+        <v>4.6909999999999998</v>
       </c>
       <c r="F76" t="s">
         <v>101</v>
@@ -5394,212 +5569,220 @@
       <c r="H76">
         <v>0.4546</v>
       </c>
-      <c r="I76" t="s">
-        <v>150</v>
-      </c>
-      <c r="K76" t="s">
-        <v>150</v>
-      </c>
-      <c r="N76" t="s">
-        <v>150</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="I76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P76" s="5" t="s">
         <v>150</v>
       </c>
       <c r="S76">
-        <v>1.0192</v>
+        <v>1.0192000000000001</v>
       </c>
       <c r="U76">
         <v>3.6073</v>
       </c>
       <c r="V76">
-        <v>164.1786</v>
+        <v>164.17859999999999</v>
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B77">
-        <v>0.0078</v>
-      </c>
-      <c r="C77">
-        <v>0.0722</v>
-      </c>
-      <c r="D77">
-        <v>164.3745</v>
-      </c>
-      <c r="E77">
+      <c r="B77" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="C77" s="3">
+        <v>7.22E-2</v>
+      </c>
+      <c r="D77" s="3">
+        <v>164.37450000000001</v>
+      </c>
+      <c r="E77" s="3">
         <v>0.7581</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H77">
-        <v>0.9928</v>
-      </c>
-      <c r="I77" t="s">
-        <v>150</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>150</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>150</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
+      <c r="H77" s="3">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
         <v>1.0002</v>
       </c>
-      <c r="T77">
+      <c r="T77" s="3">
         <v>1.0002</v>
       </c>
-      <c r="U77">
+      <c r="U77" s="3">
         <v>0.08</v>
       </c>
-      <c r="V77">
+      <c r="V77" s="3">
         <v>165.1326</v>
       </c>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B78">
-        <v>0.0023</v>
-      </c>
-      <c r="C78">
-        <v>0.0446</v>
-      </c>
-      <c r="D78">
-        <v>164.4073</v>
-      </c>
-      <c r="E78">
+      <c r="B78" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="D78" s="3">
+        <v>164.40729999999999</v>
+      </c>
+      <c r="E78" s="3">
         <v>0.7581</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H78">
-        <v>0.9992</v>
-      </c>
-      <c r="I78" t="s">
-        <v>150</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="s">
-        <v>150</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>150</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
+      <c r="H78" s="3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
         <v>1</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="3">
         <v>1</v>
       </c>
-      <c r="U78">
-        <v>0.0469</v>
-      </c>
-      <c r="V78">
+      <c r="U78" s="3">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="V78" s="3">
         <v>165.1653</v>
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B79">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="C79">
-        <v>0.043</v>
-      </c>
-      <c r="D79">
-        <v>164.4094</v>
-      </c>
-      <c r="E79">
-        <v>0.758</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="B79" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D79" s="3">
+        <v>164.40940000000001</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>1</v>
       </c>
-      <c r="I79" t="s">
-        <v>150</v>
-      </c>
-      <c r="K79" t="s">
-        <v>150</v>
-      </c>
-      <c r="N79" t="s">
-        <v>150</v>
-      </c>
-      <c r="P79" t="s">
-        <v>150</v>
-      </c>
-      <c r="S79">
+      <c r="I79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L79" s="4"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3">
         <v>1</v>
       </c>
-      <c r="U79">
-        <v>0.0435</v>
-      </c>
-      <c r="V79">
-        <v>165.1675</v>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="V79" s="3">
+        <v>165.16749999999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/14-16 all_dmu analysis.xlsx
+++ b/14-16 all_dmu analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="152">
   <si>
     <t>Insurance Expenses</t>
   </si>
@@ -49,7 +49,7 @@
     <t>expansion operation_exp cosine similarity</t>
   </si>
   <si>
-    <t>Expansion Marginal Revenue Consistency</t>
+    <t>Expansion Marginal Profit Consistency</t>
   </si>
   <si>
     <t>contraction insurance_exp max direction of MP</t>
@@ -64,7 +64,7 @@
     <t>contraction operation_exp cosine similarity</t>
   </si>
   <si>
-    <t>Contraction Marginal Revenue Consistency</t>
+    <t>Contraction Marginal Profit Consistency</t>
   </si>
   <si>
     <t>Efficiency</t>
@@ -461,314 +461,6 @@
   </si>
   <si>
     <t>[ 0.9922 -0.0078]</t>
-  </si>
-  <si>
-    <t>lambda    0.5363
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.5834
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.6313
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7875
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.9943
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.9213
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.6552
-Name: Hontai Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.9399
-Name: Chaoyang Life 14, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.9268
-Name: Chaoyang Life 14, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2091
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.286
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2228
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.9997
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Cathay Life 14, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Cathay Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Cathay Life 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: DUMMY Cathay 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Chaoyang Life 14, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.1057
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.1263
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.761
-Name: China Life 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: China Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: China Life 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2127
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2196
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2242
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Chunghwa Post 14, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Chunghwa Post 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Chunghwa Post 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.943
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.8837
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.6135
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2609
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.0991
-Name: Fubon Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.4195
-Name: Chaoyang Life 14, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.3566
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.1374
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.151
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.1406
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.8454
-Name: Fubon Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Fubon Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.8787
-Name: Fubon Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.1663
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7825
-Name: Hontai Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Hontai Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7419
-Name: Hontai Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.8061
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7743
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7527
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.579
-Name: Nan Shan Life 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7223
-Name: Nan Shan Life 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Nan Shan Life 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.5201
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7594
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2318
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.3257
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2668
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2141
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.1933
-Name: CIGNA 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Shin Kong Life 14, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.822
-Name: Shin Kong Life 14, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.4306
-Name: Chunghwa Post 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.3402
-Name: Chunghwa Post 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2872
-Name: Chunghwa Post 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.5206
-Name: China Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7406
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.1955
-Name: Hontai Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.5473
-Name: Hontai Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7173
-Name: Hontai Life 15, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.2751
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.7077
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.3884
-Name: Cardif 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.9928
-Name: Zurich 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    0.9992
-Name: Zurich 16, dtype: float64</t>
-  </si>
-  <si>
-    <t>lambda    1.0
-Name: Zurich 16, dtype: float64</t>
   </si>
   <si>
     <t>[0 1]</t>
@@ -1228,17 +920,17 @@
       <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" t="s">
-        <v>149</v>
+      <c r="H2">
+        <v>0.5363</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J2">
         <v>0.9869</v>
       </c>
       <c r="K2" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1247,13 +939,13 @@
         <v>0.9869</v>
       </c>
       <c r="N2" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O2">
         <v>-0.1612</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>-0.1612</v>
@@ -1296,17 +988,17 @@
       <c r="G3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s">
-        <v>150</v>
+      <c r="H3">
+        <v>0.5834</v>
       </c>
       <c r="I3" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J3">
         <v>0.2474</v>
       </c>
       <c r="K3" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1315,13 +1007,13 @@
         <v>0.2474</v>
       </c>
       <c r="N3" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O3">
         <v>0.9689</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>0.9689</v>
@@ -1364,20 +1056,20 @@
       <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="H4" t="s">
-        <v>151</v>
+      <c r="H4">
+        <v>0.6313</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="K4" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N4" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S4">
         <v>1.0051</v>
@@ -1409,34 +1101,34 @@
         <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>152</v>
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>0.2075</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0702</v>
       </c>
       <c r="K5" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0702</v>
       </c>
       <c r="N5" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O5">
         <v>-0.9975000000000001</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>-0.9975000000000001</v>
@@ -1479,17 +1171,17 @@
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
-        <v>153</v>
+      <c r="H6">
+        <v>0.9943</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1498,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O6">
         <v>0.8866000000000001</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>0.8866000000000001</v>
@@ -1545,22 +1237,22 @@
         <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>154</v>
+        <v>53</v>
+      </c>
+      <c r="H7">
+        <v>0.0688</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="K7" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N7" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P7" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S7">
         <v>1.0126</v>
@@ -1594,17 +1286,17 @@
       <c r="G8" t="s">
         <v>68</v>
       </c>
-      <c r="H8" t="s">
-        <v>155</v>
+      <c r="H8">
+        <v>0.6552</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="L8">
         <v>0.0425</v>
@@ -1613,13 +1305,13 @@
         <v>0.0425</v>
       </c>
       <c r="N8" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O8">
         <v>-0.9991</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>-0.9991</v>
@@ -1662,17 +1354,17 @@
       <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
-        <v>156</v>
+      <c r="H9">
+        <v>0.9399</v>
       </c>
       <c r="I9" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L9">
         <v>-0.9998</v>
@@ -1681,13 +1373,13 @@
         <v>-0.9998</v>
       </c>
       <c r="N9" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O9">
         <v>-0.9998</v>
       </c>
       <c r="P9" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>-0.9998</v>
@@ -1730,20 +1422,20 @@
       <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
-        <v>157</v>
+      <c r="H10">
+        <v>0.9268</v>
       </c>
       <c r="I10" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S10">
         <v>1.0393</v>
@@ -1775,34 +1467,34 @@
         <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>158</v>
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <v>0.0552</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3561</v>
       </c>
       <c r="K11" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3561</v>
       </c>
       <c r="N11" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O11">
         <v>0.9344</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>0.9344</v>
@@ -1843,34 +1535,34 @@
         <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>159</v>
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>0.0392</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-0.7951</v>
       </c>
       <c r="K12" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-0.7951</v>
       </c>
       <c r="N12" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O12">
         <v>0.6065</v>
       </c>
       <c r="P12" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>0.6065</v>
@@ -1911,22 +1603,22 @@
         <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>160</v>
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <v>0.1395</v>
       </c>
       <c r="I13" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S13">
         <v>1.0003</v>
@@ -1960,17 +1652,17 @@
       <c r="G14" t="s">
         <v>35</v>
       </c>
-      <c r="H14" t="s">
-        <v>161</v>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1979,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O14">
         <v>0.9927</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>0.9927</v>
@@ -2028,17 +1720,17 @@
       <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="H15" t="s">
-        <v>162</v>
+      <c r="H15">
+        <v>0.9997</v>
       </c>
       <c r="I15" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2047,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O15">
         <v>0.9999</v>
       </c>
       <c r="P15" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>0.9999</v>
@@ -2096,20 +1788,20 @@
       <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" t="s">
-        <v>161</v>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -2143,17 +1835,17 @@
       <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="H17" t="s">
-        <v>163</v>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="L17">
         <v>-0.2719</v>
@@ -2162,13 +1854,13 @@
         <v>-0.2719</v>
       </c>
       <c r="N17" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O17">
         <v>0.9623</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>0.9623</v>
@@ -2211,17 +1903,17 @@
       <c r="G18" t="s">
         <v>37</v>
       </c>
-      <c r="H18" t="s">
-        <v>164</v>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2230,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O18">
         <v>0.3284</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>0.3284</v>
@@ -2279,20 +1971,20 @@
       <c r="G19" t="s">
         <v>38</v>
       </c>
-      <c r="H19" t="s">
-        <v>165</v>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N19" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -2326,20 +2018,20 @@
       <c r="G20" t="s">
         <v>39</v>
       </c>
-      <c r="H20" t="s">
-        <v>166</v>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="N20" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -2373,17 +2065,17 @@
       <c r="G21" t="s">
         <v>40</v>
       </c>
-      <c r="H21" t="s">
-        <v>167</v>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L21">
         <v>-0.9928</v>
@@ -2392,13 +2084,13 @@
         <v>-0.9928</v>
       </c>
       <c r="N21" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O21">
         <v>-0.9928</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>-0.9928</v>
@@ -2439,19 +2131,19 @@
         <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>168</v>
+        <v>64</v>
+      </c>
+      <c r="H22">
+        <v>0.0076</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2460,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="O22">
-        <v>0.2517</v>
+        <v>-0.9678</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="Q22">
-        <v>0.2517</v>
+        <v>-0.9678</v>
       </c>
       <c r="R22">
-        <v>0.2517</v>
+        <v>-0.9678</v>
       </c>
       <c r="S22">
         <v>1.0077</v>
@@ -2507,22 +2199,22 @@
         <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>169</v>
+        <v>64</v>
+      </c>
+      <c r="H23">
+        <v>0.0058</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="S23">
         <v>1.0084</v>
@@ -2556,17 +2248,17 @@
       <c r="G24" t="s">
         <v>45</v>
       </c>
-      <c r="H24" t="s">
-        <v>170</v>
+      <c r="H24">
+        <v>0.761</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J24">
         <v>-0.4756</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="L24">
         <v>-0.4756</v>
@@ -2575,13 +2267,13 @@
         <v>-0.4756</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O24">
         <v>0.8796</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>0.8796</v>
@@ -2624,17 +2316,17 @@
       <c r="G25" t="s">
         <v>44</v>
       </c>
-      <c r="H25" t="s">
-        <v>171</v>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="L25">
         <v>0.8014</v>
@@ -2643,13 +2335,13 @@
         <v>0.8014</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O25">
         <v>-0.5982</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>-0.5982</v>
@@ -2692,20 +2384,20 @@
       <c r="G26" t="s">
         <v>45</v>
       </c>
-      <c r="H26" t="s">
-        <v>172</v>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2737,34 +2429,34 @@
         <v>116</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s">
-        <v>173</v>
+        <v>53</v>
+      </c>
+      <c r="H27">
+        <v>0.0968</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.2931</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.2931</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O27">
         <v>0.9560999999999999</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>0.9560999999999999</v>
@@ -2807,17 +2499,17 @@
       <c r="G28" t="s">
         <v>53</v>
       </c>
-      <c r="H28" t="s">
-        <v>174</v>
+      <c r="H28">
+        <v>0.2196</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J28">
         <v>-0.1214</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2826,13 +2518,13 @@
         <v>-0.1214</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O28">
         <v>-0.9926</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>-0.9926</v>
@@ -2873,22 +2565,22 @@
         <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s">
-        <v>175</v>
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>0.2178</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S29">
         <v>1.0021</v>
@@ -2922,17 +2614,17 @@
       <c r="G30" t="s">
         <v>49</v>
       </c>
-      <c r="H30" t="s">
-        <v>176</v>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J30">
         <v>0.7694</v>
       </c>
       <c r="K30" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2941,13 +2633,13 @@
         <v>0.7694</v>
       </c>
       <c r="N30" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O30">
         <v>-0.6387</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>-0.6387</v>
@@ -2990,17 +2682,17 @@
       <c r="G31" t="s">
         <v>50</v>
       </c>
-      <c r="H31" t="s">
-        <v>177</v>
+      <c r="H31">
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J31">
         <v>0.0358</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3009,13 +2701,13 @@
         <v>0.0358</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O31">
         <v>0.9994</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>0.9994</v>
@@ -3058,20 +2750,20 @@
       <c r="G32" t="s">
         <v>51</v>
       </c>
-      <c r="H32" t="s">
-        <v>178</v>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -3105,17 +2797,17 @@
       <c r="G33" t="s">
         <v>53</v>
       </c>
-      <c r="H33" t="s">
-        <v>179</v>
+      <c r="H33">
+        <v>0.9429999999999999</v>
       </c>
       <c r="I33" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J33">
         <v>0.1122</v>
       </c>
       <c r="K33" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3124,13 +2816,13 @@
         <v>0.1122</v>
       </c>
       <c r="N33" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O33">
         <v>0.9937</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>0.9937</v>
@@ -3173,17 +2865,17 @@
       <c r="G34" t="s">
         <v>53</v>
       </c>
-      <c r="H34" t="s">
-        <v>180</v>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J34">
         <v>0.08260000000000001</v>
       </c>
       <c r="K34" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3192,13 +2884,13 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="N34" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O34">
         <v>-0.9966</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>-0.9966</v>
@@ -3241,20 +2933,20 @@
       <c r="G35" t="s">
         <v>53</v>
       </c>
-      <c r="H35" t="s">
-        <v>181</v>
+      <c r="H35">
+        <v>0.8837</v>
       </c>
       <c r="I35" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N35" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S35">
         <v>1.002</v>
@@ -3286,19 +2978,19 @@
         <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" t="s">
-        <v>182</v>
+        <v>64</v>
+      </c>
+      <c r="H36">
+        <v>0.0922</v>
       </c>
       <c r="I36" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3307,19 +2999,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="O36">
-        <v>-0.6263</v>
+        <v>0.7796</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="Q36">
-        <v>-0.6263</v>
+        <v>0.7796</v>
       </c>
       <c r="R36">
-        <v>-0.6263</v>
+        <v>0.7796</v>
       </c>
       <c r="S36">
         <v>1.0242</v>
@@ -3354,22 +3046,22 @@
         <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s">
-        <v>183</v>
+        <v>64</v>
+      </c>
+      <c r="H37">
+        <v>0.1233</v>
       </c>
       <c r="I37" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K37" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N37" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="S37">
         <v>1.0255</v>
@@ -3403,17 +3095,17 @@
       <c r="G38" t="s">
         <v>64</v>
       </c>
-      <c r="H38" t="s">
-        <v>184</v>
+      <c r="H38">
+        <v>0.09909999999999999</v>
       </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3422,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O38">
         <v>0.4635</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>0.4635</v>
@@ -3471,17 +3163,17 @@
       <c r="G39" t="s">
         <v>40</v>
       </c>
-      <c r="H39" t="s">
-        <v>185</v>
+      <c r="H39">
+        <v>0.4195</v>
       </c>
       <c r="I39" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L39">
         <v>-0.444</v>
@@ -3490,13 +3182,13 @@
         <v>-0.444</v>
       </c>
       <c r="N39" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O39">
         <v>-0.444</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>-0.444</v>
@@ -3537,22 +3229,22 @@
         <v>101</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" t="s">
-        <v>186</v>
+        <v>64</v>
+      </c>
+      <c r="H40">
+        <v>0.09660000000000001</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N40" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="S40">
         <v>1.0296</v>
@@ -3584,34 +3276,34 @@
         <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" t="s">
-        <v>187</v>
+        <v>53</v>
+      </c>
+      <c r="H41">
+        <v>0.07630000000000001</v>
       </c>
       <c r="I41" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-0.9785</v>
       </c>
       <c r="K41" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-0.9785</v>
       </c>
       <c r="N41" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O41">
         <v>0.2065</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>0.2065</v>
@@ -3652,34 +3344,34 @@
         <v>126</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" t="s">
-        <v>188</v>
+        <v>53</v>
+      </c>
+      <c r="H42">
+        <v>0.1147</v>
       </c>
       <c r="I42" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.3114</v>
       </c>
       <c r="K42" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>0.3114</v>
       </c>
       <c r="N42" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O42">
         <v>-0.9503</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>-0.9503</v>
@@ -3722,20 +3414,20 @@
       <c r="G43" t="s">
         <v>53</v>
       </c>
-      <c r="H43" t="s">
-        <v>189</v>
+      <c r="H43">
+        <v>0.1406</v>
       </c>
       <c r="I43" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="K43" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N43" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S43">
         <v>1.0029</v>
@@ -3769,17 +3461,17 @@
       <c r="G44" t="s">
         <v>64</v>
       </c>
-      <c r="H44" t="s">
-        <v>190</v>
+      <c r="H44">
+        <v>0.8454</v>
       </c>
       <c r="I44" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3788,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O44">
         <v>0.8509</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>0.8509</v>
@@ -3837,17 +3529,17 @@
       <c r="G45" t="s">
         <v>64</v>
       </c>
-      <c r="H45" t="s">
-        <v>191</v>
+      <c r="H45">
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -3856,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O45">
         <v>-0.3974</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>-0.3974</v>
@@ -3905,20 +3597,20 @@
       <c r="G46" t="s">
         <v>64</v>
       </c>
-      <c r="H46" t="s">
-        <v>192</v>
+      <c r="H46">
+        <v>0.8787</v>
       </c>
       <c r="I46" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K46" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N46" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S46">
         <v>1.0988</v>
@@ -3950,22 +3642,22 @@
         <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" t="s">
-        <v>193</v>
+        <v>64</v>
+      </c>
+      <c r="H47">
+        <v>0.0112</v>
       </c>
       <c r="I47" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K47" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N47" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="S47">
         <v>1.026</v>
@@ -3999,17 +3691,17 @@
       <c r="G48" t="s">
         <v>68</v>
       </c>
-      <c r="H48" t="s">
-        <v>194</v>
+      <c r="H48">
+        <v>0.7825</v>
       </c>
       <c r="I48" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="L48">
         <v>-0.5573</v>
@@ -4018,13 +3710,13 @@
         <v>-0.5573</v>
       </c>
       <c r="N48" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O48">
         <v>0.8303</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>0.8303</v>
@@ -4067,17 +3759,17 @@
       <c r="G49" t="s">
         <v>68</v>
       </c>
-      <c r="H49" t="s">
-        <v>195</v>
+      <c r="H49">
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="L49">
         <v>-0.8366</v>
@@ -4086,13 +3778,13 @@
         <v>-0.8366</v>
       </c>
       <c r="N49" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O49">
         <v>0.5478</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q49">
         <v>0.5478</v>
@@ -4135,20 +3827,20 @@
       <c r="G50" t="s">
         <v>68</v>
       </c>
-      <c r="H50" t="s">
-        <v>196</v>
+      <c r="H50">
+        <v>0.7419</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="N50" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S50">
         <v>1.0057</v>
@@ -4180,19 +3872,19 @@
         <v>131</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" t="s">
-        <v>197</v>
+        <v>64</v>
+      </c>
+      <c r="H51">
+        <v>0.1939</v>
       </c>
       <c r="I51" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4201,19 +3893,19 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="O51">
-        <v>-0.5743</v>
+        <v>0.8187</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="Q51">
-        <v>-0.5743</v>
+        <v>0.8187</v>
       </c>
       <c r="R51">
-        <v>-0.5743</v>
+        <v>0.8187</v>
       </c>
       <c r="S51">
         <v>1.0494</v>
@@ -4248,19 +3940,19 @@
         <v>132</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" t="s">
-        <v>198</v>
+        <v>64</v>
+      </c>
+      <c r="H52">
+        <v>0.2257</v>
       </c>
       <c r="I52" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -4269,19 +3961,19 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="O52">
-        <v>-0.7745</v>
+        <v>0.6326000000000001</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="Q52">
-        <v>-0.7745</v>
+        <v>0.6326000000000001</v>
       </c>
       <c r="R52">
-        <v>-0.7745</v>
+        <v>0.6326000000000001</v>
       </c>
       <c r="S52">
         <v>1.0511</v>
@@ -4316,22 +4008,22 @@
         <v>101</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" t="s">
-        <v>199</v>
+        <v>64</v>
+      </c>
+      <c r="H53">
+        <v>0.2473</v>
       </c>
       <c r="I53" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K53" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N53" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="S53">
         <v>1.0605</v>
@@ -4365,17 +4057,17 @@
       <c r="G54" t="s">
         <v>75</v>
       </c>
-      <c r="H54" t="s">
-        <v>200</v>
+      <c r="H54">
+        <v>0.579</v>
       </c>
       <c r="I54" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J54">
         <v>-0.6178</v>
       </c>
       <c r="K54" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -4384,13 +4076,13 @@
         <v>-0.6178</v>
       </c>
       <c r="N54" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O54">
         <v>0.7864</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q54">
         <v>0.7864</v>
@@ -4433,17 +4125,17 @@
       <c r="G55" t="s">
         <v>75</v>
       </c>
-      <c r="H55" t="s">
-        <v>201</v>
+      <c r="H55">
+        <v>0.7223000000000001</v>
       </c>
       <c r="I55" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J55">
         <v>-0.6482</v>
       </c>
       <c r="K55" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -4452,13 +4144,13 @@
         <v>-0.6482</v>
       </c>
       <c r="N55" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O55">
         <v>0.7615</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q55">
         <v>0.7615</v>
@@ -4501,20 +4193,20 @@
       <c r="G56" t="s">
         <v>75</v>
       </c>
-      <c r="H56" t="s">
-        <v>202</v>
+      <c r="H56">
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="K56" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N56" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -4548,17 +4240,17 @@
       <c r="G57" t="s">
         <v>53</v>
       </c>
-      <c r="H57" t="s">
-        <v>203</v>
+      <c r="H57">
+        <v>0.5201</v>
       </c>
       <c r="I57" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J57">
         <v>-0.7728</v>
       </c>
       <c r="K57" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4567,13 +4259,13 @@
         <v>-0.7728</v>
       </c>
       <c r="N57" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O57">
         <v>0.6346000000000001</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q57">
         <v>0.6346000000000001</v>
@@ -4616,17 +4308,17 @@
       <c r="G58" t="s">
         <v>53</v>
       </c>
-      <c r="H58" t="s">
-        <v>204</v>
+      <c r="H58">
+        <v>0.7594</v>
       </c>
       <c r="I58" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J58">
         <v>0.7744</v>
       </c>
       <c r="K58" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -4635,13 +4327,13 @@
         <v>0.7744</v>
       </c>
       <c r="N58" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O58">
         <v>-0.6326000000000001</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q58">
         <v>-0.6326000000000001</v>
@@ -4684,20 +4376,20 @@
       <c r="G59" t="s">
         <v>53</v>
       </c>
-      <c r="H59" t="s">
-        <v>205</v>
+      <c r="H59">
+        <v>0.2318</v>
       </c>
       <c r="I59" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="K59" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N59" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S59">
         <v>1.0132</v>
@@ -4731,17 +4423,17 @@
       <c r="G60" t="s">
         <v>53</v>
       </c>
-      <c r="H60" t="s">
-        <v>206</v>
+      <c r="H60">
+        <v>0.3257</v>
       </c>
       <c r="I60" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J60">
         <v>0.6689000000000001</v>
       </c>
       <c r="K60" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -4750,13 +4442,13 @@
         <v>0.6689000000000001</v>
       </c>
       <c r="N60" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O60">
         <v>-0.7433</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q60">
         <v>-0.7433</v>
@@ -4799,17 +4491,17 @@
       <c r="G61" t="s">
         <v>53</v>
       </c>
-      <c r="H61" t="s">
-        <v>207</v>
+      <c r="H61">
+        <v>0.2668</v>
       </c>
       <c r="I61" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="J61">
         <v>0.8404</v>
       </c>
       <c r="K61" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4818,13 +4510,13 @@
         <v>0.8404</v>
       </c>
       <c r="N61" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O61">
         <v>-0.5419</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q61">
         <v>-0.5419</v>
@@ -4867,20 +4559,20 @@
       <c r="G62" t="s">
         <v>53</v>
       </c>
-      <c r="H62" t="s">
-        <v>208</v>
+      <c r="H62">
+        <v>0.2141</v>
       </c>
       <c r="I62" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="K62" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N62" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S62">
         <v>1.0036</v>
@@ -4914,20 +4606,20 @@
       <c r="G63" t="s">
         <v>53</v>
       </c>
-      <c r="H63" t="s">
-        <v>209</v>
+      <c r="H63">
+        <v>0.1933</v>
       </c>
       <c r="I63" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="K63" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N63" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S63">
         <v>1.0147</v>
@@ -4961,17 +4653,17 @@
       <c r="G64" t="s">
         <v>83</v>
       </c>
-      <c r="H64" t="s">
-        <v>210</v>
+      <c r="H64">
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J64">
         <v>0.5669</v>
       </c>
       <c r="K64" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -4980,13 +4672,13 @@
         <v>0.5669</v>
       </c>
       <c r="N64" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O64">
         <v>-0.8238</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q64">
         <v>-0.8238</v>
@@ -5029,17 +4721,17 @@
       <c r="G65" t="s">
         <v>83</v>
       </c>
-      <c r="H65" t="s">
-        <v>211</v>
+      <c r="H65">
+        <v>0.822</v>
       </c>
       <c r="I65" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J65">
         <v>-0.7501</v>
       </c>
       <c r="K65" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5048,13 +4740,13 @@
         <v>-0.7501</v>
       </c>
       <c r="N65" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O65">
         <v>0.6614</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q65">
         <v>0.6614</v>
@@ -5097,20 +4789,20 @@
       <c r="G66" t="s">
         <v>50</v>
       </c>
-      <c r="H66" t="s">
-        <v>212</v>
+      <c r="H66">
+        <v>0.4306</v>
       </c>
       <c r="I66" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="K66" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N66" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S66">
         <v>1.1287</v>
@@ -5144,17 +4836,17 @@
       <c r="G67" t="s">
         <v>50</v>
       </c>
-      <c r="H67" t="s">
-        <v>213</v>
+      <c r="H67">
+        <v>0.3402</v>
       </c>
       <c r="I67" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J67">
         <v>-0.5271</v>
       </c>
       <c r="K67" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5163,13 +4855,13 @@
         <v>-0.5271</v>
       </c>
       <c r="N67" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O67">
         <v>-0.8498</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q67">
         <v>-0.8498</v>
@@ -5212,17 +4904,17 @@
       <c r="G68" t="s">
         <v>50</v>
       </c>
-      <c r="H68" t="s">
-        <v>214</v>
+      <c r="H68">
+        <v>0.2872</v>
       </c>
       <c r="I68" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J68">
         <v>-0.6138</v>
       </c>
       <c r="K68" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -5231,13 +4923,13 @@
         <v>-0.6138</v>
       </c>
       <c r="N68" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O68">
         <v>0.7895</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q68">
         <v>0.7895</v>
@@ -5280,20 +4972,20 @@
       <c r="G69" t="s">
         <v>44</v>
       </c>
-      <c r="H69" t="s">
-        <v>215</v>
+      <c r="H69">
+        <v>0.5206</v>
       </c>
       <c r="I69" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K69" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="N69" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S69">
         <v>1.0514</v>
@@ -5325,22 +5017,22 @@
         <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" t="s">
-        <v>216</v>
+        <v>64</v>
+      </c>
+      <c r="H70">
+        <v>0.2594</v>
       </c>
       <c r="I70" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K70" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N70" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="S70">
         <v>1.0785</v>
@@ -5374,17 +5066,17 @@
       <c r="G71" t="s">
         <v>68</v>
       </c>
-      <c r="H71" t="s">
-        <v>217</v>
+      <c r="H71">
+        <v>0.1955</v>
       </c>
       <c r="I71" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="L71">
         <v>-0.3776</v>
@@ -5393,13 +5085,13 @@
         <v>-0.3776</v>
       </c>
       <c r="N71" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O71">
         <v>0.926</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q71">
         <v>0.926</v>
@@ -5442,17 +5134,17 @@
       <c r="G72" t="s">
         <v>68</v>
       </c>
-      <c r="H72" t="s">
-        <v>218</v>
+      <c r="H72">
+        <v>0.5473</v>
       </c>
       <c r="I72" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="L72">
         <v>-0.9976</v>
@@ -5461,13 +5153,13 @@
         <v>-0.9976</v>
       </c>
       <c r="N72" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="O72">
         <v>-0.0687</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Q72">
         <v>-0.0687</v>
@@ -5510,20 +5202,20 @@
       <c r="G73" t="s">
         <v>68</v>
       </c>
-      <c r="H73" t="s">
-        <v>219</v>
+      <c r="H73">
+        <v>0.7173</v>
       </c>
       <c r="I73" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K73" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="N73" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="S73">
         <v>1.0303</v>
@@ -5555,34 +5247,34 @@
         <v>145</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" t="s">
-        <v>220</v>
+        <v>53</v>
+      </c>
+      <c r="H74">
+        <v>0.1013</v>
       </c>
       <c r="I74" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>0.2038</v>
       </c>
       <c r="K74" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.2038</v>
       </c>
       <c r="N74" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="O74">
         <v>-0.979</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="Q74">
         <v>-0.979</v>
@@ -5623,19 +5315,19 @@
         <v>146</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" t="s">
-        <v>221</v>
+        <v>64</v>
+      </c>
+      <c r="H75">
+        <v>0.0252</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -5644,19 +5336,19 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="O75">
-        <v>0.9139</v>
+        <v>0.406</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="Q75">
-        <v>0.9139</v>
+        <v>0.406</v>
       </c>
       <c r="R75">
-        <v>0.9139</v>
+        <v>0.406</v>
       </c>
       <c r="S75">
         <v>1.0309</v>
@@ -5691,22 +5383,22 @@
         <v>101</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" t="s">
-        <v>222</v>
+        <v>53</v>
+      </c>
+      <c r="H76">
+        <v>0.1273</v>
       </c>
       <c r="I76" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="K76" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N76" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="S76">
         <v>1.0192</v>
@@ -5740,17 +5432,17 @@
       <c r="G77" t="s">
         <v>98</v>
       </c>
-      <c r="H77" t="s">
-        <v>223</v>
+      <c r="H77">
+        <v>0.9928</v>
       </c>
       <c r="I77" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -5759,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -5808,17 +5500,17 @@
       <c r="G78" t="s">
         <v>98</v>
       </c>
-      <c r="H78" t="s">
-        <v>224</v>
+      <c r="H78">
+        <v>0.9992</v>
       </c>
       <c r="I78" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -5827,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -5876,20 +5568,20 @@
       <c r="G79" t="s">
         <v>98</v>
       </c>
-      <c r="H79" t="s">
-        <v>225</v>
+      <c r="H79">
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="K79" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="N79" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="S79">
         <v>1</v>
